--- a/Requirments/RTM.xlsx
+++ b/Requirments/RTM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Courses\7- QA\Workshop\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="5472"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="539">
   <si>
     <t>Feature ID</t>
   </si>
@@ -1605,6 +1605,42 @@
   </si>
   <si>
     <t>TC_Registration_033</t>
+  </si>
+  <si>
+    <t>High level Design ID</t>
+  </si>
+  <si>
+    <t>SDD_High_Level_Advertisment</t>
+  </si>
+  <si>
+    <t>SDD_High_Level_Login</t>
+  </si>
+  <si>
+    <t>SDD_High_Level_Registeration</t>
+  </si>
+  <si>
+    <t>SDD_High_Level_Admin</t>
+  </si>
+  <si>
+    <t>SDD_High_Level_Reserve</t>
+  </si>
+  <si>
+    <t>Low Level Design ID</t>
+  </si>
+  <si>
+    <t>SDD_Login</t>
+  </si>
+  <si>
+    <t>SDD_Registeration</t>
+  </si>
+  <si>
+    <t>SDD_Advertisment</t>
+  </si>
+  <si>
+    <t>SDD_Usercontroller</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2005,11 +2041,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2146,170 +2208,191 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2645,22 +2728,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278:D281"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249:D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.3984375" customWidth="1"/>
     <col min="2" max="2" width="23.09765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="21.59765625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="33.59765625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="30.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="21.59765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2668,3744 +2752,4423 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="111" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="F2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="G2" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="33" t="s">
+    <row r="3" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="33" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="33" t="s">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="91"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="33" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="33" t="s">
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="91"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="33" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="33" t="s">
+    <row r="6" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="91"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="33" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="33" t="s">
+    <row r="7" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="91"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="33" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="33" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="91"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="22" t="s">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="H9" s="33" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="22" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="H10" s="33" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="22" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="91"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="H11" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="22" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="91"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="H12" s="33" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="76" t="s">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="91"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="F13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="G13" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="H13" s="33" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="22" t="s">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="91"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="H14" s="33" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="22" t="s">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="H15" s="33" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="22" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="91"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="H16" s="33" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="22" t="s">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="91"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="H17" s="33" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="76" t="s">
+    <row r="18" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="91"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="F18" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="G18" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="H18" s="33" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="33" t="s">
+    <row r="19" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="91"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="33" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="33" t="s">
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="91"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="33" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="33" t="s">
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="91"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="33" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="33" t="s">
+    <row r="22" spans="1:8" s="34" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="91"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="33" t="s">
+    <row r="23" spans="1:8" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="91"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="33" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="33" t="s">
+    <row r="24" spans="1:8" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="91"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="33" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="33" t="s">
+    <row r="25" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="91"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="33" t="s">
+    <row r="26" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="91"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="33" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="33" t="s">
+    <row r="27" spans="1:8" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="91"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="33" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="33" t="s">
+    <row r="28" spans="1:8" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="91"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="33" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="33" t="s">
+    <row r="29" spans="1:8" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="91"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="33" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="33" t="s">
+    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="A30" s="91"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="33" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="76" t="s">
+    <row r="31" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="91"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="F31" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="G31" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="H31" s="33" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="92"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="33" t="s">
+    <row r="32" spans="1:8" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="91"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="33" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="41" t="s">
+    <row r="33" spans="1:8" s="36" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="41" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="91" t="s">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="111" t="s">
+        <v>530</v>
+      </c>
+      <c r="D34" s="111" t="s">
+        <v>535</v>
+      </c>
+      <c r="E34" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="F34" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="G34" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="H34" s="31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="22" t="s">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="91"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="H35" s="33" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="22" t="s">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="H36" s="33" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="92"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="22" t="s">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="91"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="H37" s="33" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="22" t="s">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="H38" s="33" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="22" t="s">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="91"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="H39" s="31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="76" t="s">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="91"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="G40" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="H40" s="33" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="22" t="s">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="91"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="H41" s="33" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="61" t="s">
+    <row r="42" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="91"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="H42" s="33" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="33" t="s">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="91"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="33" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="22" t="s">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="91"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="H44" s="33" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="61" t="s">
+    <row r="45" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="91"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="H45" s="33" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="33" t="s">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="91"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="33" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="22" t="s">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="91"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="H47" s="33" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="66" t="s">
+    <row r="48" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="91"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="100" t="s">
+      <c r="F48" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="107" t="s">
+      <c r="G48" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="H48" s="33" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="33" t="s">
+    <row r="49" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="91"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="33" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="33" t="s">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="91"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="33" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="92"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="22" t="s">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="91"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="H51" s="33" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="92"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="22" t="s">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="91"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="H52" s="33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="92"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="22" t="s">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="91"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="H53" s="33" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="92"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="22" t="s">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="91"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="H54" s="33" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="92"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="22" t="s">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="91"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="H55" s="33" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="92"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="71" t="s">
+    <row r="56" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A56" s="91"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="H56" s="33" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A57" s="92"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="33" t="s">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="91"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="33" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="22" t="s">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="91"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="H58" s="33" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="92"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="22" t="s">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="91"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="H59" s="33" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="92"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="70" t="s">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="91"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="F60" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="G60" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="H60" s="33" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="92"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="22" t="s">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="91"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="H61" s="33" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.6">
-      <c r="A62" s="92"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="22" t="s">
+    <row r="62" spans="1:8" ht="15.6">
+      <c r="A62" s="91"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="H62" s="33" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.6">
-      <c r="A63" s="92"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="70" t="s">
+    <row r="63" spans="1:8" ht="15.6">
+      <c r="A63" s="91"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="F63" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="G63" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="H63" s="33" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A64" s="92"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="22" t="s">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="91"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="H64" s="33" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A65" s="92"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="70" t="s">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="91"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="72" t="s">
+      <c r="F65" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="61" t="s">
+      <c r="G65" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="H65" s="33" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="92"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="33" t="s">
+    <row r="66" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="91"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="33" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="92"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="33" t="s">
+    <row r="67" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="91"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="92"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="61" t="s">
+    <row r="68" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="91"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="H68" s="33" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="92"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="33" t="s">
+    <row r="69" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="91"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="33" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="92"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="33" t="s">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="91"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A71" s="92"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="70" t="s">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" s="91"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="72" t="s">
+      <c r="F71" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="G71" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="H71" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="92"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="22" t="s">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" s="91"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="H72" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="92"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="71" t="s">
+    <row r="73" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="91"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="H73" s="33" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="92"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="33" t="s">
+    <row r="74" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="91"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A75" s="92"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="33" t="s">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" s="91"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="33" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="92"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="61" t="s">
+    <row r="76" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="91"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="H76" s="33" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="92"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="33" t="s">
+    <row r="77" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="91"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A78" s="92"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="33" t="s">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" s="91"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="33" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A79" s="92"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="54" t="s">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="91"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="55" t="s">
+      <c r="F79" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="G79" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F79" s="33" t="s">
+      <c r="H79" s="33" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A80" s="92"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="70" t="s">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" s="91"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="F80" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="G80" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="H80" s="33" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A81" s="92"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="22" t="s">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A81" s="91"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="H81" s="33" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A82" s="92"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="70" t="s">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A82" s="91"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="72" t="s">
+      <c r="F82" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="G82" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F82" s="33" t="s">
+      <c r="H82" s="33" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A83" s="92"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="25" t="s">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" s="91"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="H83" s="33" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="92"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="66" t="s">
+    <row r="84" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="91"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D84" s="100" t="s">
+      <c r="F84" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="61" t="s">
+      <c r="G84" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="H84" s="33" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A85" s="92"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="105"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="33" t="s">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A85" s="91"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="33" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A86" s="92"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="22" t="s">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="91"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="33" t="s">
+      <c r="H86" s="33" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A87" s="92"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="54" t="s">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A87" s="91"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="F87" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="G87" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="H87" s="33" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A88" s="92"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="70" t="s">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" s="91"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D88" s="72" t="s">
+      <c r="F88" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="G88" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="H88" s="33" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A89" s="92"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="22" t="s">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" s="91"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F89" s="33" t="s">
+      <c r="H89" s="33" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A90" s="92"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="22" t="s">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A90" s="91"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="H90" s="33" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A91" s="92"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="22" t="s">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A91" s="91"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F91" s="33" t="s">
+      <c r="H91" s="33" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A92" s="92"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="22" t="s">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A92" s="91"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F92" s="33" t="s">
+      <c r="H92" s="33" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A93" s="92"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="22" t="s">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A93" s="91"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="H93" s="33" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A94" s="92"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="22" t="s">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A94" s="91"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="H94" s="33" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A95" s="92"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="22" t="s">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A95" s="91"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F95" s="33" t="s">
+      <c r="H95" s="33" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A96" s="92"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="22" t="s">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A96" s="91"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="H96" s="33" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A97" s="92"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="22" t="s">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A97" s="91"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F97" s="33" t="s">
+      <c r="H97" s="33" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A98" s="92"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="22" t="s">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A98" s="91"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F98" s="33" t="s">
+      <c r="H98" s="33" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A99" s="92"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="22" t="s">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A99" s="91"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="H99" s="33" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A100" s="92"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="22" t="s">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A100" s="91"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="F100" s="33" t="s">
+      <c r="H100" s="33" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A101" s="92"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="22" t="s">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A101" s="91"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F101" s="33" t="s">
+      <c r="H101" s="33" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A102" s="92"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="22" t="s">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A102" s="91"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F102" s="33" t="s">
+      <c r="H102" s="33" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A103" s="92"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="22" t="s">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A103" s="91"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="F103" s="33" t="s">
+      <c r="H103" s="33" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A104" s="92"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="72" t="s">
+    <row r="104" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A104" s="91"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="72" t="s">
+      <c r="F104" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E104" s="71" t="s">
+      <c r="G104" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="F104" s="33" t="s">
+      <c r="H104" s="33" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A105" s="92"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="33" t="s">
+    <row r="105" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A105" s="91"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="33" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A106" s="92"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="71" t="s">
+    <row r="106" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A106" s="91"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="F106" s="33" t="s">
+      <c r="H106" s="33" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A107" s="92"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="33" t="s">
+    <row r="107" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A107" s="91"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="33" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A108" s="92"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="72" t="s">
+    <row r="108" spans="1:8" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A108" s="91"/>
+      <c r="B108" s="88"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="72" t="s">
+      <c r="F108" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="E108" s="71" t="s">
+      <c r="G108" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F108" s="33" t="s">
+      <c r="H108" s="33" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="92"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="33" t="s">
+    <row r="109" spans="1:8" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A109" s="91"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="33" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A110" s="92"/>
-      <c r="B110" s="89"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="33" t="s">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A110" s="91"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A111" s="92"/>
-      <c r="B111" s="89"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="71" t="s">
+    <row r="111" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A111" s="91"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="F111" s="33" t="s">
+      <c r="H111" s="33" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A112" s="92"/>
-      <c r="B112" s="89"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="33" t="s">
+    <row r="112" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A112" s="91"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="33" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A113" s="92"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="33" t="s">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A113" s="91"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A114" s="92"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="72" t="s">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A114" s="91"/>
+      <c r="B114" s="88"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E114" s="22" t="s">
+      <c r="G114" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F114" s="33" t="s">
+      <c r="H114" s="33" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A115" s="93"/>
-      <c r="B115" s="90"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="24" t="s">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A115" s="92"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="112"/>
+      <c r="E115" s="73"/>
+      <c r="F115" s="73"/>
+      <c r="G115" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F115" s="41" t="s">
+      <c r="H115" s="41" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A116" s="96" t="s">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A116" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B116" s="68" t="s">
+      <c r="B116" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="103" t="s">
+      <c r="C116" s="113" t="s">
+        <v>528</v>
+      </c>
+      <c r="D116" s="113" t="s">
+        <v>536</v>
+      </c>
+      <c r="E116" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="F116" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E116" s="110" t="s">
+      <c r="G116" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="F116" s="46" t="s">
+      <c r="H116" s="46" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.6">
-      <c r="A117" s="97"/>
+    <row r="117" spans="1:8" ht="15.6">
+      <c r="A117" s="96"/>
       <c r="B117" s="70"/>
-      <c r="C117" s="104"/>
-      <c r="D117" s="18" t="s">
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="G117" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="F117" s="47" t="s">
+      <c r="H117" s="47" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A118" s="97"/>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A118" s="96"/>
       <c r="B118" s="70"/>
-      <c r="C118" s="104"/>
-      <c r="D118" s="18" t="s">
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="78"/>
+      <c r="F118" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E118" s="22" t="s">
+      <c r="G118" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="F118" s="47"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A119" s="97"/>
+      <c r="H118" s="47"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A119" s="96"/>
       <c r="B119" s="70"/>
-      <c r="C119" s="104"/>
-      <c r="D119" s="18" t="s">
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="22" t="s">
+      <c r="G119" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="F119" s="47"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A120" s="97"/>
+      <c r="H119" s="47"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A120" s="96"/>
       <c r="B120" s="70"/>
-      <c r="C120" s="104"/>
-      <c r="D120" s="70" t="s">
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="78"/>
+      <c r="F120" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="G120" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="F120" s="47"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A121" s="97"/>
+      <c r="H120" s="47"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A121" s="96"/>
       <c r="B121" s="70"/>
-      <c r="C121" s="104"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="22" t="s">
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="78"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="F121" s="47"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A122" s="97"/>
+      <c r="H121" s="47"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A122" s="96"/>
       <c r="B122" s="70"/>
-      <c r="C122" s="104"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="22" t="s">
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="78"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="F122" s="47"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A123" s="97"/>
+      <c r="H122" s="47"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A123" s="96"/>
       <c r="B123" s="70"/>
-      <c r="C123" s="104"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="22" t="s">
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="F123" s="47"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A124" s="97"/>
+      <c r="H123" s="47"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A124" s="96"/>
       <c r="B124" s="70"/>
-      <c r="C124" s="104"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="22" t="s">
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="F124" s="47"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A125" s="97"/>
+      <c r="H124" s="47"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A125" s="96"/>
       <c r="B125" s="70"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="18" t="s">
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="G125" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="F125" s="47"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A126" s="97"/>
+      <c r="H125" s="47"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A126" s="96"/>
       <c r="B126" s="70"/>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="F126" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="G126" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F126" s="47" t="s">
+      <c r="H126" s="47" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A127" s="97"/>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A127" s="96"/>
       <c r="B127" s="70"/>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="F127" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="G127" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="F127" s="47" t="s">
+      <c r="H127" s="47" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A128" s="97"/>
+    <row r="128" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A128" s="96"/>
       <c r="B128" s="70"/>
-      <c r="C128" s="63" t="s">
+      <c r="C128" s="64"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="D128" s="66" t="s">
+      <c r="F128" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="61" t="s">
+      <c r="G128" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="F128" s="47" t="s">
+      <c r="H128" s="47" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A129" s="97"/>
+    <row r="129" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A129" s="96"/>
       <c r="B129" s="70"/>
       <c r="C129" s="64"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="47" t="s">
+      <c r="D129" s="64"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="64"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="47" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A130" s="97"/>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A130" s="96"/>
       <c r="B130" s="70"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="47" t="s">
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="47" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A131" s="97"/>
+    <row r="131" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A131" s="96"/>
       <c r="B131" s="70"/>
-      <c r="C131" s="63" t="s">
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D131" s="66" t="s">
+      <c r="F131" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E131" s="61" t="s">
+      <c r="G131" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F131" s="47" t="s">
+      <c r="H131" s="47" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A132" s="97"/>
+    <row r="132" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A132" s="96"/>
       <c r="B132" s="70"/>
       <c r="C132" s="64"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="47" t="s">
+      <c r="D132" s="64"/>
+      <c r="E132" s="75"/>
+      <c r="F132" s="64"/>
+      <c r="G132" s="69"/>
+      <c r="H132" s="47" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A133" s="97"/>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A133" s="96"/>
       <c r="B133" s="70"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="47" t="s">
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="47" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A134" s="97"/>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A134" s="96"/>
       <c r="B134" s="70"/>
-      <c r="C134" s="59" t="s">
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="D134" s="70" t="s">
+      <c r="F134" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="E134" s="22" t="s">
+      <c r="G134" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F134" s="47" t="s">
+      <c r="H134" s="47" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A135" s="97"/>
+    <row r="135" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A135" s="96"/>
       <c r="B135" s="70"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="22" t="s">
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="F135" s="47" t="s">
+      <c r="H135" s="47" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A136" s="97"/>
+    <row r="136" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A136" s="96"/>
       <c r="B136" s="70"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="22" t="s">
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="70"/>
+      <c r="G136" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="F136" s="47" t="s">
+      <c r="H136" s="47" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A137" s="97"/>
+    <row r="137" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A137" s="96"/>
       <c r="B137" s="70"/>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="F137" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E137" s="22" t="s">
+      <c r="G137" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="F137" s="47" t="s">
+      <c r="H137" s="47" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A138" s="97"/>
+    <row r="138" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A138" s="96"/>
       <c r="B138" s="70"/>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="F138" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E138" s="22" t="s">
+      <c r="G138" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F138" s="47" t="s">
+      <c r="H138" s="47" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A139" s="97"/>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A139" s="96"/>
       <c r="B139" s="70"/>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="F139" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E139" s="22" t="s">
+      <c r="G139" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="F139" s="47" t="s">
+      <c r="H139" s="47" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A140" s="97"/>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A140" s="96"/>
       <c r="B140" s="70"/>
-      <c r="C140" s="59" t="s">
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="D140" s="70" t="s">
+      <c r="F140" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="E140" s="22" t="s">
+      <c r="G140" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F140" s="47" t="s">
+      <c r="H140" s="47" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A141" s="97"/>
+    <row r="141" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A141" s="96"/>
       <c r="B141" s="70"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="22" t="s">
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="70"/>
+      <c r="G141" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="F141" s="47" t="s">
+      <c r="H141" s="47" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A142" s="97"/>
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A142" s="96"/>
       <c r="B142" s="70"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="22" t="s">
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="70"/>
+      <c r="G142" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F142" s="47" t="s">
+      <c r="H142" s="47" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A143" s="97"/>
+    <row r="143" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A143" s="96"/>
       <c r="B143" s="70"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="22" t="s">
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="F143" s="47" t="s">
+      <c r="H143" s="47" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A144" s="97"/>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A144" s="96"/>
       <c r="B144" s="70"/>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="F144" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E144" s="22" t="s">
+      <c r="G144" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="F144" s="47"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A145" s="97"/>
+      <c r="H144" s="47"/>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A145" s="96"/>
       <c r="B145" s="70"/>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="F145" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E145" s="22" t="s">
+      <c r="G145" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="F145" s="47" t="s">
+      <c r="H145" s="47" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A146" s="97"/>
+    <row r="146" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A146" s="96"/>
       <c r="B146" s="70"/>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="F146" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E146" s="22" t="s">
+      <c r="G146" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F146" s="47" t="s">
+      <c r="H146" s="47" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A147" s="97"/>
+    <row r="147" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A147" s="96"/>
       <c r="B147" s="70"/>
-      <c r="C147" s="59" t="s">
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D147" s="70" t="s">
+      <c r="F147" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="E147" s="22" t="s">
+      <c r="G147" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="F147" s="47" t="s">
+      <c r="H147" s="47" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A148" s="97"/>
+    <row r="148" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A148" s="96"/>
       <c r="B148" s="70"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="70"/>
-      <c r="E148" s="22" t="s">
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="70"/>
+      <c r="G148" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F148" s="47" t="s">
+      <c r="H148" s="47" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A149" s="97"/>
+    <row r="149" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A149" s="96"/>
       <c r="B149" s="70"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="22" t="s">
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="70"/>
+      <c r="G149" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="F149" s="47"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A150" s="97"/>
+      <c r="H149" s="47"/>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A150" s="96"/>
       <c r="B150" s="70"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="22" t="s">
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="70"/>
+      <c r="G150" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F150" s="47"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A151" s="97"/>
+      <c r="H150" s="47"/>
+    </row>
+    <row r="151" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A151" s="96"/>
       <c r="B151" s="70"/>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="F151" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E151" s="22" t="s">
+      <c r="G151" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F151" s="47" t="s">
+      <c r="H151" s="47" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A152" s="97"/>
+    <row r="152" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A152" s="96"/>
       <c r="B152" s="70"/>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="F152" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E152" s="22" t="s">
+      <c r="G152" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="F152" s="47" t="s">
+      <c r="H152" s="47" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A153" s="97"/>
+    <row r="153" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A153" s="96"/>
       <c r="B153" s="70"/>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="64"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="F153" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E153" s="22" t="s">
+      <c r="G153" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="F153" s="47"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A154" s="97"/>
+      <c r="H153" s="47"/>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A154" s="96"/>
       <c r="B154" s="70"/>
-      <c r="C154" s="59" t="s">
+      <c r="C154" s="64"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="D154" s="70" t="s">
+      <c r="F154" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="E154" s="22" t="s">
+      <c r="G154" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F154" s="47" t="s">
+      <c r="H154" s="47" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A155" s="97"/>
+    <row r="155" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A155" s="96"/>
       <c r="B155" s="70"/>
-      <c r="C155" s="59"/>
-      <c r="D155" s="70"/>
-      <c r="E155" s="22" t="s">
+      <c r="C155" s="64"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="71"/>
+      <c r="F155" s="70"/>
+      <c r="G155" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="F155" s="47" t="s">
+      <c r="H155" s="47" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A156" s="97"/>
+    <row r="156" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A156" s="96"/>
       <c r="B156" s="70"/>
-      <c r="C156" s="59"/>
-      <c r="D156" s="70"/>
-      <c r="E156" s="22" t="s">
+      <c r="C156" s="64"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="70"/>
+      <c r="G156" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="F156" s="47"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A157" s="97"/>
+      <c r="H156" s="47"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A157" s="96"/>
       <c r="B157" s="70"/>
-      <c r="C157" s="59"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="22" t="s">
+      <c r="C157" s="64"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="F157" s="47"/>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A158" s="97"/>
+      <c r="H157" s="47"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A158" s="96"/>
       <c r="B158" s="70"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="70"/>
-      <c r="E158" s="22" t="s">
+      <c r="C158" s="64"/>
+      <c r="D158" s="64"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="70"/>
+      <c r="G158" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="F158" s="47"/>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A159" s="97"/>
+      <c r="H158" s="47"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A159" s="96"/>
       <c r="B159" s="70"/>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="64"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="F159" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E159" s="22" t="s">
+      <c r="G159" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="F159" s="47"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A160" s="97"/>
+      <c r="H159" s="47"/>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A160" s="96"/>
       <c r="B160" s="70"/>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="64"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="F160" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E160" s="22" t="s">
+      <c r="G160" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="F160" s="47" t="s">
+      <c r="H160" s="47" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A161" s="97"/>
+    <row r="161" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A161" s="96"/>
       <c r="B161" s="70"/>
-      <c r="C161" s="59" t="s">
+      <c r="C161" s="64"/>
+      <c r="D161" s="64"/>
+      <c r="E161" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="D161" s="70" t="s">
+      <c r="F161" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="E161" s="22" t="s">
+      <c r="G161" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F161" s="47"/>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A162" s="97"/>
+      <c r="H161" s="47"/>
+    </row>
+    <row r="162" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A162" s="96"/>
       <c r="B162" s="70"/>
-      <c r="C162" s="59"/>
-      <c r="D162" s="70"/>
-      <c r="E162" s="22" t="s">
+      <c r="C162" s="64"/>
+      <c r="D162" s="64"/>
+      <c r="E162" s="71"/>
+      <c r="F162" s="70"/>
+      <c r="G162" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="F162" s="47"/>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A163" s="97"/>
+      <c r="H162" s="47"/>
+    </row>
+    <row r="163" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A163" s="96"/>
       <c r="B163" s="70"/>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="64"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="F163" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E163" s="22" t="s">
+      <c r="G163" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="F163" s="47"/>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A164" s="97"/>
+      <c r="H163" s="47"/>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A164" s="96"/>
       <c r="B164" s="70"/>
-      <c r="C164" s="59" t="s">
+      <c r="C164" s="64"/>
+      <c r="D164" s="64"/>
+      <c r="E164" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="D164" s="70" t="s">
+      <c r="F164" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="E164" s="22" t="s">
+      <c r="G164" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F164" s="47" t="s">
+      <c r="H164" s="47" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A165" s="97"/>
+    <row r="165" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A165" s="96"/>
       <c r="B165" s="70"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="70"/>
-      <c r="E165" s="22" t="s">
+      <c r="C165" s="64"/>
+      <c r="D165" s="64"/>
+      <c r="E165" s="71"/>
+      <c r="F165" s="70"/>
+      <c r="G165" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="F165" s="47" t="s">
+      <c r="H165" s="47" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A166" s="97"/>
+    <row r="166" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A166" s="96"/>
       <c r="B166" s="70"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="70"/>
-      <c r="E166" s="22" t="s">
+      <c r="C166" s="64"/>
+      <c r="D166" s="64"/>
+      <c r="E166" s="71"/>
+      <c r="F166" s="70"/>
+      <c r="G166" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F166" s="47" t="s">
+      <c r="H166" s="47" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A167" s="97"/>
+    <row r="167" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A167" s="96"/>
       <c r="B167" s="70"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="70"/>
-      <c r="E167" s="22" t="s">
+      <c r="C167" s="64"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="71"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F167" s="47" t="s">
+      <c r="H167" s="47" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A168" s="97"/>
+    <row r="168" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A168" s="96"/>
       <c r="B168" s="70"/>
-      <c r="C168" s="59" t="s">
+      <c r="C168" s="64"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="D168" s="70" t="s">
+      <c r="F168" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="E168" s="22" t="s">
+      <c r="G168" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="F168" s="47"/>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A169" s="97"/>
+      <c r="H168" s="47"/>
+    </row>
+    <row r="169" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A169" s="96"/>
       <c r="B169" s="70"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="22" t="s">
+      <c r="C169" s="64"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="F169" s="47"/>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A170" s="97"/>
+      <c r="H169" s="47"/>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A170" s="96"/>
       <c r="B170" s="70"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="22" t="s">
+      <c r="C170" s="64"/>
+      <c r="D170" s="64"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="70"/>
+      <c r="G170" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="F170" s="47"/>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A171" s="97"/>
+      <c r="H170" s="47"/>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A171" s="96"/>
       <c r="B171" s="70"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="70"/>
-      <c r="E171" s="22" t="s">
+      <c r="C171" s="64"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="71"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="F171" s="47"/>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A172" s="97"/>
+      <c r="H171" s="47"/>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A172" s="96"/>
       <c r="B172" s="70"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="70"/>
-      <c r="E172" s="22" t="s">
+      <c r="C172" s="64"/>
+      <c r="D172" s="64"/>
+      <c r="E172" s="71"/>
+      <c r="F172" s="70"/>
+      <c r="G172" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="F172" s="47"/>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A173" s="97"/>
+      <c r="H172" s="47"/>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A173" s="96"/>
       <c r="B173" s="70"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="70"/>
-      <c r="E173" s="22" t="s">
+      <c r="C173" s="64"/>
+      <c r="D173" s="64"/>
+      <c r="E173" s="71"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="F173" s="47"/>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A174" s="97"/>
+      <c r="H173" s="47"/>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A174" s="96"/>
       <c r="B174" s="70"/>
-      <c r="C174" s="59"/>
-      <c r="D174" s="70"/>
-      <c r="E174" s="22" t="s">
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="71"/>
+      <c r="F174" s="70"/>
+      <c r="G174" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="F174" s="47"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A175" s="97"/>
+      <c r="H174" s="47"/>
+    </row>
+    <row r="175" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A175" s="96"/>
       <c r="B175" s="70"/>
-      <c r="C175" s="59"/>
-      <c r="D175" s="70"/>
-      <c r="E175" s="22" t="s">
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="F175" s="47"/>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A176" s="97"/>
+      <c r="H175" s="47"/>
+    </row>
+    <row r="176" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A176" s="96"/>
       <c r="B176" s="70"/>
-      <c r="C176" s="59" t="s">
+      <c r="C176" s="64"/>
+      <c r="D176" s="64"/>
+      <c r="E176" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D176" s="70" t="s">
+      <c r="F176" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="E176" s="22" t="s">
+      <c r="G176" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="F176" s="47"/>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A177" s="97"/>
+      <c r="H176" s="47"/>
+    </row>
+    <row r="177" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A177" s="96"/>
       <c r="B177" s="70"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="70"/>
-      <c r="E177" s="22" t="s">
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="71"/>
+      <c r="F177" s="70"/>
+      <c r="G177" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="F177" s="47"/>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A178" s="97"/>
+      <c r="H177" s="47"/>
+    </row>
+    <row r="178" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A178" s="96"/>
       <c r="B178" s="70"/>
-      <c r="C178" s="59"/>
-      <c r="D178" s="70"/>
-      <c r="E178" s="22" t="s">
+      <c r="C178" s="64"/>
+      <c r="D178" s="64"/>
+      <c r="E178" s="71"/>
+      <c r="F178" s="70"/>
+      <c r="G178" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F178" s="47"/>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A179" s="97"/>
+      <c r="H178" s="47"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A179" s="96"/>
       <c r="B179" s="70"/>
-      <c r="C179" s="59"/>
-      <c r="D179" s="70"/>
-      <c r="E179" s="22" t="s">
+      <c r="C179" s="64"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="71"/>
+      <c r="F179" s="70"/>
+      <c r="G179" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="F179" s="47"/>
-    </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A180" s="97"/>
+      <c r="H179" s="47"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A180" s="96"/>
       <c r="B180" s="70"/>
-      <c r="C180" s="59" t="s">
+      <c r="C180" s="64"/>
+      <c r="D180" s="64"/>
+      <c r="E180" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D180" s="70" t="s">
+      <c r="F180" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="E180" s="22" t="s">
+      <c r="G180" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="F180" s="47" t="s">
+      <c r="H180" s="47" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A181" s="97"/>
+    <row r="181" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A181" s="96"/>
       <c r="B181" s="70"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="70"/>
-      <c r="E181" s="22" t="s">
+      <c r="C181" s="64"/>
+      <c r="D181" s="64"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="F181" s="47"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A182" s="97"/>
+      <c r="H181" s="47"/>
+    </row>
+    <row r="182" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A182" s="96"/>
       <c r="B182" s="70"/>
-      <c r="C182" s="59"/>
-      <c r="D182" s="70"/>
-      <c r="E182" s="22" t="s">
+      <c r="C182" s="64"/>
+      <c r="D182" s="64"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="70"/>
+      <c r="G182" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="F182" s="47"/>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A183" s="97"/>
+      <c r="H182" s="47"/>
+    </row>
+    <row r="183" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A183" s="96"/>
       <c r="B183" s="70"/>
-      <c r="C183" s="59"/>
-      <c r="D183" s="70"/>
-      <c r="E183" s="22" t="s">
+      <c r="C183" s="64"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="F183" s="47"/>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A184" s="97"/>
+      <c r="H183" s="47"/>
+    </row>
+    <row r="184" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A184" s="96"/>
       <c r="B184" s="70"/>
-      <c r="C184" s="59"/>
-      <c r="D184" s="70"/>
-      <c r="E184" s="22" t="s">
+      <c r="C184" s="64"/>
+      <c r="D184" s="64"/>
+      <c r="E184" s="71"/>
+      <c r="F184" s="70"/>
+      <c r="G184" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F184" s="47"/>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A185" s="97"/>
+      <c r="H184" s="47"/>
+    </row>
+    <row r="185" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A185" s="96"/>
       <c r="B185" s="70"/>
-      <c r="C185" s="59"/>
-      <c r="D185" s="70"/>
-      <c r="E185" s="22" t="s">
+      <c r="C185" s="64"/>
+      <c r="D185" s="64"/>
+      <c r="E185" s="71"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="F185" s="47" t="s">
+      <c r="H185" s="47" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A186" s="97"/>
+    <row r="186" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A186" s="96"/>
       <c r="B186" s="70"/>
-      <c r="C186" s="59"/>
-      <c r="D186" s="70"/>
-      <c r="E186" s="22" t="s">
+      <c r="C186" s="64"/>
+      <c r="D186" s="64"/>
+      <c r="E186" s="71"/>
+      <c r="F186" s="70"/>
+      <c r="G186" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="F186" s="47"/>
-    </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A187" s="97"/>
+      <c r="H186" s="47"/>
+    </row>
+    <row r="187" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A187" s="96"/>
       <c r="B187" s="70"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="70"/>
-      <c r="E187" s="22" t="s">
+      <c r="C187" s="64"/>
+      <c r="D187" s="64"/>
+      <c r="E187" s="71"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="F187" s="47"/>
-    </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A188" s="97"/>
+      <c r="H187" s="47"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A188" s="96"/>
       <c r="B188" s="70"/>
-      <c r="C188" s="59"/>
-      <c r="D188" s="70"/>
-      <c r="E188" s="22" t="s">
+      <c r="C188" s="64"/>
+      <c r="D188" s="64"/>
+      <c r="E188" s="71"/>
+      <c r="F188" s="70"/>
+      <c r="G188" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="F188" s="47"/>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A189" s="97"/>
+      <c r="H188" s="47"/>
+    </row>
+    <row r="189" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A189" s="96"/>
       <c r="B189" s="70"/>
-      <c r="C189" s="59"/>
-      <c r="D189" s="70"/>
-      <c r="E189" s="22" t="s">
+      <c r="C189" s="64"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="71"/>
+      <c r="F189" s="70"/>
+      <c r="G189" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="F189" s="47"/>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A190" s="97"/>
+      <c r="H189" s="47"/>
+    </row>
+    <row r="190" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A190" s="96"/>
       <c r="B190" s="70"/>
-      <c r="C190" s="59"/>
-      <c r="D190" s="70"/>
-      <c r="E190" s="22" t="s">
+      <c r="C190" s="64"/>
+      <c r="D190" s="64"/>
+      <c r="E190" s="71"/>
+      <c r="F190" s="70"/>
+      <c r="G190" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="F190" s="47" t="s">
+      <c r="H190" s="47" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A191" s="97"/>
+    <row r="191" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A191" s="96"/>
       <c r="B191" s="70"/>
-      <c r="C191" s="59"/>
-      <c r="D191" s="70"/>
-      <c r="E191" s="22" t="s">
+      <c r="C191" s="64"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="71"/>
+      <c r="F191" s="70"/>
+      <c r="G191" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="F191" s="47"/>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A192" s="97"/>
+      <c r="H191" s="47"/>
+    </row>
+    <row r="192" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A192" s="96"/>
       <c r="B192" s="70"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="70"/>
-      <c r="E192" s="22" t="s">
+      <c r="C192" s="64"/>
+      <c r="D192" s="64"/>
+      <c r="E192" s="71"/>
+      <c r="F192" s="70"/>
+      <c r="G192" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="F192" s="47"/>
-    </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A193" s="97"/>
+      <c r="H192" s="47"/>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A193" s="96"/>
       <c r="B193" s="70"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="70"/>
-      <c r="E193" s="22" t="s">
+      <c r="C193" s="64"/>
+      <c r="D193" s="64"/>
+      <c r="E193" s="71"/>
+      <c r="F193" s="70"/>
+      <c r="G193" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="F193" s="47"/>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A194" s="97"/>
+      <c r="H193" s="47"/>
+    </row>
+    <row r="194" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A194" s="96"/>
       <c r="B194" s="70"/>
-      <c r="C194" s="59"/>
-      <c r="D194" s="70"/>
-      <c r="E194" s="22" t="s">
+      <c r="C194" s="64"/>
+      <c r="D194" s="64"/>
+      <c r="E194" s="71"/>
+      <c r="F194" s="70"/>
+      <c r="G194" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="F194" s="47"/>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A195" s="97"/>
+      <c r="H194" s="47"/>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A195" s="96"/>
       <c r="B195" s="70"/>
-      <c r="C195" s="59"/>
-      <c r="D195" s="70"/>
-      <c r="E195" s="22" t="s">
+      <c r="C195" s="64"/>
+      <c r="D195" s="64"/>
+      <c r="E195" s="71"/>
+      <c r="F195" s="70"/>
+      <c r="G195" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="F195" s="47" t="s">
+      <c r="H195" s="47" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A196" s="97"/>
+    <row r="196" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A196" s="96"/>
       <c r="B196" s="70"/>
-      <c r="C196" s="59"/>
-      <c r="D196" s="70"/>
-      <c r="E196" s="22" t="s">
+      <c r="C196" s="64"/>
+      <c r="D196" s="64"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="70"/>
+      <c r="G196" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="F196" s="47"/>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A197" s="97"/>
+      <c r="H196" s="47"/>
+    </row>
+    <row r="197" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A197" s="96"/>
       <c r="B197" s="70"/>
-      <c r="C197" s="59"/>
-      <c r="D197" s="70"/>
-      <c r="E197" s="22" t="s">
+      <c r="C197" s="64"/>
+      <c r="D197" s="64"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="70"/>
+      <c r="G197" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="F197" s="47"/>
-    </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A198" s="97"/>
+      <c r="H197" s="47"/>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A198" s="96"/>
       <c r="B198" s="70"/>
-      <c r="C198" s="59"/>
-      <c r="D198" s="70"/>
-      <c r="E198" s="22" t="s">
+      <c r="C198" s="64"/>
+      <c r="D198" s="64"/>
+      <c r="E198" s="71"/>
+      <c r="F198" s="70"/>
+      <c r="G198" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="F198" s="47"/>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A199" s="97"/>
+      <c r="H198" s="47"/>
+    </row>
+    <row r="199" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A199" s="96"/>
       <c r="B199" s="70"/>
-      <c r="C199" s="59"/>
-      <c r="D199" s="70"/>
-      <c r="E199" s="22" t="s">
+      <c r="C199" s="64"/>
+      <c r="D199" s="64"/>
+      <c r="E199" s="71"/>
+      <c r="F199" s="70"/>
+      <c r="G199" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="F199" s="47"/>
-    </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A200" s="97"/>
+      <c r="H199" s="47"/>
+    </row>
+    <row r="200" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A200" s="96"/>
       <c r="B200" s="70"/>
-      <c r="C200" s="59"/>
-      <c r="D200" s="70"/>
-      <c r="E200" s="22" t="s">
+      <c r="C200" s="64"/>
+      <c r="D200" s="64"/>
+      <c r="E200" s="71"/>
+      <c r="F200" s="70"/>
+      <c r="G200" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="F200" s="47" t="s">
+      <c r="H200" s="47" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A201" s="97"/>
+    <row r="201" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A201" s="96"/>
       <c r="B201" s="70"/>
-      <c r="C201" s="59"/>
-      <c r="D201" s="70"/>
-      <c r="E201" s="22" t="s">
+      <c r="C201" s="64"/>
+      <c r="D201" s="64"/>
+      <c r="E201" s="71"/>
+      <c r="F201" s="70"/>
+      <c r="G201" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="F201" s="47"/>
-    </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A202" s="97"/>
+      <c r="H201" s="47"/>
+    </row>
+    <row r="202" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A202" s="96"/>
       <c r="B202" s="70"/>
-      <c r="C202" s="59"/>
-      <c r="D202" s="70"/>
-      <c r="E202" s="22" t="s">
+      <c r="C202" s="64"/>
+      <c r="D202" s="64"/>
+      <c r="E202" s="71"/>
+      <c r="F202" s="70"/>
+      <c r="G202" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="F202" s="47"/>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A203" s="97"/>
+      <c r="H202" s="47"/>
+    </row>
+    <row r="203" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A203" s="96"/>
       <c r="B203" s="70"/>
-      <c r="C203" s="59"/>
-      <c r="D203" s="70"/>
-      <c r="E203" s="22" t="s">
+      <c r="C203" s="64"/>
+      <c r="D203" s="64"/>
+      <c r="E203" s="71"/>
+      <c r="F203" s="70"/>
+      <c r="G203" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="F203" s="47"/>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A204" s="97"/>
+      <c r="H203" s="47"/>
+    </row>
+    <row r="204" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A204" s="96"/>
       <c r="B204" s="70"/>
-      <c r="C204" s="59"/>
-      <c r="D204" s="70"/>
-      <c r="E204" s="22" t="s">
+      <c r="C204" s="64"/>
+      <c r="D204" s="64"/>
+      <c r="E204" s="71"/>
+      <c r="F204" s="70"/>
+      <c r="G204" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="F204" s="47"/>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A205" s="97"/>
+      <c r="H204" s="47"/>
+    </row>
+    <row r="205" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A205" s="96"/>
       <c r="B205" s="70"/>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="64"/>
+      <c r="D205" s="64"/>
+      <c r="E205" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="F205" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E205" s="22" t="s">
+      <c r="G205" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F205" s="47" t="s">
+      <c r="H205" s="47" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A206" s="97"/>
+    <row r="206" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A206" s="96"/>
       <c r="B206" s="70"/>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="64"/>
+      <c r="D206" s="64"/>
+      <c r="E206" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D206" s="18" t="s">
+      <c r="F206" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E206" s="22" t="s">
+      <c r="G206" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="F206" s="47"/>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A207" s="97"/>
+      <c r="H206" s="47"/>
+    </row>
+    <row r="207" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A207" s="96"/>
       <c r="B207" s="70"/>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="64"/>
+      <c r="D207" s="64"/>
+      <c r="E207" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="F207" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E207" s="22" t="s">
+      <c r="G207" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="F207" s="47"/>
-    </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A208" s="97"/>
+      <c r="H207" s="47"/>
+    </row>
+    <row r="208" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A208" s="96"/>
       <c r="B208" s="70"/>
-      <c r="C208" s="13" t="s">
+      <c r="C208" s="64"/>
+      <c r="D208" s="64"/>
+      <c r="E208" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="F208" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="G208" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="F208" s="47" t="s">
+      <c r="H208" s="47" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A209" s="97"/>
+    <row r="209" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A209" s="96"/>
       <c r="B209" s="70"/>
-      <c r="C209" s="59" t="s">
+      <c r="C209" s="64"/>
+      <c r="D209" s="64"/>
+      <c r="E209" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="D209" s="70" t="s">
+      <c r="F209" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="E209" s="22" t="s">
+      <c r="G209" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="F209" s="47" t="s">
+      <c r="H209" s="47" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A210" s="97"/>
+    <row r="210" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A210" s="96"/>
       <c r="B210" s="70"/>
-      <c r="C210" s="59"/>
-      <c r="D210" s="70"/>
-      <c r="E210" s="22" t="s">
+      <c r="C210" s="64"/>
+      <c r="D210" s="64"/>
+      <c r="E210" s="71"/>
+      <c r="F210" s="70"/>
+      <c r="G210" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="F210" s="47"/>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A211" s="102"/>
-      <c r="B211" s="66"/>
-      <c r="C211" s="63"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="53" t="s">
+      <c r="H210" s="47"/>
+    </row>
+    <row r="211" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A211" s="100"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="114"/>
+      <c r="D211" s="114"/>
+      <c r="E211" s="74"/>
+      <c r="F211" s="63"/>
+      <c r="G211" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="F211" s="48" t="s">
+      <c r="H211" s="48" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A212" s="95" t="s">
+    <row r="212" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A212" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B212" s="86" t="s">
+      <c r="B212" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C212" s="27" t="s">
+      <c r="C212" s="115" t="s">
+        <v>531</v>
+      </c>
+      <c r="D212" s="115" t="s">
+        <v>537</v>
+      </c>
+      <c r="E212" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D212" s="15" t="s">
+      <c r="F212" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E212" s="23" t="s">
+      <c r="G212" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="F212" s="49" t="s">
+      <c r="H212" s="49" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A213" s="96"/>
-      <c r="B213" s="94"/>
-      <c r="C213" s="63" t="s">
+    <row r="213" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A213" s="95"/>
+      <c r="B213" s="93"/>
+      <c r="C213" s="116"/>
+      <c r="D213" s="116"/>
+      <c r="E213" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D213" s="66" t="s">
+      <c r="F213" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E213" s="61" t="s">
+      <c r="G213" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="F213" s="48" t="s">
+      <c r="H213" s="48" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A214" s="97"/>
-      <c r="B214" s="60"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="67"/>
-      <c r="E214" s="62"/>
-      <c r="F214" s="48" t="s">
+    <row r="214" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A214" s="96"/>
+      <c r="B214" s="82"/>
+      <c r="C214" s="116"/>
+      <c r="D214" s="116"/>
+      <c r="E214" s="75"/>
+      <c r="F214" s="64"/>
+      <c r="G214" s="59"/>
+      <c r="H214" s="48" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A215" s="97"/>
-      <c r="B215" s="60"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="67"/>
-      <c r="E215" s="61" t="s">
+    <row r="215" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A215" s="96"/>
+      <c r="B215" s="82"/>
+      <c r="C215" s="116"/>
+      <c r="D215" s="116"/>
+      <c r="E215" s="75"/>
+      <c r="F215" s="64"/>
+      <c r="G215" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="F215" s="48" t="s">
+      <c r="H215" s="48" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A216" s="97"/>
-      <c r="B216" s="60"/>
-      <c r="C216" s="65"/>
-      <c r="D216" s="68"/>
-      <c r="E216" s="62"/>
-      <c r="F216" s="48" t="s">
+    <row r="216" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A216" s="96"/>
+      <c r="B216" s="82"/>
+      <c r="C216" s="116"/>
+      <c r="D216" s="116"/>
+      <c r="E216" s="76"/>
+      <c r="F216" s="65"/>
+      <c r="G216" s="59"/>
+      <c r="H216" s="48" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A217" s="97"/>
-      <c r="B217" s="60"/>
-      <c r="C217" s="13" t="s">
+    <row r="217" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A217" s="96"/>
+      <c r="B217" s="82"/>
+      <c r="C217" s="116"/>
+      <c r="D217" s="116"/>
+      <c r="E217" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D217" s="18" t="s">
+      <c r="F217" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E217" s="22" t="s">
+      <c r="G217" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="F217" s="48" t="s">
+      <c r="H217" s="48" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A218" s="97"/>
-      <c r="B218" s="60"/>
-      <c r="C218" s="13" t="s">
+    <row r="218" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A218" s="96"/>
+      <c r="B218" s="82"/>
+      <c r="C218" s="116"/>
+      <c r="D218" s="116"/>
+      <c r="E218" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="F218" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E218" s="22" t="s">
+      <c r="G218" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="F218" s="48" t="s">
+      <c r="H218" s="48" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A219" s="97"/>
-      <c r="B219" s="60"/>
-      <c r="C219" s="63" t="s">
+    <row r="219" spans="1:8" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A219" s="96"/>
+      <c r="B219" s="82"/>
+      <c r="C219" s="116"/>
+      <c r="D219" s="116"/>
+      <c r="E219" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="D219" s="66" t="s">
+      <c r="F219" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E219" s="61" t="s">
+      <c r="G219" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="F219" s="48" t="s">
+      <c r="H219" s="48" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A220" s="97"/>
-      <c r="B220" s="60"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="67"/>
-      <c r="E220" s="62"/>
-      <c r="F220" s="48" t="s">
+    <row r="220" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A220" s="96"/>
+      <c r="B220" s="82"/>
+      <c r="C220" s="116"/>
+      <c r="D220" s="116"/>
+      <c r="E220" s="75"/>
+      <c r="F220" s="64"/>
+      <c r="G220" s="59"/>
+      <c r="H220" s="48" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A221" s="97"/>
-      <c r="B221" s="60"/>
-      <c r="C221" s="64"/>
-      <c r="D221" s="67"/>
-      <c r="E221" s="22" t="s">
+    <row r="221" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A221" s="96"/>
+      <c r="B221" s="82"/>
+      <c r="C221" s="116"/>
+      <c r="D221" s="116"/>
+      <c r="E221" s="75"/>
+      <c r="F221" s="64"/>
+      <c r="G221" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="F221" s="48" t="s">
+      <c r="H221" s="48" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A222" s="97"/>
-      <c r="B222" s="60"/>
-      <c r="C222" s="64"/>
-      <c r="D222" s="67"/>
-      <c r="E222" s="22" t="s">
+    <row r="222" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A222" s="96"/>
+      <c r="B222" s="82"/>
+      <c r="C222" s="116"/>
+      <c r="D222" s="116"/>
+      <c r="E222" s="75"/>
+      <c r="F222" s="64"/>
+      <c r="G222" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="F222" s="48" t="s">
+      <c r="H222" s="48" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A223" s="97"/>
-      <c r="B223" s="60"/>
-      <c r="C223" s="64"/>
-      <c r="D223" s="67"/>
-      <c r="E223" s="22" t="s">
+    <row r="223" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A223" s="96"/>
+      <c r="B223" s="82"/>
+      <c r="C223" s="116"/>
+      <c r="D223" s="116"/>
+      <c r="E223" s="75"/>
+      <c r="F223" s="64"/>
+      <c r="G223" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="F223" s="48" t="s">
+      <c r="H223" s="48" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A224" s="97"/>
-      <c r="B224" s="60"/>
-      <c r="C224" s="64"/>
-      <c r="D224" s="67"/>
-      <c r="E224" s="22" t="s">
+    <row r="224" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A224" s="96"/>
+      <c r="B224" s="82"/>
+      <c r="C224" s="116"/>
+      <c r="D224" s="116"/>
+      <c r="E224" s="75"/>
+      <c r="F224" s="64"/>
+      <c r="G224" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="F224" s="48" t="s">
+      <c r="H224" s="48" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A225" s="97"/>
-      <c r="B225" s="60"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="67"/>
-      <c r="E225" s="22" t="s">
+    <row r="225" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A225" s="96"/>
+      <c r="B225" s="82"/>
+      <c r="C225" s="116"/>
+      <c r="D225" s="116"/>
+      <c r="E225" s="75"/>
+      <c r="F225" s="64"/>
+      <c r="G225" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="F225" s="48" t="s">
+      <c r="H225" s="48" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A226" s="97"/>
-      <c r="B226" s="60"/>
-      <c r="C226" s="64"/>
-      <c r="D226" s="67"/>
-      <c r="E226" s="22" t="s">
+    <row r="226" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A226" s="96"/>
+      <c r="B226" s="82"/>
+      <c r="C226" s="116"/>
+      <c r="D226" s="116"/>
+      <c r="E226" s="75"/>
+      <c r="F226" s="64"/>
+      <c r="G226" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="F226" s="48" t="s">
+      <c r="H226" s="48" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A227" s="97"/>
-      <c r="B227" s="60"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="67"/>
-      <c r="E227" s="22" t="s">
+    <row r="227" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A227" s="96"/>
+      <c r="B227" s="82"/>
+      <c r="C227" s="116"/>
+      <c r="D227" s="116"/>
+      <c r="E227" s="75"/>
+      <c r="F227" s="64"/>
+      <c r="G227" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="F227" s="48" t="s">
+      <c r="H227" s="48" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A228" s="97"/>
-      <c r="B228" s="60"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="67"/>
-      <c r="E228" s="22" t="s">
+    <row r="228" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A228" s="96"/>
+      <c r="B228" s="82"/>
+      <c r="C228" s="116"/>
+      <c r="D228" s="116"/>
+      <c r="E228" s="75"/>
+      <c r="F228" s="64"/>
+      <c r="G228" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="F228" s="48" t="s">
+      <c r="H228" s="48" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A229" s="97"/>
-      <c r="B229" s="60"/>
-      <c r="C229" s="64"/>
-      <c r="D229" s="67"/>
-      <c r="E229" s="40" t="s">
+    <row r="229" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A229" s="96"/>
+      <c r="B229" s="82"/>
+      <c r="C229" s="116"/>
+      <c r="D229" s="116"/>
+      <c r="E229" s="75"/>
+      <c r="F229" s="64"/>
+      <c r="G229" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="F229" s="48" t="s">
+      <c r="H229" s="48" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A230" s="97"/>
-      <c r="B230" s="60"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="67"/>
-      <c r="E230" s="40" t="s">
+    <row r="230" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A230" s="96"/>
+      <c r="B230" s="82"/>
+      <c r="C230" s="116"/>
+      <c r="D230" s="116"/>
+      <c r="E230" s="75"/>
+      <c r="F230" s="64"/>
+      <c r="G230" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="F230" s="48" t="s">
+      <c r="H230" s="48" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A231" s="97"/>
-      <c r="B231" s="60"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="67"/>
-      <c r="E231" s="40" t="s">
+    <row r="231" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A231" s="96"/>
+      <c r="B231" s="82"/>
+      <c r="C231" s="116"/>
+      <c r="D231" s="116"/>
+      <c r="E231" s="75"/>
+      <c r="F231" s="64"/>
+      <c r="G231" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="F231" s="48" t="s">
+      <c r="H231" s="48" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A232" s="97"/>
-      <c r="B232" s="60"/>
-      <c r="C232" s="64"/>
-      <c r="D232" s="67"/>
-      <c r="E232" s="40" t="s">
+    <row r="232" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A232" s="96"/>
+      <c r="B232" s="82"/>
+      <c r="C232" s="116"/>
+      <c r="D232" s="116"/>
+      <c r="E232" s="75"/>
+      <c r="F232" s="64"/>
+      <c r="G232" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="F232" s="48" t="s">
+      <c r="H232" s="48" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A233" s="97"/>
-      <c r="B233" s="60"/>
-      <c r="C233" s="64"/>
-      <c r="D233" s="67"/>
-      <c r="E233" s="40" t="s">
+    <row r="233" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A233" s="96"/>
+      <c r="B233" s="82"/>
+      <c r="C233" s="116"/>
+      <c r="D233" s="116"/>
+      <c r="E233" s="75"/>
+      <c r="F233" s="64"/>
+      <c r="G233" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="F233" s="48" t="s">
+      <c r="H233" s="48" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A234" s="97"/>
-      <c r="B234" s="60"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="67"/>
-      <c r="E234" s="40" t="s">
+    <row r="234" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A234" s="96"/>
+      <c r="B234" s="82"/>
+      <c r="C234" s="116"/>
+      <c r="D234" s="116"/>
+      <c r="E234" s="75"/>
+      <c r="F234" s="64"/>
+      <c r="G234" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="F234" s="48" t="s">
+      <c r="H234" s="48" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A235" s="97"/>
-      <c r="B235" s="60"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="67"/>
-      <c r="E235" s="40" t="s">
+    <row r="235" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A235" s="96"/>
+      <c r="B235" s="82"/>
+      <c r="C235" s="116"/>
+      <c r="D235" s="116"/>
+      <c r="E235" s="75"/>
+      <c r="F235" s="64"/>
+      <c r="G235" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="F235" s="48" t="s">
+      <c r="H235" s="48" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A236" s="97"/>
-      <c r="B236" s="60"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="67"/>
-      <c r="E236" s="40" t="s">
+    <row r="236" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A236" s="96"/>
+      <c r="B236" s="82"/>
+      <c r="C236" s="116"/>
+      <c r="D236" s="116"/>
+      <c r="E236" s="75"/>
+      <c r="F236" s="64"/>
+      <c r="G236" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="F236" s="48" t="s">
+      <c r="H236" s="48" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A237" s="97"/>
-      <c r="B237" s="60"/>
-      <c r="C237" s="64"/>
-      <c r="D237" s="67"/>
-      <c r="E237" s="40" t="s">
+    <row r="237" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A237" s="96"/>
+      <c r="B237" s="82"/>
+      <c r="C237" s="116"/>
+      <c r="D237" s="116"/>
+      <c r="E237" s="75"/>
+      <c r="F237" s="64"/>
+      <c r="G237" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="F237" s="48" t="s">
+      <c r="H237" s="48" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A238" s="97"/>
-      <c r="B238" s="60"/>
-      <c r="C238" s="64"/>
-      <c r="D238" s="67"/>
-      <c r="E238" s="40" t="s">
+    <row r="238" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A238" s="96"/>
+      <c r="B238" s="82"/>
+      <c r="C238" s="116"/>
+      <c r="D238" s="116"/>
+      <c r="E238" s="75"/>
+      <c r="F238" s="64"/>
+      <c r="G238" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="F238" s="48" t="s">
+      <c r="H238" s="48" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A239" s="97"/>
-      <c r="B239" s="60"/>
-      <c r="C239" s="64"/>
-      <c r="D239" s="67"/>
-      <c r="E239" s="40" t="s">
+    <row r="239" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A239" s="96"/>
+      <c r="B239" s="82"/>
+      <c r="C239" s="116"/>
+      <c r="D239" s="116"/>
+      <c r="E239" s="75"/>
+      <c r="F239" s="64"/>
+      <c r="G239" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="F239" s="48" t="s">
+      <c r="H239" s="48" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A240" s="97"/>
-      <c r="B240" s="60"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="67"/>
-      <c r="E240" s="40" t="s">
+    <row r="240" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A240" s="96"/>
+      <c r="B240" s="82"/>
+      <c r="C240" s="116"/>
+      <c r="D240" s="116"/>
+      <c r="E240" s="75"/>
+      <c r="F240" s="64"/>
+      <c r="G240" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="F240" s="48" t="s">
+      <c r="H240" s="48" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A241" s="97"/>
-      <c r="B241" s="60"/>
-      <c r="C241" s="64"/>
-      <c r="D241" s="67"/>
-      <c r="E241" s="40" t="s">
+    <row r="241" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A241" s="96"/>
+      <c r="B241" s="82"/>
+      <c r="C241" s="116"/>
+      <c r="D241" s="116"/>
+      <c r="E241" s="75"/>
+      <c r="F241" s="64"/>
+      <c r="G241" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="F241" s="48" t="s">
+      <c r="H241" s="48" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A242" s="97"/>
-      <c r="B242" s="60"/>
-      <c r="C242" s="64"/>
-      <c r="D242" s="67"/>
-      <c r="E242" s="40" t="s">
+    <row r="242" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A242" s="96"/>
+      <c r="B242" s="82"/>
+      <c r="C242" s="116"/>
+      <c r="D242" s="116"/>
+      <c r="E242" s="75"/>
+      <c r="F242" s="64"/>
+      <c r="G242" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="F242" s="48" t="s">
+      <c r="H242" s="48" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A243" s="97"/>
-      <c r="B243" s="60"/>
-      <c r="C243" s="65"/>
-      <c r="D243" s="68"/>
-      <c r="E243" s="40" t="s">
+    <row r="243" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A243" s="96"/>
+      <c r="B243" s="82"/>
+      <c r="C243" s="116"/>
+      <c r="D243" s="116"/>
+      <c r="E243" s="76"/>
+      <c r="F243" s="65"/>
+      <c r="G243" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="F243" s="48" t="s">
+      <c r="H243" s="48" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A244" s="97"/>
-      <c r="B244" s="60"/>
-      <c r="C244" s="63" t="s">
+    <row r="244" spans="1:8" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A244" s="96"/>
+      <c r="B244" s="82"/>
+      <c r="C244" s="116"/>
+      <c r="D244" s="116"/>
+      <c r="E244" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="D244" s="66" t="s">
+      <c r="F244" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="E244" s="57" t="s">
+      <c r="G244" s="108" t="s">
         <v>367</v>
       </c>
-      <c r="F244" s="48" t="s">
+      <c r="H244" s="48" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A245" s="97"/>
-      <c r="B245" s="60"/>
-      <c r="C245" s="65"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="58"/>
-      <c r="F245" s="48" t="s">
+    <row r="245" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A245" s="96"/>
+      <c r="B245" s="82"/>
+      <c r="C245" s="116"/>
+      <c r="D245" s="116"/>
+      <c r="E245" s="76"/>
+      <c r="F245" s="65"/>
+      <c r="G245" s="109"/>
+      <c r="H245" s="48" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A246" s="98"/>
-      <c r="B246" s="87"/>
-      <c r="C246" s="28" t="s">
+    <row r="246" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A246" s="97"/>
+      <c r="B246" s="83"/>
+      <c r="C246" s="117"/>
+      <c r="D246" s="117"/>
+      <c r="E246" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D246" s="14" t="s">
+      <c r="F246" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E246" s="17" t="s">
+      <c r="G246" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F246" s="50" t="s">
+      <c r="H246" s="50" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A247" s="81" t="s">
+    <row r="247" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A247" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B247" s="99" t="s">
+      <c r="B247" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C247" s="29" t="s">
+      <c r="C247" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="111" t="s">
+        <v>538</v>
+      </c>
+      <c r="E247" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D247" s="15" t="s">
+      <c r="F247" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="G247" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="F247" s="51" t="s">
+      <c r="H247" s="51" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A248" s="101"/>
-      <c r="B248" s="100"/>
-      <c r="C248" s="26" t="s">
+    <row r="248" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A248" s="99"/>
+      <c r="B248" s="60"/>
+      <c r="C248" s="112"/>
+      <c r="D248" s="112"/>
+      <c r="E248" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D248" s="20" t="s">
+      <c r="F248" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E248" s="17" t="s">
+      <c r="G248" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F248" s="52" t="s">
+      <c r="H248" s="52" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A249" s="81" t="s">
+    <row r="249" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A249" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B249" s="86" t="s">
+      <c r="B249" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C249" s="84" t="s">
+      <c r="C249" s="115" t="s">
+        <v>528</v>
+      </c>
+      <c r="D249" s="115" t="s">
+        <v>538</v>
+      </c>
+      <c r="E249" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="F249" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="G249" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="F249" s="31" t="s">
+      <c r="H249" s="31" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A250" s="82"/>
-      <c r="B250" s="60"/>
-      <c r="C250" s="85"/>
-      <c r="D250" s="10" t="s">
+    <row r="250" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A250" s="85"/>
+      <c r="B250" s="82"/>
+      <c r="C250" s="116"/>
+      <c r="D250" s="116"/>
+      <c r="E250" s="80"/>
+      <c r="F250" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E250" s="22" t="s">
+      <c r="G250" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F250" s="33" t="s">
+      <c r="H250" s="33" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A251" s="82"/>
-      <c r="B251" s="60"/>
-      <c r="C251" s="85"/>
-      <c r="D251" s="10" t="s">
+    <row r="251" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A251" s="85"/>
+      <c r="B251" s="82"/>
+      <c r="C251" s="116"/>
+      <c r="D251" s="116"/>
+      <c r="E251" s="80"/>
+      <c r="F251" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E251" s="22" t="s">
+      <c r="G251" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="F251" s="33" t="s">
+      <c r="H251" s="33" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A252" s="82"/>
-      <c r="B252" s="60"/>
-      <c r="C252" s="85"/>
-      <c r="D252" s="10" t="s">
+    <row r="252" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A252" s="85"/>
+      <c r="B252" s="82"/>
+      <c r="C252" s="116"/>
+      <c r="D252" s="116"/>
+      <c r="E252" s="80"/>
+      <c r="F252" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E252" s="22" t="s">
+      <c r="G252" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="F252" s="33" t="s">
+      <c r="H252" s="33" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A253" s="82"/>
-      <c r="B253" s="60"/>
-      <c r="C253" s="59" t="s">
+    <row r="253" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A253" s="85"/>
+      <c r="B253" s="82"/>
+      <c r="C253" s="116"/>
+      <c r="D253" s="116"/>
+      <c r="E253" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D253" s="60" t="s">
+      <c r="F253" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E253" s="56" t="s">
+      <c r="G253" s="110" t="s">
         <v>375</v>
       </c>
-      <c r="F253" s="33" t="s">
+      <c r="H253" s="33" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A254" s="82"/>
-      <c r="B254" s="60"/>
-      <c r="C254" s="59"/>
-      <c r="D254" s="60"/>
-      <c r="E254" s="56"/>
-      <c r="F254" s="33" t="s">
+    <row r="254" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A254" s="85"/>
+      <c r="B254" s="82"/>
+      <c r="C254" s="116"/>
+      <c r="D254" s="116"/>
+      <c r="E254" s="71"/>
+      <c r="F254" s="82"/>
+      <c r="G254" s="110"/>
+      <c r="H254" s="33" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A255" s="82"/>
-      <c r="B255" s="60"/>
-      <c r="C255" s="59"/>
-      <c r="D255" s="60"/>
-      <c r="E255" s="40" t="s">
+    <row r="255" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A255" s="85"/>
+      <c r="B255" s="82"/>
+      <c r="C255" s="116"/>
+      <c r="D255" s="116"/>
+      <c r="E255" s="71"/>
+      <c r="F255" s="82"/>
+      <c r="G255" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="F255" s="33" t="s">
+      <c r="H255" s="33" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A256" s="82"/>
-      <c r="B256" s="60"/>
-      <c r="C256" s="59" t="s">
+    <row r="256" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A256" s="85"/>
+      <c r="B256" s="82"/>
+      <c r="C256" s="116"/>
+      <c r="D256" s="116"/>
+      <c r="E256" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D256" s="60" t="s">
+      <c r="F256" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="E256" s="56" t="s">
+      <c r="G256" s="110" t="s">
         <v>377</v>
       </c>
-      <c r="F256" s="33" t="s">
+      <c r="H256" s="33" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A257" s="82"/>
-      <c r="B257" s="60"/>
-      <c r="C257" s="59"/>
-      <c r="D257" s="60"/>
-      <c r="E257" s="56"/>
-      <c r="F257" s="33" t="s">
+    <row r="257" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A257" s="85"/>
+      <c r="B257" s="82"/>
+      <c r="C257" s="116"/>
+      <c r="D257" s="116"/>
+      <c r="E257" s="71"/>
+      <c r="F257" s="82"/>
+      <c r="G257" s="110"/>
+      <c r="H257" s="33" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A258" s="82"/>
-      <c r="B258" s="60"/>
-      <c r="C258" s="59"/>
-      <c r="D258" s="60"/>
-      <c r="E258" s="56"/>
-      <c r="F258" s="33" t="s">
+    <row r="258" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A258" s="85"/>
+      <c r="B258" s="82"/>
+      <c r="C258" s="116"/>
+      <c r="D258" s="116"/>
+      <c r="E258" s="71"/>
+      <c r="F258" s="82"/>
+      <c r="G258" s="110"/>
+      <c r="H258" s="33" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A259" s="82"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="59"/>
-      <c r="D259" s="60"/>
-      <c r="E259" s="56"/>
-      <c r="F259" s="33" t="s">
+    <row r="259" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A259" s="85"/>
+      <c r="B259" s="82"/>
+      <c r="C259" s="116"/>
+      <c r="D259" s="116"/>
+      <c r="E259" s="71"/>
+      <c r="F259" s="82"/>
+      <c r="G259" s="110"/>
+      <c r="H259" s="33" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A260" s="82"/>
-      <c r="B260" s="60"/>
-      <c r="C260" s="59" t="s">
+    <row r="260" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A260" s="85"/>
+      <c r="B260" s="82"/>
+      <c r="C260" s="116"/>
+      <c r="D260" s="116"/>
+      <c r="E260" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D260" s="60" t="s">
+      <c r="F260" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E260" s="56" t="s">
+      <c r="G260" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="F260" s="33" t="s">
+      <c r="H260" s="33" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A261" s="82"/>
-      <c r="B261" s="60"/>
-      <c r="C261" s="59"/>
-      <c r="D261" s="60"/>
-      <c r="E261" s="56"/>
-      <c r="F261" s="33" t="s">
+    <row r="261" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A261" s="85"/>
+      <c r="B261" s="82"/>
+      <c r="C261" s="116"/>
+      <c r="D261" s="116"/>
+      <c r="E261" s="71"/>
+      <c r="F261" s="82"/>
+      <c r="G261" s="110"/>
+      <c r="H261" s="33" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A262" s="82"/>
-      <c r="B262" s="60"/>
-      <c r="C262" s="59"/>
-      <c r="D262" s="60"/>
-      <c r="E262" s="56"/>
-      <c r="F262" s="33" t="s">
+    <row r="262" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A262" s="85"/>
+      <c r="B262" s="82"/>
+      <c r="C262" s="116"/>
+      <c r="D262" s="116"/>
+      <c r="E262" s="71"/>
+      <c r="F262" s="82"/>
+      <c r="G262" s="110"/>
+      <c r="H262" s="33" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A263" s="82"/>
-      <c r="B263" s="60"/>
-      <c r="C263" s="59"/>
-      <c r="D263" s="60"/>
-      <c r="E263" s="56"/>
-      <c r="F263" s="33" t="s">
+    <row r="263" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A263" s="85"/>
+      <c r="B263" s="82"/>
+      <c r="C263" s="116"/>
+      <c r="D263" s="116"/>
+      <c r="E263" s="71"/>
+      <c r="F263" s="82"/>
+      <c r="G263" s="110"/>
+      <c r="H263" s="33" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A264" s="82"/>
-      <c r="B264" s="60"/>
-      <c r="C264" s="59" t="s">
+    <row r="264" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A264" s="85"/>
+      <c r="B264" s="82"/>
+      <c r="C264" s="116"/>
+      <c r="D264" s="116"/>
+      <c r="E264" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D264" s="60" t="s">
+      <c r="F264" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="E264" s="40" t="s">
+      <c r="G264" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="F264" s="33" t="s">
+      <c r="H264" s="33" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A265" s="82"/>
-      <c r="B265" s="60"/>
-      <c r="C265" s="59"/>
-      <c r="D265" s="60"/>
-      <c r="E265" s="40" t="s">
+    <row r="265" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A265" s="85"/>
+      <c r="B265" s="82"/>
+      <c r="C265" s="116"/>
+      <c r="D265" s="116"/>
+      <c r="E265" s="71"/>
+      <c r="F265" s="82"/>
+      <c r="G265" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="F265" s="33" t="s">
+      <c r="H265" s="33" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A266" s="82"/>
-      <c r="B266" s="60"/>
-      <c r="C266" s="59" t="s">
+    <row r="266" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A266" s="85"/>
+      <c r="B266" s="82"/>
+      <c r="C266" s="116"/>
+      <c r="D266" s="116"/>
+      <c r="E266" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D266" s="60" t="s">
+      <c r="F266" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E266" s="56" t="s">
+      <c r="G266" s="110" t="s">
         <v>381</v>
       </c>
-      <c r="F266" s="33" t="s">
+      <c r="H266" s="33" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A267" s="82"/>
-      <c r="B267" s="60"/>
-      <c r="C267" s="59"/>
-      <c r="D267" s="60"/>
-      <c r="E267" s="56"/>
-      <c r="F267" s="33" t="s">
+    <row r="267" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A267" s="85"/>
+      <c r="B267" s="82"/>
+      <c r="C267" s="116"/>
+      <c r="D267" s="116"/>
+      <c r="E267" s="71"/>
+      <c r="F267" s="82"/>
+      <c r="G267" s="110"/>
+      <c r="H267" s="33" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A268" s="82"/>
-      <c r="B268" s="60"/>
-      <c r="C268" s="13" t="s">
+    <row r="268" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A268" s="85"/>
+      <c r="B268" s="82"/>
+      <c r="C268" s="116"/>
+      <c r="D268" s="116"/>
+      <c r="E268" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D268" s="10" t="s">
+      <c r="F268" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E268" s="40" t="s">
+      <c r="G268" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="F268" s="33" t="s">
+      <c r="H268" s="33" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A269" s="82"/>
-      <c r="B269" s="60"/>
-      <c r="C269" s="59" t="s">
+    <row r="269" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A269" s="85"/>
+      <c r="B269" s="82"/>
+      <c r="C269" s="116"/>
+      <c r="D269" s="116"/>
+      <c r="E269" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D269" s="60" t="s">
+      <c r="F269" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E269" s="40" t="s">
+      <c r="G269" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="F269" s="33" t="s">
+      <c r="H269" s="33" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A270" s="82"/>
-      <c r="B270" s="60"/>
-      <c r="C270" s="59"/>
-      <c r="D270" s="60"/>
-      <c r="E270" s="40" t="s">
+    <row r="270" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A270" s="85"/>
+      <c r="B270" s="82"/>
+      <c r="C270" s="116"/>
+      <c r="D270" s="116"/>
+      <c r="E270" s="71"/>
+      <c r="F270" s="82"/>
+      <c r="G270" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="F270" s="33" t="s">
+      <c r="H270" s="33" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A271" s="82"/>
-      <c r="B271" s="60"/>
-      <c r="C271" s="59"/>
-      <c r="D271" s="60"/>
-      <c r="E271" s="40" t="s">
+    <row r="271" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A271" s="85"/>
+      <c r="B271" s="82"/>
+      <c r="C271" s="116"/>
+      <c r="D271" s="116"/>
+      <c r="E271" s="71"/>
+      <c r="F271" s="82"/>
+      <c r="G271" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="F271" s="33" t="s">
+      <c r="H271" s="33" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A272" s="82"/>
-      <c r="B272" s="60"/>
-      <c r="C272" s="59"/>
-      <c r="D272" s="60"/>
-      <c r="E272" s="40" t="s">
+    <row r="272" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A272" s="85"/>
+      <c r="B272" s="82"/>
+      <c r="C272" s="116"/>
+      <c r="D272" s="116"/>
+      <c r="E272" s="71"/>
+      <c r="F272" s="82"/>
+      <c r="G272" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="F272" s="33" t="s">
+      <c r="H272" s="33" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A273" s="82"/>
-      <c r="B273" s="60"/>
-      <c r="C273" s="13" t="s">
+    <row r="273" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A273" s="85"/>
+      <c r="B273" s="82"/>
+      <c r="C273" s="116"/>
+      <c r="D273" s="116"/>
+      <c r="E273" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D273" s="10" t="s">
+      <c r="F273" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E273" s="40" t="s">
+      <c r="G273" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="F273" s="33" t="s">
+      <c r="H273" s="33" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A274" s="83"/>
-      <c r="B274" s="87"/>
-      <c r="C274" s="28" t="s">
+    <row r="274" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A274" s="86"/>
+      <c r="B274" s="83"/>
+      <c r="C274" s="117"/>
+      <c r="D274" s="117"/>
+      <c r="E274" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D274" s="12" t="s">
+      <c r="F274" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E274" s="17" t="s">
+      <c r="G274" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="F274" s="41" t="s">
+      <c r="H274" s="41" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A275" s="81" t="s">
+    <row r="275" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A275" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B275" s="86" t="s">
+      <c r="B275" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C275" s="84" t="s">
+      <c r="C275" s="115" t="s">
+        <v>532</v>
+      </c>
+      <c r="D275" s="115" t="s">
+        <v>538</v>
+      </c>
+      <c r="E275" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D275" s="86" t="s">
+      <c r="F275" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E275" s="16" t="s">
+      <c r="G275" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="F275" s="51" t="s">
+      <c r="H275" s="51" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A276" s="82"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="85"/>
-      <c r="D276" s="60"/>
-      <c r="E276" s="40" t="s">
+    <row r="276" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A276" s="85"/>
+      <c r="B276" s="82"/>
+      <c r="C276" s="116"/>
+      <c r="D276" s="116"/>
+      <c r="E276" s="80"/>
+      <c r="F276" s="82"/>
+      <c r="G276" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="F276" s="47" t="s">
+      <c r="H276" s="47" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A277" s="82"/>
-      <c r="B277" s="60"/>
-      <c r="C277" s="19" t="s">
+    <row r="277" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A277" s="85"/>
+      <c r="B277" s="82"/>
+      <c r="C277" s="116"/>
+      <c r="D277" s="116"/>
+      <c r="E277" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D277" s="10" t="s">
+      <c r="F277" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E277" s="40" t="s">
+      <c r="G277" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="F277" s="47" t="s">
+      <c r="H277" s="47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A278" s="82"/>
-      <c r="B278" s="60"/>
-      <c r="C278" s="59" t="s">
+    <row r="278" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A278" s="85"/>
+      <c r="B278" s="82"/>
+      <c r="C278" s="116"/>
+      <c r="D278" s="116"/>
+      <c r="E278" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D278" s="60" t="s">
+      <c r="F278" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="E278" s="40" t="s">
+      <c r="G278" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="F278" s="47" t="s">
+      <c r="H278" s="47" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A279" s="82"/>
-      <c r="B279" s="60"/>
-      <c r="C279" s="59"/>
-      <c r="D279" s="60"/>
-      <c r="E279" s="57" t="s">
+    <row r="279" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A279" s="85"/>
+      <c r="B279" s="82"/>
+      <c r="C279" s="116"/>
+      <c r="D279" s="116"/>
+      <c r="E279" s="71"/>
+      <c r="F279" s="82"/>
+      <c r="G279" s="108" t="s">
         <v>393</v>
       </c>
-      <c r="F279" s="47" t="s">
+      <c r="H279" s="47" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A280" s="82"/>
-      <c r="B280" s="60"/>
-      <c r="C280" s="59"/>
-      <c r="D280" s="60"/>
-      <c r="E280" s="58"/>
-      <c r="F280" s="47" t="s">
+    <row r="280" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A280" s="85"/>
+      <c r="B280" s="82"/>
+      <c r="C280" s="116"/>
+      <c r="D280" s="116"/>
+      <c r="E280" s="71"/>
+      <c r="F280" s="82"/>
+      <c r="G280" s="109"/>
+      <c r="H280" s="47" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A281" s="82"/>
-      <c r="B281" s="60"/>
-      <c r="C281" s="59"/>
-      <c r="D281" s="60"/>
-      <c r="E281" s="40" t="s">
+    <row r="281" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A281" s="85"/>
+      <c r="B281" s="82"/>
+      <c r="C281" s="116"/>
+      <c r="D281" s="116"/>
+      <c r="E281" s="71"/>
+      <c r="F281" s="82"/>
+      <c r="G281" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="F281" s="47" t="s">
+      <c r="H281" s="47" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A282" s="82"/>
-      <c r="B282" s="60"/>
-      <c r="C282" s="13" t="s">
+    <row r="282" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A282" s="85"/>
+      <c r="B282" s="82"/>
+      <c r="C282" s="116"/>
+      <c r="D282" s="116"/>
+      <c r="E282" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D282" s="10" t="s">
+      <c r="F282" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E282" s="40" t="s">
+      <c r="G282" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="F282" s="47" t="s">
+      <c r="H282" s="47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A283" s="82"/>
-      <c r="B283" s="60"/>
-      <c r="C283" s="13" t="s">
+    <row r="283" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A283" s="85"/>
+      <c r="B283" s="82"/>
+      <c r="C283" s="116"/>
+      <c r="D283" s="116"/>
+      <c r="E283" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D283" s="10" t="s">
+      <c r="F283" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E283" s="40" t="s">
+      <c r="G283" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="F283" s="47" t="s">
+      <c r="H283" s="47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A284" s="82"/>
-      <c r="B284" s="60"/>
-      <c r="C284" s="13" t="s">
+    <row r="284" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A284" s="85"/>
+      <c r="B284" s="82"/>
+      <c r="C284" s="116"/>
+      <c r="D284" s="116"/>
+      <c r="E284" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D284" s="10" t="s">
+      <c r="F284" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E284" s="40" t="s">
+      <c r="G284" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="F284" s="47" t="s">
+      <c r="H284" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A285" s="82"/>
-      <c r="B285" s="60"/>
-      <c r="C285" s="72" t="s">
+    <row r="285" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A285" s="85"/>
+      <c r="B285" s="82"/>
+      <c r="C285" s="116"/>
+      <c r="D285" s="116"/>
+      <c r="E285" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D285" s="60" t="s">
+      <c r="F285" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="E285" s="40" t="s">
+      <c r="G285" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="F285" s="47" t="s">
+      <c r="H285" s="47" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A286" s="83"/>
-      <c r="B286" s="87"/>
-      <c r="C286" s="73"/>
-      <c r="D286" s="87"/>
-      <c r="E286" s="17" t="s">
+    <row r="286" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A286" s="86"/>
+      <c r="B286" s="83"/>
+      <c r="C286" s="117"/>
+      <c r="D286" s="117"/>
+      <c r="E286" s="73"/>
+      <c r="F286" s="83"/>
+      <c r="G286" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="F286" s="50" t="s">
+      <c r="H286" s="50" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:8">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
       <c r="F287" s="7"/>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287" s="7"/>
+      <c r="H287" s="7"/>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
-      <c r="D288" s="7"/>
-      <c r="E288" s="7"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
       <c r="F288" s="7"/>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" s="7"/>
+      <c r="H288" s="7"/>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
-      <c r="D289" s="7"/>
-      <c r="E289" s="7"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
       <c r="F289" s="7"/>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
       <c r="F290" s="7"/>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="4"/>
       <c r="B291" s="3"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
       <c r="F291" s="7"/>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" s="7"/>
+      <c r="H291" s="7"/>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="1"/>
       <c r="B292" s="5"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
       <c r="F292" s="7"/>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="1"/>
       <c r="B293" s="5"/>
-      <c r="D293" s="7"/>
-      <c r="E293" s="7"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
       <c r="F293" s="7"/>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="1"/>
       <c r="B294" s="5"/>
-      <c r="D294" s="7"/>
-      <c r="E294" s="7"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
       <c r="F294" s="7"/>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="1"/>
       <c r="B295" s="5"/>
-      <c r="D295" s="7"/>
-      <c r="E295" s="7"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
       <c r="F295" s="7"/>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" s="7"/>
+      <c r="H295" s="7"/>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="1"/>
       <c r="B296" s="5"/>
-      <c r="D296" s="7"/>
-      <c r="E296" s="7"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
       <c r="F296" s="7"/>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296" s="7"/>
+      <c r="H296" s="7"/>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="1"/>
       <c r="B297" s="5"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="7"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
       <c r="F297" s="7"/>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297" s="7"/>
+      <c r="H297" s="7"/>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="1"/>
       <c r="B298" s="5"/>
-      <c r="D298" s="7"/>
-      <c r="E298" s="7"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
       <c r="F298" s="7"/>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298" s="7"/>
+      <c r="H298" s="7"/>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="1"/>
       <c r="B299" s="5"/>
-      <c r="D299" s="7"/>
-      <c r="E299" s="7"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
       <c r="F299" s="7"/>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299" s="7"/>
+      <c r="H299" s="7"/>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="1"/>
       <c r="B300" s="5"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
       <c r="F300" s="7"/>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300" s="7"/>
+      <c r="H300" s="7"/>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="1"/>
       <c r="B301" s="5"/>
-      <c r="D301" s="7"/>
-      <c r="E301" s="7"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
       <c r="F301" s="7"/>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301" s="7"/>
+      <c r="H301" s="7"/>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="1"/>
       <c r="B302" s="5"/>
-      <c r="D302" s="7"/>
-      <c r="E302" s="7"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
       <c r="F302" s="7"/>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302" s="7"/>
+      <c r="H302" s="7"/>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="1"/>
       <c r="B303" s="5"/>
-      <c r="D303" s="7"/>
-      <c r="E303" s="7"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
       <c r="F303" s="7"/>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303" s="7"/>
+      <c r="H303" s="7"/>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="1"/>
       <c r="B304" s="5"/>
-      <c r="D304" s="7"/>
-      <c r="E304" s="7"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
       <c r="F304" s="7"/>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304" s="7"/>
+      <c r="H304" s="7"/>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="1"/>
       <c r="B305" s="5"/>
-      <c r="D305" s="7"/>
-      <c r="E305" s="7"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
       <c r="F305" s="7"/>
+      <c r="G305" s="7"/>
+      <c r="H305" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D48:D59"/>
-    <mergeCell ref="C48:C59"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D88:D103"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="D140:D143"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="C116:C125"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C249:C252"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C88:C103"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C168:C175"/>
-    <mergeCell ref="B249:B274"/>
-    <mergeCell ref="A249:A274"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="C161:C162"/>
+  <mergeCells count="140">
+    <mergeCell ref="C2:C33"/>
+    <mergeCell ref="C34:C115"/>
+    <mergeCell ref="C116:C211"/>
+    <mergeCell ref="C212:C246"/>
+    <mergeCell ref="C249:C274"/>
+    <mergeCell ref="C275:C286"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D2:D33"/>
+    <mergeCell ref="D34:D115"/>
+    <mergeCell ref="D116:D211"/>
+    <mergeCell ref="D212:D246"/>
+    <mergeCell ref="D249:D274"/>
+    <mergeCell ref="D275:D286"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="G266:G267"/>
+    <mergeCell ref="G279:G280"/>
+    <mergeCell ref="E260:E263"/>
+    <mergeCell ref="F260:F263"/>
+    <mergeCell ref="G260:G263"/>
+    <mergeCell ref="G253:G254"/>
+    <mergeCell ref="E256:E259"/>
+    <mergeCell ref="F256:F259"/>
+    <mergeCell ref="G256:G259"/>
+    <mergeCell ref="F253:F255"/>
+    <mergeCell ref="E253:E255"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="E219:E243"/>
+    <mergeCell ref="F219:F243"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="F244:F245"/>
+    <mergeCell ref="G244:G245"/>
+    <mergeCell ref="G128:G130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="E213:E216"/>
+    <mergeCell ref="F213:F216"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="E176:E179"/>
+    <mergeCell ref="F176:F179"/>
+    <mergeCell ref="E180:E204"/>
+    <mergeCell ref="F180:F204"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="F209:F211"/>
+    <mergeCell ref="F168:F175"/>
+    <mergeCell ref="F147:F150"/>
+    <mergeCell ref="F154:F158"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E18:E30"/>
+    <mergeCell ref="F18:F30"/>
+    <mergeCell ref="G18:G30"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="F40:F47"/>
+    <mergeCell ref="A275:A286"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="F278:F281"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="E269:E272"/>
+    <mergeCell ref="F269:F272"/>
+    <mergeCell ref="B275:B286"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="F266:F267"/>
     <mergeCell ref="B2:B33"/>
     <mergeCell ref="A34:A115"/>
     <mergeCell ref="B34:B115"/>
@@ -6416,77 +7179,54 @@
     <mergeCell ref="B247:B248"/>
     <mergeCell ref="A247:A248"/>
     <mergeCell ref="A116:A211"/>
-    <mergeCell ref="A275:A286"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="C269:C272"/>
-    <mergeCell ref="D269:D272"/>
-    <mergeCell ref="B275:B286"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="D108:D113"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="D18:D30"/>
-    <mergeCell ref="E18:E30"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="C34:C47"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="C219:C243"/>
-    <mergeCell ref="D219:D243"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="E249:E252"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E88:E103"/>
+    <mergeCell ref="E147:E150"/>
+    <mergeCell ref="E168:E175"/>
+    <mergeCell ref="B249:B274"/>
+    <mergeCell ref="A249:A274"/>
+    <mergeCell ref="E154:E158"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F88:F103"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F120:F124"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="F140:F143"/>
     <mergeCell ref="E128:E130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="C213:C216"/>
-    <mergeCell ref="D213:D216"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="C176:C179"/>
-    <mergeCell ref="D176:D179"/>
-    <mergeCell ref="C180:C204"/>
-    <mergeCell ref="D180:D204"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="D209:D211"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="D147:D150"/>
-    <mergeCell ref="D154:D158"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="C260:C263"/>
-    <mergeCell ref="D260:D263"/>
-    <mergeCell ref="E260:E263"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="C256:C259"/>
-    <mergeCell ref="D256:D259"/>
-    <mergeCell ref="E256:E259"/>
-    <mergeCell ref="D253:D255"/>
-    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="E116:E125"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F48:F59"/>
+    <mergeCell ref="E48:E59"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G56:G57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirments/RTM.xlsx
+++ b/Requirments/RTM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="544">
   <si>
     <t>Feature ID</t>
   </si>
@@ -1641,6 +1641,21 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>Code ID</t>
+  </si>
+  <si>
+    <t>Login.cshtml.cs</t>
+  </si>
+  <si>
+    <t>Register.cshtml.cs</t>
+  </si>
+  <si>
+    <t>AdvertisementController.cs</t>
+  </si>
+  <si>
+    <t>UserController.cs</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1893,19 +1908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1921,17 +1923,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2002,15 +1993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2067,11 +2049,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2094,18 +2100,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,18 +2112,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2141,9 +2123,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2178,6 +2157,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,53 +2172,200 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2244,155 +2373,47 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249:D274"/>
+    <sheetView tabSelected="1" topLeftCell="B229" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212:H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2741,10 +2762,10 @@
     <col min="3" max="4" width="30.19921875" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.09765625" style="6" customWidth="1"/>
     <col min="6" max="7" width="21.59765625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="33.59765625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="33.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2767,4154 +2788,4456 @@
         <v>173</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="50" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="107" t="s">
+        <v>540</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="33" t="s">
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="33" t="s">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="93"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="24" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="33" t="s">
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="93"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="24" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="33" t="s">
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="93"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="24" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="33" t="s">
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="93"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="24" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="33" t="s">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="93"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="24" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="22" t="s">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="93"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="24" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="22" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="24" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="22" t="s">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="24" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="22" t="s">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="93"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="71"/>
+      <c r="I12" s="24" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="103" t="s">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="71"/>
+      <c r="I13" s="24" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="22" t="s">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="93"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="71"/>
+      <c r="I14" s="24" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="22" t="s">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="71"/>
+      <c r="I15" s="24" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="22" t="s">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="71"/>
+      <c r="I16" s="24" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="22" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="93"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="71"/>
+      <c r="I17" s="24" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="103" t="s">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="24" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="33" t="s">
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="93"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="24" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="33" t="s">
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="93"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="24" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="33" t="s">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="24" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="33" t="s">
+    <row r="22" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="93"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="24" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="33" t="s">
+    <row r="23" spans="1:9" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="24" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="33" t="s">
+    <row r="24" spans="1:9" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="93"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="24" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="33" t="s">
+    <row r="25" spans="1:9" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="93"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="24" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="33" t="s">
+    <row r="26" spans="1:9" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="93"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="24" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="33" t="s">
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="24" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="91"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="33" t="s">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="93"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="24" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="33" t="s">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="24" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="33" t="s">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="93"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="24" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="103" t="s">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="93"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="103" t="s">
+      <c r="F31" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="71"/>
+      <c r="I31" s="24" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="33" t="s">
+    <row r="32" spans="1:9" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="93"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="36" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="41" t="s">
+    <row r="33" spans="1:9" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="94"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="32" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="90" t="s">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A34" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="D34" s="111" t="s">
+      <c r="D34" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="E34" s="106" t="s">
+      <c r="E34" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="107" t="s">
+        <v>541</v>
+      </c>
+      <c r="I34" s="113" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="91"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="22" t="s">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A35" s="93"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="71"/>
+      <c r="I35" s="24" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="22" t="s">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A36" s="93"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="71"/>
+      <c r="I36" s="24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="22" t="s">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A37" s="93"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="71"/>
+      <c r="I37" s="24" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="91"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="22" t="s">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="93"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="71"/>
+      <c r="I38" s="24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="91"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="22" t="s">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A39" s="93"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="71"/>
+      <c r="I39" s="22" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="91"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="103" t="s">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A40" s="93"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="71"/>
+      <c r="I40" s="24" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="91"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="22" t="s">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A41" s="93"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="71"/>
+      <c r="I41" s="24" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="91"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="58" t="s">
+    <row r="42" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="93"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="71"/>
+      <c r="I42" s="24" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="91"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="33" t="s">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A43" s="93"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="24" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="91"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="22" t="s">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A44" s="93"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="71"/>
+      <c r="I44" s="24" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="91"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="58" t="s">
+    <row r="45" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="93"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="71"/>
+      <c r="I45" s="24" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="91"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="33" t="s">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" s="93"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="24" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="91"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="22" t="s">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A47" s="93"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="71"/>
+      <c r="I47" s="24" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="91"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="63" t="s">
+    <row r="48" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="93"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="66" t="s">
+      <c r="G48" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="71"/>
+      <c r="I48" s="24" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="91"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="33" t="s">
+    <row r="49" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="93"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="91"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="33" t="s">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="24" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="91"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="22" t="s">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A51" s="93"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="71"/>
+      <c r="I51" s="24" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="91"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="22" t="s">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A52" s="93"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="71"/>
+      <c r="I52" s="24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="22" t="s">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A53" s="93"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="71"/>
+      <c r="I53" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="91"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="22" t="s">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A54" s="93"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="71"/>
+      <c r="I54" s="24" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="91"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="22" t="s">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A55" s="93"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="71"/>
+      <c r="I55" s="24" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A56" s="91"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="57" t="s">
+    <row r="56" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A56" s="93"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="71"/>
+      <c r="I56" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="91"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="33" t="s">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A57" s="93"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="24" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="91"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="22" t="s">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A58" s="93"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="71"/>
+      <c r="I58" s="24" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="91"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="22" t="s">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A59" s="93"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="71"/>
+      <c r="I59" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="91"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="70" t="s">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A60" s="93"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="H60" s="71"/>
+      <c r="I60" s="24" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="91"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="22" t="s">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A61" s="93"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H61" s="71"/>
+      <c r="I61" s="24" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
-      <c r="A62" s="91"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="22" t="s">
+    <row r="62" spans="1:9" ht="15.6">
+      <c r="A62" s="93"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="71"/>
+      <c r="I62" s="24" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
-      <c r="A63" s="91"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="70" t="s">
+    <row r="63" spans="1:9" ht="15.6">
+      <c r="A63" s="93"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="72" t="s">
+      <c r="F63" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="71"/>
+      <c r="I63" s="24" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="91"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="22" t="s">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A64" s="93"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="71"/>
+      <c r="I64" s="24" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="91"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="70" t="s">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A65" s="93"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H65" s="71"/>
+      <c r="I65" s="24" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="91"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="33" t="s">
+    <row r="66" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="93"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="24" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="91"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="33" t="s">
+    <row r="67" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="93"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="24" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="91"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="58" t="s">
+    <row r="68" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="93"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="H68" s="33" t="s">
+      <c r="H68" s="71"/>
+      <c r="I68" s="24" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="91"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="33" t="s">
+    <row r="69" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="93"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="24" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A70" s="91"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="33" t="s">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" s="93"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="24" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A71" s="91"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="70" t="s">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="93"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="72" t="s">
+      <c r="F71" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H71" s="71"/>
+      <c r="I71" s="24" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A72" s="91"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="22" t="s">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A72" s="93"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="71"/>
+      <c r="I72" s="24" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="91"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="57" t="s">
+    <row r="73" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="93"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="H73" s="33" t="s">
+      <c r="H73" s="71"/>
+      <c r="I73" s="24" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="91"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="33" t="s">
+    <row r="74" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="93"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="24" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A75" s="91"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="33" t="s">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A75" s="93"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="24" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="91"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="58" t="s">
+    <row r="76" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="93"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="H76" s="33" t="s">
+      <c r="H76" s="71"/>
+      <c r="I76" s="24" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="91"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="33" t="s">
+    <row r="77" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="93"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="24" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A78" s="91"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="33" t="s">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A78" s="93"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="24" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A79" s="91"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="54" t="s">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A79" s="93"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="55" t="s">
+      <c r="F79" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="33" t="s">
+      <c r="H79" s="71"/>
+      <c r="I79" s="24" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A80" s="91"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="70" t="s">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A80" s="93"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="72" t="s">
+      <c r="F80" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" s="71"/>
+      <c r="I80" s="24" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A81" s="91"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="22" t="s">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A81" s="93"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H81" s="33" t="s">
+      <c r="H81" s="71"/>
+      <c r="I81" s="24" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A82" s="91"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="70" t="s">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A82" s="93"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F82" s="72" t="s">
+      <c r="F82" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="H82" s="33" t="s">
+      <c r="H82" s="71"/>
+      <c r="I82" s="24" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A83" s="91"/>
-      <c r="B83" s="88"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="25" t="s">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A83" s="93"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="H83" s="33" t="s">
+      <c r="H83" s="71"/>
+      <c r="I83" s="24" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="91"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="63" t="s">
+    <row r="84" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="93"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="60" t="s">
+      <c r="F84" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="G84" s="58" t="s">
+      <c r="G84" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="71"/>
+      <c r="I84" s="24" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A85" s="91"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="33" t="s">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A85" s="93"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="24" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A86" s="91"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="22" t="s">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A86" s="93"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="71"/>
+      <c r="I86" s="24" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A87" s="91"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="54" t="s">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A87" s="93"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="55" t="s">
+      <c r="F87" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="71"/>
+      <c r="I87" s="24" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A88" s="91"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="70" t="s">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A88" s="93"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="F88" s="72" t="s">
+      <c r="F88" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="71"/>
+      <c r="I88" s="24" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A89" s="91"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="22" t="s">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A89" s="93"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H89" s="71"/>
+      <c r="I89" s="24" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A90" s="91"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="22" t="s">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A90" s="93"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="71"/>
+      <c r="I90" s="24" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A91" s="91"/>
-      <c r="B91" s="88"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="22" t="s">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A91" s="93"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="H91" s="33" t="s">
+      <c r="H91" s="71"/>
+      <c r="I91" s="24" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A92" s="91"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="22" t="s">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A92" s="93"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H92" s="33" t="s">
+      <c r="H92" s="71"/>
+      <c r="I92" s="24" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A93" s="91"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="22" t="s">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A93" s="93"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="H93" s="33" t="s">
+      <c r="H93" s="71"/>
+      <c r="I93" s="24" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A94" s="91"/>
-      <c r="B94" s="88"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="22" t="s">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A94" s="93"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="H94" s="33" t="s">
+      <c r="H94" s="71"/>
+      <c r="I94" s="24" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A95" s="91"/>
-      <c r="B95" s="88"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="22" t="s">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A95" s="93"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="71"/>
+      <c r="I95" s="24" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A96" s="91"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="22" t="s">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A96" s="93"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="71"/>
+      <c r="I96" s="24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A97" s="91"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="22" t="s">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A97" s="93"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="H97" s="33" t="s">
+      <c r="H97" s="71"/>
+      <c r="I97" s="24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A98" s="91"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="22" t="s">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A98" s="93"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="H98" s="33" t="s">
+      <c r="H98" s="71"/>
+      <c r="I98" s="24" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A99" s="91"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="22" t="s">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A99" s="93"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="H99" s="33" t="s">
+      <c r="H99" s="71"/>
+      <c r="I99" s="24" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A100" s="91"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="22" t="s">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" s="93"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="H100" s="33" t="s">
+      <c r="H100" s="71"/>
+      <c r="I100" s="24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A101" s="91"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="22" t="s">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="93"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="71"/>
+      <c r="I101" s="24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A102" s="91"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="22" t="s">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" s="93"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" s="71"/>
+      <c r="I102" s="24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A103" s="91"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="22" t="s">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A103" s="93"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H103" s="71"/>
+      <c r="I103" s="24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A104" s="91"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="72" t="s">
+    <row r="104" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A104" s="93"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F104" s="72" t="s">
+      <c r="F104" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G104" s="57" t="s">
+      <c r="G104" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="71"/>
+      <c r="I104" s="24" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A105" s="91"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="33" t="s">
+    <row r="105" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A105" s="93"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="24" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A106" s="91"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="57" t="s">
+    <row r="106" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A106" s="93"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="H106" s="33" t="s">
+      <c r="H106" s="71"/>
+      <c r="I106" s="24" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A107" s="91"/>
-      <c r="B107" s="88"/>
-      <c r="C107" s="61"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="33" t="s">
+    <row r="107" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A107" s="93"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="24" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A108" s="91"/>
-      <c r="B108" s="88"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="72" t="s">
+    <row r="108" spans="1:9" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A108" s="93"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="72" t="s">
+      <c r="F108" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="57" t="s">
+      <c r="G108" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="H108" s="33" t="s">
+      <c r="H108" s="71"/>
+      <c r="I108" s="24" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="91"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="72"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="33" t="s">
+    <row r="109" spans="1:9" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A109" s="93"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="24" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A110" s="91"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="33" t="s">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" s="93"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="73"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="24" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A111" s="91"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="57" t="s">
+    <row r="111" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A111" s="93"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="H111" s="33" t="s">
+      <c r="H111" s="71"/>
+      <c r="I111" s="24" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A112" s="91"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="33" t="s">
+    <row r="112" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A112" s="93"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="24" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A113" s="91"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="61"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="33" t="s">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A113" s="93"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="24" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A114" s="91"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="61"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="72" t="s">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A114" s="93"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="H114" s="33" t="s">
+      <c r="H114" s="71"/>
+      <c r="I114" s="24" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A115" s="92"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="112"/>
-      <c r="D115" s="112"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="24" t="s">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A115" s="94"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H115" s="41" t="s">
+      <c r="H115" s="108"/>
+      <c r="I115" s="32" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A116" s="95" t="s">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A116" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="113" t="s">
+      <c r="C116" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="D116" s="113" t="s">
+      <c r="D116" s="53" t="s">
         <v>536</v>
       </c>
-      <c r="E116" s="77" t="s">
+      <c r="E116" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G116" s="56" t="s">
+      <c r="G116" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="H116" s="46" t="s">
+      <c r="H116" s="107" t="s">
+        <v>542</v>
+      </c>
+      <c r="I116" s="41" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
-      <c r="A117" s="96"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="18" t="s">
+    <row r="117" spans="1:9" ht="15.6">
+      <c r="A117" s="98"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="102"/>
+      <c r="F117" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G117" s="22" t="s">
+      <c r="G117" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H117" s="47" t="s">
+      <c r="H117" s="71"/>
+      <c r="I117" s="37" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A118" s="96"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="18" t="s">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A118" s="98"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="102"/>
+      <c r="F118" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G118" s="22" t="s">
+      <c r="G118" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H118" s="47"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A119" s="96"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="18" t="s">
+      <c r="H118" s="71"/>
+      <c r="I118" s="37"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A119" s="98"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="102"/>
+      <c r="F119" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G119" s="22" t="s">
+      <c r="G119" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="H119" s="47"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A120" s="96"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="70" t="s">
+      <c r="H119" s="71"/>
+      <c r="I119" s="37"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A120" s="98"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="102"/>
+      <c r="F120" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H120" s="47"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A121" s="96"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="22" t="s">
+      <c r="H120" s="71"/>
+      <c r="I120" s="37"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A121" s="98"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="102"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H121" s="47"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A122" s="96"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="70"/>
-      <c r="G122" s="22" t="s">
+      <c r="H121" s="71"/>
+      <c r="I121" s="37"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A122" s="98"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="102"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="H122" s="47"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A123" s="96"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="22" t="s">
+      <c r="H122" s="71"/>
+      <c r="I122" s="37"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A123" s="98"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="102"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="H123" s="47"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A124" s="96"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="22" t="s">
+      <c r="H123" s="71"/>
+      <c r="I123" s="37"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A124" s="98"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="102"/>
+      <c r="F124" s="72"/>
+      <c r="G124" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="H124" s="47"/>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A125" s="96"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="18" t="s">
+      <c r="H124" s="71"/>
+      <c r="I124" s="37"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A125" s="98"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="102"/>
+      <c r="F125" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G125" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="H125" s="47"/>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A126" s="96"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="13" t="s">
+      <c r="H125" s="71"/>
+      <c r="I125" s="37"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A126" s="98"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="F126" s="18" t="s">
+      <c r="F126" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="22" t="s">
+      <c r="G126" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H126" s="47" t="s">
+      <c r="H126" s="71"/>
+      <c r="I126" s="37" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A127" s="96"/>
-      <c r="B127" s="70"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="13" t="s">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A127" s="98"/>
+      <c r="B127" s="72"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F127" s="18" t="s">
+      <c r="F127" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G127" s="22" t="s">
+      <c r="G127" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H127" s="47" t="s">
+      <c r="H127" s="71"/>
+      <c r="I127" s="37" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A128" s="96"/>
-      <c r="B128" s="70"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="74" t="s">
+    <row r="128" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A128" s="98"/>
+      <c r="B128" s="72"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="F128" s="63" t="s">
+      <c r="F128" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="G128" s="58" t="s">
+      <c r="G128" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="H128" s="47" t="s">
+      <c r="H128" s="71"/>
+      <c r="I128" s="37" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A129" s="96"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="75"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="47" t="s">
+    <row r="129" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A129" s="98"/>
+      <c r="B129" s="72"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="37" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A130" s="96"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="59"/>
-      <c r="H130" s="47" t="s">
+    <row r="130" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A130" s="98"/>
+      <c r="B130" s="72"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="70"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="37" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A131" s="96"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="74" t="s">
+    <row r="131" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A131" s="98"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F131" s="63" t="s">
+      <c r="F131" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="G131" s="58" t="s">
+      <c r="G131" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="H131" s="47" t="s">
+      <c r="H131" s="71"/>
+      <c r="I131" s="37" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A132" s="96"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="75"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="69"/>
-      <c r="H132" s="47" t="s">
+    <row r="132" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A132" s="98"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="37" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A133" s="96"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="47" t="s">
+    <row r="133" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A133" s="98"/>
+      <c r="B133" s="72"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="37" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A134" s="96"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="71" t="s">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A134" s="98"/>
+      <c r="B134" s="72"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="F134" s="70" t="s">
+      <c r="F134" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="G134" s="22" t="s">
+      <c r="G134" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="H134" s="47" t="s">
+      <c r="H134" s="71"/>
+      <c r="I134" s="37" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A135" s="96"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="22" t="s">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A135" s="98"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="H135" s="47" t="s">
+      <c r="H135" s="71"/>
+      <c r="I135" s="37" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A136" s="96"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="70"/>
-      <c r="G136" s="22" t="s">
+    <row r="136" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A136" s="98"/>
+      <c r="B136" s="72"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H136" s="47" t="s">
+      <c r="H136" s="71"/>
+      <c r="I136" s="37" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A137" s="96"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="13" t="s">
+    <row r="137" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A137" s="98"/>
+      <c r="B137" s="72"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F137" s="18" t="s">
+      <c r="F137" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G137" s="22" t="s">
+      <c r="G137" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H137" s="47" t="s">
+      <c r="H137" s="71"/>
+      <c r="I137" s="37" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A138" s="96"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="13" t="s">
+    <row r="138" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A138" s="98"/>
+      <c r="B138" s="72"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="F138" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G138" s="22" t="s">
+      <c r="G138" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H138" s="47" t="s">
+      <c r="H138" s="71"/>
+      <c r="I138" s="37" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A139" s="96"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="13" t="s">
+    <row r="139" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A139" s="98"/>
+      <c r="B139" s="72"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F139" s="18" t="s">
+      <c r="F139" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G139" s="22" t="s">
+      <c r="G139" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="H139" s="47" t="s">
+      <c r="H139" s="71"/>
+      <c r="I139" s="37" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A140" s="96"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="71" t="s">
+    <row r="140" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A140" s="98"/>
+      <c r="B140" s="72"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="F140" s="70" t="s">
+      <c r="F140" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="G140" s="22" t="s">
+      <c r="G140" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H140" s="47" t="s">
+      <c r="H140" s="71"/>
+      <c r="I140" s="37" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A141" s="96"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="22" t="s">
+    <row r="141" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A141" s="98"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H141" s="47" t="s">
+      <c r="H141" s="71"/>
+      <c r="I141" s="37" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A142" s="96"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="70"/>
-      <c r="G142" s="22" t="s">
+    <row r="142" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A142" s="98"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H142" s="47" t="s">
+      <c r="H142" s="71"/>
+      <c r="I142" s="37" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A143" s="96"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="70"/>
-      <c r="G143" s="22" t="s">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A143" s="98"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="H143" s="47" t="s">
+      <c r="H143" s="71"/>
+      <c r="I143" s="37" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A144" s="96"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="13" t="s">
+    <row r="144" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A144" s="98"/>
+      <c r="B144" s="72"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F144" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="G144" s="22" t="s">
+      <c r="G144" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="H144" s="47"/>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A145" s="96"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="13" t="s">
+      <c r="H144" s="71"/>
+      <c r="I144" s="37"/>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A145" s="98"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="54"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="F145" s="18" t="s">
+      <c r="F145" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="G145" s="22" t="s">
+      <c r="G145" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H145" s="47" t="s">
+      <c r="H145" s="71"/>
+      <c r="I145" s="37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A146" s="96"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="13" t="s">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A146" s="98"/>
+      <c r="B146" s="72"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F146" s="18" t="s">
+      <c r="F146" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G146" s="22" t="s">
+      <c r="G146" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H146" s="47" t="s">
+      <c r="H146" s="71"/>
+      <c r="I146" s="37" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A147" s="96"/>
-      <c r="B147" s="70"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="71" t="s">
+    <row r="147" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A147" s="98"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="F147" s="70" t="s">
+      <c r="F147" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="G147" s="22" t="s">
+      <c r="G147" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="H147" s="47" t="s">
+      <c r="H147" s="71"/>
+      <c r="I147" s="37" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A148" s="96"/>
-      <c r="B148" s="70"/>
-      <c r="C148" s="64"/>
-      <c r="D148" s="64"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="22" t="s">
+    <row r="148" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A148" s="98"/>
+      <c r="B148" s="72"/>
+      <c r="C148" s="54"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="H148" s="47" t="s">
+      <c r="H148" s="71"/>
+      <c r="I148" s="37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A149" s="96"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="70"/>
-      <c r="G149" s="22" t="s">
+    <row r="149" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A149" s="98"/>
+      <c r="B149" s="72"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="72"/>
+      <c r="G149" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="H149" s="47"/>
-    </row>
-    <row r="150" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A150" s="96"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="70"/>
-      <c r="G150" s="22" t="s">
+      <c r="H149" s="71"/>
+      <c r="I149" s="37"/>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A150" s="98"/>
+      <c r="B150" s="72"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="72"/>
+      <c r="G150" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="H150" s="47"/>
-    </row>
-    <row r="151" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A151" s="96"/>
-      <c r="B151" s="70"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="13" t="s">
+      <c r="H150" s="71"/>
+      <c r="I150" s="37"/>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A151" s="98"/>
+      <c r="B151" s="72"/>
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G151" s="22" t="s">
+      <c r="G151" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H151" s="47" t="s">
+      <c r="H151" s="71"/>
+      <c r="I151" s="37" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A152" s="96"/>
-      <c r="B152" s="70"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="13" t="s">
+    <row r="152" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A152" s="98"/>
+      <c r="B152" s="72"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F152" s="18" t="s">
+      <c r="F152" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="G152" s="22" t="s">
+      <c r="G152" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="H152" s="47" t="s">
+      <c r="H152" s="71"/>
+      <c r="I152" s="37" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A153" s="96"/>
-      <c r="B153" s="70"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="64"/>
-      <c r="E153" s="13" t="s">
+    <row r="153" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A153" s="98"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="54"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F153" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="G153" s="22" t="s">
+      <c r="G153" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H153" s="47"/>
-    </row>
-    <row r="154" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A154" s="96"/>
-      <c r="B154" s="70"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="71" t="s">
+      <c r="H153" s="71"/>
+      <c r="I153" s="37"/>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A154" s="98"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="54"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="F154" s="70" t="s">
+      <c r="F154" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G154" s="22" t="s">
+      <c r="G154" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="H154" s="47" t="s">
+      <c r="H154" s="71"/>
+      <c r="I154" s="37" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A155" s="96"/>
-      <c r="B155" s="70"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="70"/>
-      <c r="G155" s="22" t="s">
+    <row r="155" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A155" s="98"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="54"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="72"/>
+      <c r="G155" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H155" s="47" t="s">
+      <c r="H155" s="71"/>
+      <c r="I155" s="37" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A156" s="96"/>
-      <c r="B156" s="70"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="71"/>
-      <c r="F156" s="70"/>
-      <c r="G156" s="22" t="s">
+    <row r="156" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A156" s="98"/>
+      <c r="B156" s="72"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="62"/>
+      <c r="F156" s="72"/>
+      <c r="G156" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="H156" s="47"/>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A157" s="96"/>
-      <c r="B157" s="70"/>
-      <c r="C157" s="64"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="22" t="s">
+      <c r="H156" s="71"/>
+      <c r="I156" s="37"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A157" s="98"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="54"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="62"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H157" s="47"/>
-    </row>
-    <row r="158" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A158" s="96"/>
-      <c r="B158" s="70"/>
-      <c r="C158" s="64"/>
-      <c r="D158" s="64"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="70"/>
-      <c r="G158" s="22" t="s">
+      <c r="H157" s="71"/>
+      <c r="I157" s="37"/>
+    </row>
+    <row r="158" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A158" s="98"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="54"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="H158" s="47"/>
-    </row>
-    <row r="159" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A159" s="96"/>
-      <c r="B159" s="70"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="13" t="s">
+      <c r="H158" s="71"/>
+      <c r="I158" s="37"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A159" s="98"/>
+      <c r="B159" s="72"/>
+      <c r="C159" s="54"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F159" s="18" t="s">
+      <c r="F159" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="G159" s="22" t="s">
+      <c r="G159" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="H159" s="47"/>
-    </row>
-    <row r="160" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A160" s="96"/>
-      <c r="B160" s="70"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="13" t="s">
+      <c r="H159" s="71"/>
+      <c r="I159" s="37"/>
+    </row>
+    <row r="160" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A160" s="98"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="54"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F160" s="18" t="s">
+      <c r="F160" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G160" s="22" t="s">
+      <c r="G160" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H160" s="47" t="s">
+      <c r="H160" s="71"/>
+      <c r="I160" s="37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A161" s="96"/>
-      <c r="B161" s="70"/>
-      <c r="C161" s="64"/>
-      <c r="D161" s="64"/>
-      <c r="E161" s="71" t="s">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A161" s="98"/>
+      <c r="B161" s="72"/>
+      <c r="C161" s="54"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="F161" s="70" t="s">
+      <c r="F161" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="G161" s="22" t="s">
+      <c r="G161" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H161" s="47"/>
-    </row>
-    <row r="162" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A162" s="96"/>
-      <c r="B162" s="70"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="64"/>
-      <c r="E162" s="71"/>
-      <c r="F162" s="70"/>
-      <c r="G162" s="22" t="s">
+      <c r="H161" s="71"/>
+      <c r="I161" s="37"/>
+    </row>
+    <row r="162" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A162" s="98"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="62"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H162" s="47"/>
-    </row>
-    <row r="163" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A163" s="96"/>
-      <c r="B163" s="70"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="64"/>
-      <c r="E163" s="13" t="s">
+      <c r="H162" s="71"/>
+      <c r="I162" s="37"/>
+    </row>
+    <row r="163" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A163" s="98"/>
+      <c r="B163" s="72"/>
+      <c r="C163" s="54"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="F163" s="18" t="s">
+      <c r="F163" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="G163" s="22" t="s">
+      <c r="G163" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H163" s="47"/>
-    </row>
-    <row r="164" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A164" s="96"/>
-      <c r="B164" s="70"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="64"/>
-      <c r="E164" s="71" t="s">
+      <c r="H163" s="71"/>
+      <c r="I163" s="37"/>
+    </row>
+    <row r="164" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A164" s="98"/>
+      <c r="B164" s="72"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="F164" s="70" t="s">
+      <c r="F164" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="G164" s="22" t="s">
+      <c r="G164" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H164" s="47" t="s">
+      <c r="H164" s="71"/>
+      <c r="I164" s="37" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A165" s="96"/>
-      <c r="B165" s="70"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="71"/>
-      <c r="F165" s="70"/>
-      <c r="G165" s="22" t="s">
+    <row r="165" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A165" s="98"/>
+      <c r="B165" s="72"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="62"/>
+      <c r="F165" s="72"/>
+      <c r="G165" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="H165" s="47" t="s">
+      <c r="H165" s="71"/>
+      <c r="I165" s="37" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A166" s="96"/>
-      <c r="B166" s="70"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="64"/>
-      <c r="E166" s="71"/>
-      <c r="F166" s="70"/>
-      <c r="G166" s="22" t="s">
+    <row r="166" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A166" s="98"/>
+      <c r="B166" s="72"/>
+      <c r="C166" s="54"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="62"/>
+      <c r="F166" s="72"/>
+      <c r="G166" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H166" s="47" t="s">
+      <c r="H166" s="71"/>
+      <c r="I166" s="37" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A167" s="96"/>
-      <c r="B167" s="70"/>
-      <c r="C167" s="64"/>
-      <c r="D167" s="64"/>
-      <c r="E167" s="71"/>
-      <c r="F167" s="70"/>
-      <c r="G167" s="22" t="s">
+    <row r="167" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A167" s="98"/>
+      <c r="B167" s="72"/>
+      <c r="C167" s="54"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="72"/>
+      <c r="G167" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="H167" s="47" t="s">
+      <c r="H167" s="71"/>
+      <c r="I167" s="37" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A168" s="96"/>
-      <c r="B168" s="70"/>
-      <c r="C168" s="64"/>
-      <c r="D168" s="64"/>
-      <c r="E168" s="71" t="s">
+    <row r="168" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A168" s="98"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="54"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="F168" s="70" t="s">
+      <c r="F168" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="G168" s="22" t="s">
+      <c r="G168" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="H168" s="47"/>
-    </row>
-    <row r="169" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A169" s="96"/>
-      <c r="B169" s="70"/>
-      <c r="C169" s="64"/>
-      <c r="D169" s="64"/>
-      <c r="E169" s="71"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="22" t="s">
+      <c r="H168" s="71"/>
+      <c r="I168" s="37"/>
+    </row>
+    <row r="169" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A169" s="98"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="54"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="H169" s="47"/>
-    </row>
-    <row r="170" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A170" s="96"/>
-      <c r="B170" s="70"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="64"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="70"/>
-      <c r="G170" s="22" t="s">
+      <c r="H169" s="71"/>
+      <c r="I169" s="37"/>
+    </row>
+    <row r="170" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A170" s="98"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="54"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="H170" s="47"/>
-    </row>
-    <row r="171" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A171" s="96"/>
-      <c r="B171" s="70"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="64"/>
-      <c r="E171" s="71"/>
-      <c r="F171" s="70"/>
-      <c r="G171" s="22" t="s">
+      <c r="H170" s="71"/>
+      <c r="I170" s="37"/>
+    </row>
+    <row r="171" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A171" s="98"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="54"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="H171" s="47"/>
-    </row>
-    <row r="172" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A172" s="96"/>
-      <c r="B172" s="70"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="64"/>
-      <c r="E172" s="71"/>
-      <c r="F172" s="70"/>
-      <c r="G172" s="22" t="s">
+      <c r="H171" s="71"/>
+      <c r="I171" s="37"/>
+    </row>
+    <row r="172" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A172" s="98"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="62"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="H172" s="47"/>
-    </row>
-    <row r="173" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A173" s="96"/>
-      <c r="B173" s="70"/>
-      <c r="C173" s="64"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="71"/>
-      <c r="F173" s="70"/>
-      <c r="G173" s="22" t="s">
+      <c r="H172" s="71"/>
+      <c r="I172" s="37"/>
+    </row>
+    <row r="173" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A173" s="98"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="H173" s="47"/>
-    </row>
-    <row r="174" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A174" s="96"/>
-      <c r="B174" s="70"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="64"/>
-      <c r="E174" s="71"/>
-      <c r="F174" s="70"/>
-      <c r="G174" s="22" t="s">
+      <c r="H173" s="71"/>
+      <c r="I173" s="37"/>
+    </row>
+    <row r="174" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A174" s="98"/>
+      <c r="B174" s="72"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="62"/>
+      <c r="F174" s="72"/>
+      <c r="G174" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="H174" s="47"/>
-    </row>
-    <row r="175" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A175" s="96"/>
-      <c r="B175" s="70"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="71"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="22" t="s">
+      <c r="H174" s="71"/>
+      <c r="I174" s="37"/>
+    </row>
+    <row r="175" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A175" s="98"/>
+      <c r="B175" s="72"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="62"/>
+      <c r="F175" s="72"/>
+      <c r="G175" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="H175" s="47"/>
-    </row>
-    <row r="176" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A176" s="96"/>
-      <c r="B176" s="70"/>
-      <c r="C176" s="64"/>
-      <c r="D176" s="64"/>
-      <c r="E176" s="71" t="s">
+      <c r="H175" s="71"/>
+      <c r="I175" s="37"/>
+    </row>
+    <row r="176" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A176" s="98"/>
+      <c r="B176" s="72"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="F176" s="70" t="s">
+      <c r="F176" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="G176" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="H176" s="47"/>
-    </row>
-    <row r="177" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A177" s="96"/>
-      <c r="B177" s="70"/>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="71"/>
-      <c r="F177" s="70"/>
-      <c r="G177" s="22" t="s">
+      <c r="H176" s="71"/>
+      <c r="I176" s="37"/>
+    </row>
+    <row r="177" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A177" s="98"/>
+      <c r="B177" s="72"/>
+      <c r="C177" s="54"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="62"/>
+      <c r="F177" s="72"/>
+      <c r="G177" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="H177" s="47"/>
-    </row>
-    <row r="178" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A178" s="96"/>
-      <c r="B178" s="70"/>
-      <c r="C178" s="64"/>
-      <c r="D178" s="64"/>
-      <c r="E178" s="71"/>
-      <c r="F178" s="70"/>
-      <c r="G178" s="22" t="s">
+      <c r="H177" s="71"/>
+      <c r="I177" s="37"/>
+    </row>
+    <row r="178" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A178" s="98"/>
+      <c r="B178" s="72"/>
+      <c r="C178" s="54"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="62"/>
+      <c r="F178" s="72"/>
+      <c r="G178" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="H178" s="47"/>
-    </row>
-    <row r="179" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A179" s="96"/>
-      <c r="B179" s="70"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
-      <c r="E179" s="71"/>
-      <c r="F179" s="70"/>
-      <c r="G179" s="22" t="s">
+      <c r="H178" s="71"/>
+      <c r="I178" s="37"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A179" s="98"/>
+      <c r="B179" s="72"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="72"/>
+      <c r="G179" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="H179" s="47"/>
-    </row>
-    <row r="180" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A180" s="96"/>
-      <c r="B180" s="70"/>
-      <c r="C180" s="64"/>
-      <c r="D180" s="64"/>
-      <c r="E180" s="71" t="s">
+      <c r="H179" s="71"/>
+      <c r="I179" s="37"/>
+    </row>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A180" s="98"/>
+      <c r="B180" s="72"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="F180" s="70" t="s">
+      <c r="F180" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="G180" s="22" t="s">
+      <c r="G180" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="H180" s="47" t="s">
+      <c r="H180" s="71"/>
+      <c r="I180" s="37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A181" s="96"/>
-      <c r="B181" s="70"/>
-      <c r="C181" s="64"/>
-      <c r="D181" s="64"/>
-      <c r="E181" s="71"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="22" t="s">
+    <row r="181" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A181" s="98"/>
+      <c r="B181" s="72"/>
+      <c r="C181" s="54"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="62"/>
+      <c r="F181" s="72"/>
+      <c r="G181" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="H181" s="47"/>
-    </row>
-    <row r="182" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A182" s="96"/>
-      <c r="B182" s="70"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="71"/>
-      <c r="F182" s="70"/>
-      <c r="G182" s="22" t="s">
+      <c r="H181" s="71"/>
+      <c r="I181" s="37"/>
+    </row>
+    <row r="182" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A182" s="98"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="54"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="H182" s="47"/>
-    </row>
-    <row r="183" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A183" s="96"/>
-      <c r="B183" s="70"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="64"/>
-      <c r="E183" s="71"/>
-      <c r="F183" s="70"/>
-      <c r="G183" s="22" t="s">
+      <c r="H182" s="71"/>
+      <c r="I182" s="37"/>
+    </row>
+    <row r="183" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A183" s="98"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="54"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="62"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="H183" s="47"/>
-    </row>
-    <row r="184" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A184" s="96"/>
-      <c r="B184" s="70"/>
-      <c r="C184" s="64"/>
-      <c r="D184" s="64"/>
-      <c r="E184" s="71"/>
-      <c r="F184" s="70"/>
-      <c r="G184" s="22" t="s">
+      <c r="H183" s="71"/>
+      <c r="I183" s="37"/>
+    </row>
+    <row r="184" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A184" s="98"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="54"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="72"/>
+      <c r="G184" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="H184" s="47"/>
-    </row>
-    <row r="185" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A185" s="96"/>
-      <c r="B185" s="70"/>
-      <c r="C185" s="64"/>
-      <c r="D185" s="64"/>
-      <c r="E185" s="71"/>
-      <c r="F185" s="70"/>
-      <c r="G185" s="22" t="s">
+      <c r="H184" s="71"/>
+      <c r="I184" s="37"/>
+    </row>
+    <row r="185" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A185" s="98"/>
+      <c r="B185" s="72"/>
+      <c r="C185" s="54"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="62"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H185" s="47" t="s">
+      <c r="H185" s="71"/>
+      <c r="I185" s="37" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A186" s="96"/>
-      <c r="B186" s="70"/>
-      <c r="C186" s="64"/>
-      <c r="D186" s="64"/>
-      <c r="E186" s="71"/>
-      <c r="F186" s="70"/>
-      <c r="G186" s="22" t="s">
+    <row r="186" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A186" s="98"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="54"/>
+      <c r="E186" s="62"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H186" s="47"/>
-    </row>
-    <row r="187" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A187" s="96"/>
-      <c r="B187" s="70"/>
-      <c r="C187" s="64"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="71"/>
-      <c r="F187" s="70"/>
-      <c r="G187" s="22" t="s">
+      <c r="H186" s="71"/>
+      <c r="I186" s="37"/>
+    </row>
+    <row r="187" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A187" s="98"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="54"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="72"/>
+      <c r="G187" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="H187" s="47"/>
-    </row>
-    <row r="188" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A188" s="96"/>
-      <c r="B188" s="70"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="64"/>
-      <c r="E188" s="71"/>
-      <c r="F188" s="70"/>
-      <c r="G188" s="22" t="s">
+      <c r="H187" s="71"/>
+      <c r="I187" s="37"/>
+    </row>
+    <row r="188" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A188" s="98"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="54"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="62"/>
+      <c r="F188" s="72"/>
+      <c r="G188" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="H188" s="47"/>
-    </row>
-    <row r="189" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A189" s="96"/>
-      <c r="B189" s="70"/>
-      <c r="C189" s="64"/>
-      <c r="D189" s="64"/>
-      <c r="E189" s="71"/>
-      <c r="F189" s="70"/>
-      <c r="G189" s="22" t="s">
+      <c r="H188" s="71"/>
+      <c r="I188" s="37"/>
+    </row>
+    <row r="189" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A189" s="98"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="54"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="62"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="H189" s="47"/>
-    </row>
-    <row r="190" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A190" s="96"/>
-      <c r="B190" s="70"/>
-      <c r="C190" s="64"/>
-      <c r="D190" s="64"/>
-      <c r="E190" s="71"/>
-      <c r="F190" s="70"/>
-      <c r="G190" s="22" t="s">
+      <c r="H189" s="71"/>
+      <c r="I189" s="37"/>
+    </row>
+    <row r="190" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A190" s="98"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="62"/>
+      <c r="F190" s="72"/>
+      <c r="G190" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="H190" s="47" t="s">
+      <c r="H190" s="71"/>
+      <c r="I190" s="37" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A191" s="96"/>
-      <c r="B191" s="70"/>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="71"/>
-      <c r="F191" s="70"/>
-      <c r="G191" s="22" t="s">
+    <row r="191" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A191" s="98"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="54"/>
+      <c r="D191" s="54"/>
+      <c r="E191" s="62"/>
+      <c r="F191" s="72"/>
+      <c r="G191" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="H191" s="47"/>
-    </row>
-    <row r="192" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A192" s="96"/>
-      <c r="B192" s="70"/>
-      <c r="C192" s="64"/>
-      <c r="D192" s="64"/>
-      <c r="E192" s="71"/>
-      <c r="F192" s="70"/>
-      <c r="G192" s="22" t="s">
+      <c r="H191" s="71"/>
+      <c r="I191" s="37"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A192" s="98"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="54"/>
+      <c r="D192" s="54"/>
+      <c r="E192" s="62"/>
+      <c r="F192" s="72"/>
+      <c r="G192" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H192" s="47"/>
-    </row>
-    <row r="193" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A193" s="96"/>
-      <c r="B193" s="70"/>
-      <c r="C193" s="64"/>
-      <c r="D193" s="64"/>
-      <c r="E193" s="71"/>
-      <c r="F193" s="70"/>
-      <c r="G193" s="22" t="s">
+      <c r="H192" s="71"/>
+      <c r="I192" s="37"/>
+    </row>
+    <row r="193" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A193" s="98"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="54"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="62"/>
+      <c r="F193" s="72"/>
+      <c r="G193" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="H193" s="47"/>
-    </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A194" s="96"/>
-      <c r="B194" s="70"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="71"/>
-      <c r="F194" s="70"/>
-      <c r="G194" s="22" t="s">
+      <c r="H193" s="71"/>
+      <c r="I193" s="37"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A194" s="98"/>
+      <c r="B194" s="72"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="54"/>
+      <c r="E194" s="62"/>
+      <c r="F194" s="72"/>
+      <c r="G194" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="H194" s="47"/>
-    </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A195" s="96"/>
-      <c r="B195" s="70"/>
-      <c r="C195" s="64"/>
-      <c r="D195" s="64"/>
-      <c r="E195" s="71"/>
-      <c r="F195" s="70"/>
-      <c r="G195" s="22" t="s">
+      <c r="H194" s="71"/>
+      <c r="I194" s="37"/>
+    </row>
+    <row r="195" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A195" s="98"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="62"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="H195" s="47" t="s">
+      <c r="H195" s="71"/>
+      <c r="I195" s="37" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A196" s="96"/>
-      <c r="B196" s="70"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="64"/>
-      <c r="E196" s="71"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="22" t="s">
+    <row r="196" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A196" s="98"/>
+      <c r="B196" s="72"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="62"/>
+      <c r="F196" s="72"/>
+      <c r="G196" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="H196" s="47"/>
-    </row>
-    <row r="197" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A197" s="96"/>
-      <c r="B197" s="70"/>
-      <c r="C197" s="64"/>
-      <c r="D197" s="64"/>
-      <c r="E197" s="71"/>
-      <c r="F197" s="70"/>
-      <c r="G197" s="22" t="s">
+      <c r="H196" s="71"/>
+      <c r="I196" s="37"/>
+    </row>
+    <row r="197" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A197" s="98"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="62"/>
+      <c r="F197" s="72"/>
+      <c r="G197" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="H197" s="47"/>
-    </row>
-    <row r="198" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A198" s="96"/>
-      <c r="B198" s="70"/>
-      <c r="C198" s="64"/>
-      <c r="D198" s="64"/>
-      <c r="E198" s="71"/>
-      <c r="F198" s="70"/>
-      <c r="G198" s="22" t="s">
+      <c r="H197" s="71"/>
+      <c r="I197" s="37"/>
+    </row>
+    <row r="198" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A198" s="98"/>
+      <c r="B198" s="72"/>
+      <c r="C198" s="54"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="62"/>
+      <c r="F198" s="72"/>
+      <c r="G198" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="H198" s="47"/>
-    </row>
-    <row r="199" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A199" s="96"/>
-      <c r="B199" s="70"/>
-      <c r="C199" s="64"/>
-      <c r="D199" s="64"/>
-      <c r="E199" s="71"/>
-      <c r="F199" s="70"/>
-      <c r="G199" s="22" t="s">
+      <c r="H198" s="71"/>
+      <c r="I198" s="37"/>
+    </row>
+    <row r="199" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A199" s="98"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="54"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="62"/>
+      <c r="F199" s="72"/>
+      <c r="G199" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="H199" s="47"/>
-    </row>
-    <row r="200" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A200" s="96"/>
-      <c r="B200" s="70"/>
-      <c r="C200" s="64"/>
-      <c r="D200" s="64"/>
-      <c r="E200" s="71"/>
-      <c r="F200" s="70"/>
-      <c r="G200" s="22" t="s">
+      <c r="H199" s="71"/>
+      <c r="I199" s="37"/>
+    </row>
+    <row r="200" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A200" s="98"/>
+      <c r="B200" s="72"/>
+      <c r="C200" s="54"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="62"/>
+      <c r="F200" s="72"/>
+      <c r="G200" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="H200" s="47" t="s">
+      <c r="H200" s="71"/>
+      <c r="I200" s="37" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A201" s="96"/>
-      <c r="B201" s="70"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="64"/>
-      <c r="E201" s="71"/>
-      <c r="F201" s="70"/>
-      <c r="G201" s="22" t="s">
+    <row r="201" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A201" s="98"/>
+      <c r="B201" s="72"/>
+      <c r="C201" s="54"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="62"/>
+      <c r="F201" s="72"/>
+      <c r="G201" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="H201" s="47"/>
-    </row>
-    <row r="202" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A202" s="96"/>
-      <c r="B202" s="70"/>
-      <c r="C202" s="64"/>
-      <c r="D202" s="64"/>
-      <c r="E202" s="71"/>
-      <c r="F202" s="70"/>
-      <c r="G202" s="22" t="s">
+      <c r="H201" s="71"/>
+      <c r="I201" s="37"/>
+    </row>
+    <row r="202" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A202" s="98"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="54"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="62"/>
+      <c r="F202" s="72"/>
+      <c r="G202" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H202" s="47"/>
-    </row>
-    <row r="203" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A203" s="96"/>
-      <c r="B203" s="70"/>
-      <c r="C203" s="64"/>
-      <c r="D203" s="64"/>
-      <c r="E203" s="71"/>
-      <c r="F203" s="70"/>
-      <c r="G203" s="22" t="s">
+      <c r="H202" s="71"/>
+      <c r="I202" s="37"/>
+    </row>
+    <row r="203" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A203" s="98"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="62"/>
+      <c r="F203" s="72"/>
+      <c r="G203" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="H203" s="47"/>
-    </row>
-    <row r="204" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A204" s="96"/>
-      <c r="B204" s="70"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="71"/>
-      <c r="F204" s="70"/>
-      <c r="G204" s="22" t="s">
+      <c r="H203" s="71"/>
+      <c r="I203" s="37"/>
+    </row>
+    <row r="204" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A204" s="98"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="54"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="62"/>
+      <c r="F204" s="72"/>
+      <c r="G204" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="H204" s="47"/>
-    </row>
-    <row r="205" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A205" s="96"/>
-      <c r="B205" s="70"/>
-      <c r="C205" s="64"/>
-      <c r="D205" s="64"/>
-      <c r="E205" s="13" t="s">
+      <c r="H204" s="71"/>
+      <c r="I204" s="37"/>
+    </row>
+    <row r="205" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A205" s="98"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="54"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="F205" s="18" t="s">
+      <c r="F205" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="G205" s="22" t="s">
+      <c r="G205" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="H205" s="47" t="s">
+      <c r="H205" s="71"/>
+      <c r="I205" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A206" s="96"/>
-      <c r="B206" s="70"/>
-      <c r="C206" s="64"/>
-      <c r="D206" s="64"/>
-      <c r="E206" s="13" t="s">
+    <row r="206" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A206" s="98"/>
+      <c r="B206" s="72"/>
+      <c r="C206" s="54"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F206" s="18" t="s">
+      <c r="F206" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="G206" s="22" t="s">
+      <c r="G206" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="H206" s="47"/>
-    </row>
-    <row r="207" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A207" s="96"/>
-      <c r="B207" s="70"/>
-      <c r="C207" s="64"/>
-      <c r="D207" s="64"/>
-      <c r="E207" s="13" t="s">
+      <c r="H206" s="71"/>
+      <c r="I206" s="37"/>
+    </row>
+    <row r="207" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A207" s="98"/>
+      <c r="B207" s="72"/>
+      <c r="C207" s="54"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F207" s="18" t="s">
+      <c r="F207" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="G207" s="22" t="s">
+      <c r="G207" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="H207" s="47"/>
-    </row>
-    <row r="208" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A208" s="96"/>
-      <c r="B208" s="70"/>
-      <c r="C208" s="64"/>
-      <c r="D208" s="64"/>
-      <c r="E208" s="13" t="s">
+      <c r="H207" s="71"/>
+      <c r="I207" s="37"/>
+    </row>
+    <row r="208" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A208" s="98"/>
+      <c r="B208" s="72"/>
+      <c r="C208" s="54"/>
+      <c r="D208" s="54"/>
+      <c r="E208" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F208" s="18" t="s">
+      <c r="F208" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G208" s="22" t="s">
+      <c r="G208" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="H208" s="47" t="s">
+      <c r="H208" s="71"/>
+      <c r="I208" s="37" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A209" s="96"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="64"/>
-      <c r="D209" s="64"/>
-      <c r="E209" s="71" t="s">
+    <row r="209" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A209" s="98"/>
+      <c r="B209" s="72"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="F209" s="70" t="s">
+      <c r="F209" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G209" s="22" t="s">
+      <c r="G209" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="H209" s="47" t="s">
+      <c r="H209" s="71"/>
+      <c r="I209" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A210" s="96"/>
-      <c r="B210" s="70"/>
-      <c r="C210" s="64"/>
-      <c r="D210" s="64"/>
-      <c r="E210" s="71"/>
-      <c r="F210" s="70"/>
-      <c r="G210" s="22" t="s">
+    <row r="210" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A210" s="98"/>
+      <c r="B210" s="72"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="62"/>
+      <c r="F210" s="72"/>
+      <c r="G210" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="H210" s="47"/>
-    </row>
-    <row r="211" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A211" s="100"/>
-      <c r="B211" s="63"/>
-      <c r="C211" s="114"/>
-      <c r="D211" s="114"/>
-      <c r="E211" s="74"/>
-      <c r="F211" s="63"/>
-      <c r="G211" s="53" t="s">
+      <c r="H210" s="71"/>
+      <c r="I210" s="37"/>
+    </row>
+    <row r="211" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A211" s="99"/>
+      <c r="B211" s="116"/>
+      <c r="C211" s="55"/>
+      <c r="D211" s="55"/>
+      <c r="E211" s="117"/>
+      <c r="F211" s="116"/>
+      <c r="G211" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="H211" s="48" t="s">
+      <c r="H211" s="108"/>
+      <c r="I211" s="40" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A212" s="94" t="s">
+    <row r="212" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A212" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B212" s="81" t="s">
+      <c r="B212" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C212" s="115" t="s">
+      <c r="C212" s="56" t="s">
         <v>531</v>
       </c>
-      <c r="D212" s="115" t="s">
+      <c r="D212" s="56" t="s">
         <v>537</v>
       </c>
-      <c r="E212" s="27" t="s">
+      <c r="E212" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F212" s="15" t="s">
+      <c r="F212" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G212" s="23" t="s">
+      <c r="G212" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="H212" s="49" t="s">
+      <c r="H212" s="107" t="s">
+        <v>543</v>
+      </c>
+      <c r="I212" s="39" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A213" s="95"/>
-      <c r="B213" s="93"/>
-      <c r="C213" s="116"/>
-      <c r="D213" s="116"/>
-      <c r="E213" s="74" t="s">
+    <row r="213" spans="1:9" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A213" s="97"/>
+      <c r="B213" s="95"/>
+      <c r="C213" s="57"/>
+      <c r="D213" s="57"/>
+      <c r="E213" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F213" s="63" t="s">
+      <c r="F213" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G213" s="58" t="s">
+      <c r="G213" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="H213" s="48" t="s">
+      <c r="H213" s="71"/>
+      <c r="I213" s="38" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A214" s="96"/>
-      <c r="B214" s="82"/>
-      <c r="C214" s="116"/>
-      <c r="D214" s="116"/>
-      <c r="E214" s="75"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="59"/>
-      <c r="H214" s="48" t="s">
+    <row r="214" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A214" s="98"/>
+      <c r="B214" s="63"/>
+      <c r="C214" s="57"/>
+      <c r="D214" s="57"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="54"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="71"/>
+      <c r="I214" s="38" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A215" s="96"/>
-      <c r="B215" s="82"/>
-      <c r="C215" s="116"/>
-      <c r="D215" s="116"/>
-      <c r="E215" s="75"/>
-      <c r="F215" s="64"/>
-      <c r="G215" s="58" t="s">
+    <row r="215" spans="1:9" s="34" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A215" s="98"/>
+      <c r="B215" s="63"/>
+      <c r="C215" s="57"/>
+      <c r="D215" s="57"/>
+      <c r="E215" s="67"/>
+      <c r="F215" s="54"/>
+      <c r="G215" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="H215" s="48" t="s">
+      <c r="H215" s="71"/>
+      <c r="I215" s="38" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A216" s="96"/>
-      <c r="B216" s="82"/>
-      <c r="C216" s="116"/>
-      <c r="D216" s="116"/>
-      <c r="E216" s="76"/>
-      <c r="F216" s="65"/>
-      <c r="G216" s="59"/>
-      <c r="H216" s="48" t="s">
+    <row r="216" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A216" s="98"/>
+      <c r="B216" s="63"/>
+      <c r="C216" s="57"/>
+      <c r="D216" s="57"/>
+      <c r="E216" s="68"/>
+      <c r="F216" s="70"/>
+      <c r="G216" s="65"/>
+      <c r="H216" s="71"/>
+      <c r="I216" s="38" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A217" s="96"/>
-      <c r="B217" s="82"/>
-      <c r="C217" s="116"/>
-      <c r="D217" s="116"/>
-      <c r="E217" s="13" t="s">
+    <row r="217" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A217" s="98"/>
+      <c r="B217" s="63"/>
+      <c r="C217" s="57"/>
+      <c r="D217" s="57"/>
+      <c r="E217" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="F217" s="18" t="s">
+      <c r="F217" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G217" s="22" t="s">
+      <c r="G217" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="H217" s="48" t="s">
+      <c r="H217" s="71"/>
+      <c r="I217" s="38" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A218" s="96"/>
-      <c r="B218" s="82"/>
-      <c r="C218" s="116"/>
-      <c r="D218" s="116"/>
-      <c r="E218" s="13" t="s">
+    <row r="218" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A218" s="98"/>
+      <c r="B218" s="63"/>
+      <c r="C218" s="57"/>
+      <c r="D218" s="57"/>
+      <c r="E218" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F218" s="18" t="s">
+      <c r="F218" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G218" s="22" t="s">
+      <c r="G218" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="H218" s="48" t="s">
+      <c r="H218" s="71"/>
+      <c r="I218" s="38" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A219" s="96"/>
-      <c r="B219" s="82"/>
-      <c r="C219" s="116"/>
-      <c r="D219" s="116"/>
-      <c r="E219" s="74" t="s">
+    <row r="219" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A219" s="98"/>
+      <c r="B219" s="63"/>
+      <c r="C219" s="57"/>
+      <c r="D219" s="57"/>
+      <c r="E219" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F219" s="63" t="s">
+      <c r="F219" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="G219" s="58" t="s">
+      <c r="G219" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="H219" s="48" t="s">
+      <c r="H219" s="71"/>
+      <c r="I219" s="38" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A220" s="96"/>
-      <c r="B220" s="82"/>
-      <c r="C220" s="116"/>
-      <c r="D220" s="116"/>
-      <c r="E220" s="75"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="59"/>
-      <c r="H220" s="48" t="s">
+    <row r="220" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A220" s="98"/>
+      <c r="B220" s="63"/>
+      <c r="C220" s="57"/>
+      <c r="D220" s="57"/>
+      <c r="E220" s="67"/>
+      <c r="F220" s="54"/>
+      <c r="G220" s="65"/>
+      <c r="H220" s="71"/>
+      <c r="I220" s="38" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A221" s="96"/>
-      <c r="B221" s="82"/>
-      <c r="C221" s="116"/>
-      <c r="D221" s="116"/>
-      <c r="E221" s="75"/>
-      <c r="F221" s="64"/>
-      <c r="G221" s="22" t="s">
+    <row r="221" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A221" s="98"/>
+      <c r="B221" s="63"/>
+      <c r="C221" s="57"/>
+      <c r="D221" s="57"/>
+      <c r="E221" s="67"/>
+      <c r="F221" s="54"/>
+      <c r="G221" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="H221" s="48" t="s">
+      <c r="H221" s="71"/>
+      <c r="I221" s="38" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A222" s="96"/>
-      <c r="B222" s="82"/>
-      <c r="C222" s="116"/>
-      <c r="D222" s="116"/>
-      <c r="E222" s="75"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="22" t="s">
+    <row r="222" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A222" s="98"/>
+      <c r="B222" s="63"/>
+      <c r="C222" s="57"/>
+      <c r="D222" s="57"/>
+      <c r="E222" s="67"/>
+      <c r="F222" s="54"/>
+      <c r="G222" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="H222" s="48" t="s">
+      <c r="H222" s="71"/>
+      <c r="I222" s="38" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A223" s="96"/>
-      <c r="B223" s="82"/>
-      <c r="C223" s="116"/>
-      <c r="D223" s="116"/>
-      <c r="E223" s="75"/>
-      <c r="F223" s="64"/>
-      <c r="G223" s="22" t="s">
+    <row r="223" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A223" s="98"/>
+      <c r="B223" s="63"/>
+      <c r="C223" s="57"/>
+      <c r="D223" s="57"/>
+      <c r="E223" s="67"/>
+      <c r="F223" s="54"/>
+      <c r="G223" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="H223" s="48" t="s">
+      <c r="H223" s="71"/>
+      <c r="I223" s="38" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A224" s="96"/>
-      <c r="B224" s="82"/>
-      <c r="C224" s="116"/>
-      <c r="D224" s="116"/>
-      <c r="E224" s="75"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="22" t="s">
+    <row r="224" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A224" s="98"/>
+      <c r="B224" s="63"/>
+      <c r="C224" s="57"/>
+      <c r="D224" s="57"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="54"/>
+      <c r="G224" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H224" s="48" t="s">
+      <c r="H224" s="71"/>
+      <c r="I224" s="38" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A225" s="96"/>
-      <c r="B225" s="82"/>
-      <c r="C225" s="116"/>
-      <c r="D225" s="116"/>
-      <c r="E225" s="75"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="22" t="s">
+    <row r="225" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A225" s="98"/>
+      <c r="B225" s="63"/>
+      <c r="C225" s="57"/>
+      <c r="D225" s="57"/>
+      <c r="E225" s="67"/>
+      <c r="F225" s="54"/>
+      <c r="G225" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="H225" s="48" t="s">
+      <c r="H225" s="71"/>
+      <c r="I225" s="38" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A226" s="96"/>
-      <c r="B226" s="82"/>
-      <c r="C226" s="116"/>
-      <c r="D226" s="116"/>
-      <c r="E226" s="75"/>
-      <c r="F226" s="64"/>
-      <c r="G226" s="22" t="s">
+    <row r="226" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A226" s="98"/>
+      <c r="B226" s="63"/>
+      <c r="C226" s="57"/>
+      <c r="D226" s="57"/>
+      <c r="E226" s="67"/>
+      <c r="F226" s="54"/>
+      <c r="G226" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="H226" s="48" t="s">
+      <c r="H226" s="71"/>
+      <c r="I226" s="38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A227" s="96"/>
-      <c r="B227" s="82"/>
-      <c r="C227" s="116"/>
-      <c r="D227" s="116"/>
-      <c r="E227" s="75"/>
-      <c r="F227" s="64"/>
-      <c r="G227" s="22" t="s">
+    <row r="227" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A227" s="98"/>
+      <c r="B227" s="63"/>
+      <c r="C227" s="57"/>
+      <c r="D227" s="57"/>
+      <c r="E227" s="67"/>
+      <c r="F227" s="54"/>
+      <c r="G227" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="H227" s="48" t="s">
+      <c r="H227" s="71"/>
+      <c r="I227" s="38" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A228" s="96"/>
-      <c r="B228" s="82"/>
-      <c r="C228" s="116"/>
-      <c r="D228" s="116"/>
-      <c r="E228" s="75"/>
-      <c r="F228" s="64"/>
-      <c r="G228" s="22" t="s">
+    <row r="228" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A228" s="98"/>
+      <c r="B228" s="63"/>
+      <c r="C228" s="57"/>
+      <c r="D228" s="57"/>
+      <c r="E228" s="67"/>
+      <c r="F228" s="54"/>
+      <c r="G228" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="H228" s="48" t="s">
+      <c r="H228" s="71"/>
+      <c r="I228" s="38" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A229" s="96"/>
-      <c r="B229" s="82"/>
-      <c r="C229" s="116"/>
-      <c r="D229" s="116"/>
-      <c r="E229" s="75"/>
-      <c r="F229" s="64"/>
-      <c r="G229" s="40" t="s">
+    <row r="229" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A229" s="98"/>
+      <c r="B229" s="63"/>
+      <c r="C229" s="57"/>
+      <c r="D229" s="57"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="54"/>
+      <c r="G229" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="H229" s="48" t="s">
+      <c r="H229" s="71"/>
+      <c r="I229" s="38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A230" s="96"/>
-      <c r="B230" s="82"/>
-      <c r="C230" s="116"/>
-      <c r="D230" s="116"/>
-      <c r="E230" s="75"/>
-      <c r="F230" s="64"/>
-      <c r="G230" s="40" t="s">
+    <row r="230" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A230" s="98"/>
+      <c r="B230" s="63"/>
+      <c r="C230" s="57"/>
+      <c r="D230" s="57"/>
+      <c r="E230" s="67"/>
+      <c r="F230" s="54"/>
+      <c r="G230" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="H230" s="48" t="s">
+      <c r="H230" s="71"/>
+      <c r="I230" s="38" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A231" s="96"/>
-      <c r="B231" s="82"/>
-      <c r="C231" s="116"/>
-      <c r="D231" s="116"/>
-      <c r="E231" s="75"/>
-      <c r="F231" s="64"/>
-      <c r="G231" s="40" t="s">
+    <row r="231" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A231" s="98"/>
+      <c r="B231" s="63"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="67"/>
+      <c r="F231" s="54"/>
+      <c r="G231" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="H231" s="48" t="s">
+      <c r="H231" s="71"/>
+      <c r="I231" s="38" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A232" s="96"/>
-      <c r="B232" s="82"/>
-      <c r="C232" s="116"/>
-      <c r="D232" s="116"/>
-      <c r="E232" s="75"/>
-      <c r="F232" s="64"/>
-      <c r="G232" s="40" t="s">
+    <row r="232" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A232" s="98"/>
+      <c r="B232" s="63"/>
+      <c r="C232" s="57"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="67"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="H232" s="48" t="s">
+      <c r="H232" s="71"/>
+      <c r="I232" s="38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A233" s="96"/>
-      <c r="B233" s="82"/>
-      <c r="C233" s="116"/>
-      <c r="D233" s="116"/>
-      <c r="E233" s="75"/>
-      <c r="F233" s="64"/>
-      <c r="G233" s="40" t="s">
+    <row r="233" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A233" s="98"/>
+      <c r="B233" s="63"/>
+      <c r="C233" s="57"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="67"/>
+      <c r="F233" s="54"/>
+      <c r="G233" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="H233" s="48" t="s">
+      <c r="H233" s="71"/>
+      <c r="I233" s="38" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A234" s="96"/>
-      <c r="B234" s="82"/>
-      <c r="C234" s="116"/>
-      <c r="D234" s="116"/>
-      <c r="E234" s="75"/>
-      <c r="F234" s="64"/>
-      <c r="G234" s="40" t="s">
+    <row r="234" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A234" s="98"/>
+      <c r="B234" s="63"/>
+      <c r="C234" s="57"/>
+      <c r="D234" s="57"/>
+      <c r="E234" s="67"/>
+      <c r="F234" s="54"/>
+      <c r="G234" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="H234" s="48" t="s">
+      <c r="H234" s="71"/>
+      <c r="I234" s="38" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A235" s="96"/>
-      <c r="B235" s="82"/>
-      <c r="C235" s="116"/>
-      <c r="D235" s="116"/>
-      <c r="E235" s="75"/>
-      <c r="F235" s="64"/>
-      <c r="G235" s="40" t="s">
+    <row r="235" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A235" s="98"/>
+      <c r="B235" s="63"/>
+      <c r="C235" s="57"/>
+      <c r="D235" s="57"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="54"/>
+      <c r="G235" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="H235" s="48" t="s">
+      <c r="H235" s="71"/>
+      <c r="I235" s="38" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A236" s="96"/>
-      <c r="B236" s="82"/>
-      <c r="C236" s="116"/>
-      <c r="D236" s="116"/>
-      <c r="E236" s="75"/>
-      <c r="F236" s="64"/>
-      <c r="G236" s="40" t="s">
+    <row r="236" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A236" s="98"/>
+      <c r="B236" s="63"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="57"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="54"/>
+      <c r="G236" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="H236" s="48" t="s">
+      <c r="H236" s="71"/>
+      <c r="I236" s="38" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A237" s="96"/>
-      <c r="B237" s="82"/>
-      <c r="C237" s="116"/>
-      <c r="D237" s="116"/>
-      <c r="E237" s="75"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="40" t="s">
+    <row r="237" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A237" s="98"/>
+      <c r="B237" s="63"/>
+      <c r="C237" s="57"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="54"/>
+      <c r="G237" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="H237" s="48" t="s">
+      <c r="H237" s="71"/>
+      <c r="I237" s="38" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A238" s="96"/>
-      <c r="B238" s="82"/>
-      <c r="C238" s="116"/>
-      <c r="D238" s="116"/>
-      <c r="E238" s="75"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="40" t="s">
+    <row r="238" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A238" s="98"/>
+      <c r="B238" s="63"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="57"/>
+      <c r="E238" s="67"/>
+      <c r="F238" s="54"/>
+      <c r="G238" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="H238" s="48" t="s">
+      <c r="H238" s="71"/>
+      <c r="I238" s="38" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A239" s="96"/>
-      <c r="B239" s="82"/>
-      <c r="C239" s="116"/>
-      <c r="D239" s="116"/>
-      <c r="E239" s="75"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="40" t="s">
+    <row r="239" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A239" s="98"/>
+      <c r="B239" s="63"/>
+      <c r="C239" s="57"/>
+      <c r="D239" s="57"/>
+      <c r="E239" s="67"/>
+      <c r="F239" s="54"/>
+      <c r="G239" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="H239" s="48" t="s">
+      <c r="H239" s="71"/>
+      <c r="I239" s="38" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A240" s="96"/>
-      <c r="B240" s="82"/>
-      <c r="C240" s="116"/>
-      <c r="D240" s="116"/>
-      <c r="E240" s="75"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="40" t="s">
+    <row r="240" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A240" s="98"/>
+      <c r="B240" s="63"/>
+      <c r="C240" s="57"/>
+      <c r="D240" s="57"/>
+      <c r="E240" s="67"/>
+      <c r="F240" s="54"/>
+      <c r="G240" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="H240" s="48" t="s">
+      <c r="H240" s="71"/>
+      <c r="I240" s="38" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A241" s="96"/>
-      <c r="B241" s="82"/>
-      <c r="C241" s="116"/>
-      <c r="D241" s="116"/>
-      <c r="E241" s="75"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="40" t="s">
+    <row r="241" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A241" s="98"/>
+      <c r="B241" s="63"/>
+      <c r="C241" s="57"/>
+      <c r="D241" s="57"/>
+      <c r="E241" s="67"/>
+      <c r="F241" s="54"/>
+      <c r="G241" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="H241" s="48" t="s">
+      <c r="H241" s="71"/>
+      <c r="I241" s="38" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A242" s="96"/>
-      <c r="B242" s="82"/>
-      <c r="C242" s="116"/>
-      <c r="D242" s="116"/>
-      <c r="E242" s="75"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="40" t="s">
+    <row r="242" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A242" s="98"/>
+      <c r="B242" s="63"/>
+      <c r="C242" s="57"/>
+      <c r="D242" s="57"/>
+      <c r="E242" s="67"/>
+      <c r="F242" s="54"/>
+      <c r="G242" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="H242" s="48" t="s">
+      <c r="H242" s="71"/>
+      <c r="I242" s="38" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A243" s="96"/>
-      <c r="B243" s="82"/>
-      <c r="C243" s="116"/>
-      <c r="D243" s="116"/>
-      <c r="E243" s="76"/>
-      <c r="F243" s="65"/>
-      <c r="G243" s="40" t="s">
+    <row r="243" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A243" s="98"/>
+      <c r="B243" s="63"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="57"/>
+      <c r="E243" s="68"/>
+      <c r="F243" s="70"/>
+      <c r="G243" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="H243" s="48" t="s">
+      <c r="H243" s="71"/>
+      <c r="I243" s="38" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A244" s="96"/>
-      <c r="B244" s="82"/>
-      <c r="C244" s="116"/>
-      <c r="D244" s="116"/>
-      <c r="E244" s="74" t="s">
+    <row r="244" spans="1:9" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A244" s="98"/>
+      <c r="B244" s="63"/>
+      <c r="C244" s="57"/>
+      <c r="D244" s="57"/>
+      <c r="E244" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F244" s="63" t="s">
+      <c r="F244" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G244" s="108" t="s">
+      <c r="G244" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H244" s="48" t="s">
+      <c r="H244" s="71"/>
+      <c r="I244" s="38" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A245" s="96"/>
-      <c r="B245" s="82"/>
-      <c r="C245" s="116"/>
-      <c r="D245" s="116"/>
-      <c r="E245" s="76"/>
-      <c r="F245" s="65"/>
-      <c r="G245" s="109"/>
-      <c r="H245" s="48" t="s">
+    <row r="245" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A245" s="98"/>
+      <c r="B245" s="63"/>
+      <c r="C245" s="57"/>
+      <c r="D245" s="57"/>
+      <c r="E245" s="68"/>
+      <c r="F245" s="70"/>
+      <c r="G245" s="61"/>
+      <c r="H245" s="71"/>
+      <c r="I245" s="38" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A246" s="97"/>
-      <c r="B246" s="83"/>
-      <c r="C246" s="117"/>
-      <c r="D246" s="117"/>
-      <c r="E246" s="28" t="s">
+    <row r="246" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A246" s="99"/>
+      <c r="B246" s="88"/>
+      <c r="C246" s="58"/>
+      <c r="D246" s="58"/>
+      <c r="E246" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F246" s="14" t="s">
+      <c r="F246" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G246" s="17" t="s">
+      <c r="G246" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="H246" s="50" t="s">
+      <c r="H246" s="108"/>
+      <c r="I246" s="40" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A247" s="84" t="s">
+    <row r="247" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A247" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B247" s="98" t="s">
+      <c r="B247" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C247" s="111" t="s">
+      <c r="C247" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D247" s="111" t="s">
+      <c r="D247" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="E247" s="29" t="s">
+      <c r="E247" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F247" s="15" t="s">
+      <c r="F247" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G247" s="16" t="s">
+      <c r="G247" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="H247" s="51" t="s">
+      <c r="H247" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" s="41" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A248" s="99"/>
-      <c r="B248" s="60"/>
-      <c r="C248" s="112"/>
-      <c r="D248" s="112"/>
-      <c r="E248" s="26" t="s">
+    <row r="248" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A248" s="83"/>
+      <c r="B248" s="87"/>
+      <c r="C248" s="52"/>
+      <c r="D248" s="52"/>
+      <c r="E248" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="F248" s="20" t="s">
+      <c r="F248" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G248" s="17" t="s">
+      <c r="G248" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="H248" s="52" t="s">
+      <c r="H248" s="52"/>
+      <c r="I248" s="119" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A249" s="84" t="s">
+    <row r="249" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A249" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B249" s="81" t="s">
+      <c r="B249" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C249" s="115" t="s">
+      <c r="C249" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="D249" s="115" t="s">
-        <v>538</v>
-      </c>
-      <c r="E249" s="79" t="s">
+      <c r="D249" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="E249" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="F249" s="11" t="s">
+      <c r="F249" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G249" s="16" t="s">
+      <c r="G249" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="H249" s="31" t="s">
+      <c r="H249" s="107" t="s">
+        <v>542</v>
+      </c>
+      <c r="I249" s="41" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A250" s="85"/>
-      <c r="B250" s="82"/>
-      <c r="C250" s="116"/>
-      <c r="D250" s="116"/>
-      <c r="E250" s="80"/>
-      <c r="F250" s="10" t="s">
+    <row r="250" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A250" s="82"/>
+      <c r="B250" s="63"/>
+      <c r="C250" s="57"/>
+      <c r="D250" s="57"/>
+      <c r="E250" s="85"/>
+      <c r="F250" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G250" s="22" t="s">
+      <c r="G250" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="H250" s="33" t="s">
+      <c r="H250" s="71"/>
+      <c r="I250" s="37" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A251" s="85"/>
-      <c r="B251" s="82"/>
-      <c r="C251" s="116"/>
-      <c r="D251" s="116"/>
-      <c r="E251" s="80"/>
-      <c r="F251" s="10" t="s">
+    <row r="251" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A251" s="82"/>
+      <c r="B251" s="63"/>
+      <c r="C251" s="57"/>
+      <c r="D251" s="57"/>
+      <c r="E251" s="85"/>
+      <c r="F251" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G251" s="22" t="s">
+      <c r="G251" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="H251" s="33" t="s">
+      <c r="H251" s="71"/>
+      <c r="I251" s="37" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A252" s="85"/>
-      <c r="B252" s="82"/>
-      <c r="C252" s="116"/>
-      <c r="D252" s="116"/>
-      <c r="E252" s="80"/>
-      <c r="F252" s="10" t="s">
+    <row r="252" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A252" s="82"/>
+      <c r="B252" s="63"/>
+      <c r="C252" s="57"/>
+      <c r="D252" s="57"/>
+      <c r="E252" s="85"/>
+      <c r="F252" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G252" s="22" t="s">
+      <c r="G252" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="H252" s="33" t="s">
+      <c r="H252" s="71"/>
+      <c r="I252" s="37" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A253" s="85"/>
-      <c r="B253" s="82"/>
-      <c r="C253" s="116"/>
-      <c r="D253" s="116"/>
-      <c r="E253" s="71" t="s">
+    <row r="253" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A253" s="82"/>
+      <c r="B253" s="63"/>
+      <c r="C253" s="57"/>
+      <c r="D253" s="57"/>
+      <c r="E253" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="F253" s="82" t="s">
+      <c r="F253" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="G253" s="110" t="s">
+      <c r="G253" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="H253" s="33" t="s">
+      <c r="H253" s="71"/>
+      <c r="I253" s="37" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A254" s="85"/>
-      <c r="B254" s="82"/>
-      <c r="C254" s="116"/>
-      <c r="D254" s="116"/>
-      <c r="E254" s="71"/>
-      <c r="F254" s="82"/>
-      <c r="G254" s="110"/>
-      <c r="H254" s="33" t="s">
+    <row r="254" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A254" s="82"/>
+      <c r="B254" s="63"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="57"/>
+      <c r="E254" s="62"/>
+      <c r="F254" s="63"/>
+      <c r="G254" s="59"/>
+      <c r="H254" s="71"/>
+      <c r="I254" s="37" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A255" s="85"/>
-      <c r="B255" s="82"/>
-      <c r="C255" s="116"/>
-      <c r="D255" s="116"/>
-      <c r="E255" s="71"/>
-      <c r="F255" s="82"/>
-      <c r="G255" s="40" t="s">
+    <row r="255" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A255" s="82"/>
+      <c r="B255" s="63"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="57"/>
+      <c r="E255" s="62"/>
+      <c r="F255" s="63"/>
+      <c r="G255" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="H255" s="33" t="s">
+      <c r="H255" s="71"/>
+      <c r="I255" s="37" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A256" s="85"/>
-      <c r="B256" s="82"/>
-      <c r="C256" s="116"/>
-      <c r="D256" s="116"/>
-      <c r="E256" s="71" t="s">
+    <row r="256" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A256" s="82"/>
+      <c r="B256" s="63"/>
+      <c r="C256" s="57"/>
+      <c r="D256" s="57"/>
+      <c r="E256" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F256" s="82" t="s">
+      <c r="F256" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="G256" s="110" t="s">
+      <c r="G256" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="H256" s="33" t="s">
+      <c r="H256" s="71"/>
+      <c r="I256" s="37" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A257" s="85"/>
-      <c r="B257" s="82"/>
-      <c r="C257" s="116"/>
-      <c r="D257" s="116"/>
-      <c r="E257" s="71"/>
-      <c r="F257" s="82"/>
-      <c r="G257" s="110"/>
-      <c r="H257" s="33" t="s">
+    <row r="257" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A257" s="82"/>
+      <c r="B257" s="63"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="57"/>
+      <c r="E257" s="62"/>
+      <c r="F257" s="63"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="71"/>
+      <c r="I257" s="37" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A258" s="85"/>
-      <c r="B258" s="82"/>
-      <c r="C258" s="116"/>
-      <c r="D258" s="116"/>
-      <c r="E258" s="71"/>
-      <c r="F258" s="82"/>
-      <c r="G258" s="110"/>
-      <c r="H258" s="33" t="s">
+    <row r="258" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A258" s="82"/>
+      <c r="B258" s="63"/>
+      <c r="C258" s="57"/>
+      <c r="D258" s="57"/>
+      <c r="E258" s="62"/>
+      <c r="F258" s="63"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="71"/>
+      <c r="I258" s="37" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A259" s="85"/>
-      <c r="B259" s="82"/>
-      <c r="C259" s="116"/>
-      <c r="D259" s="116"/>
-      <c r="E259" s="71"/>
-      <c r="F259" s="82"/>
-      <c r="G259" s="110"/>
-      <c r="H259" s="33" t="s">
+    <row r="259" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A259" s="82"/>
+      <c r="B259" s="63"/>
+      <c r="C259" s="57"/>
+      <c r="D259" s="57"/>
+      <c r="E259" s="62"/>
+      <c r="F259" s="63"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="71"/>
+      <c r="I259" s="37" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A260" s="85"/>
-      <c r="B260" s="82"/>
-      <c r="C260" s="116"/>
-      <c r="D260" s="116"/>
-      <c r="E260" s="71" t="s">
+    <row r="260" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A260" s="82"/>
+      <c r="B260" s="63"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="57"/>
+      <c r="E260" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="F260" s="82" t="s">
+      <c r="F260" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="G260" s="110" t="s">
+      <c r="G260" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="H260" s="33" t="s">
+      <c r="H260" s="71"/>
+      <c r="I260" s="37" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A261" s="85"/>
-      <c r="B261" s="82"/>
-      <c r="C261" s="116"/>
-      <c r="D261" s="116"/>
-      <c r="E261" s="71"/>
-      <c r="F261" s="82"/>
-      <c r="G261" s="110"/>
-      <c r="H261" s="33" t="s">
+    <row r="261" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A261" s="82"/>
+      <c r="B261" s="63"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="62"/>
+      <c r="F261" s="63"/>
+      <c r="G261" s="59"/>
+      <c r="H261" s="71"/>
+      <c r="I261" s="37" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A262" s="85"/>
-      <c r="B262" s="82"/>
-      <c r="C262" s="116"/>
-      <c r="D262" s="116"/>
-      <c r="E262" s="71"/>
-      <c r="F262" s="82"/>
-      <c r="G262" s="110"/>
-      <c r="H262" s="33" t="s">
+    <row r="262" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A262" s="82"/>
+      <c r="B262" s="63"/>
+      <c r="C262" s="57"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="62"/>
+      <c r="F262" s="63"/>
+      <c r="G262" s="59"/>
+      <c r="H262" s="71"/>
+      <c r="I262" s="37" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A263" s="85"/>
-      <c r="B263" s="82"/>
-      <c r="C263" s="116"/>
-      <c r="D263" s="116"/>
-      <c r="E263" s="71"/>
-      <c r="F263" s="82"/>
-      <c r="G263" s="110"/>
-      <c r="H263" s="33" t="s">
+    <row r="263" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A263" s="82"/>
+      <c r="B263" s="63"/>
+      <c r="C263" s="57"/>
+      <c r="D263" s="57"/>
+      <c r="E263" s="62"/>
+      <c r="F263" s="63"/>
+      <c r="G263" s="59"/>
+      <c r="H263" s="71"/>
+      <c r="I263" s="37" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A264" s="85"/>
-      <c r="B264" s="82"/>
-      <c r="C264" s="116"/>
-      <c r="D264" s="116"/>
-      <c r="E264" s="71" t="s">
+    <row r="264" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A264" s="82"/>
+      <c r="B264" s="63"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="57"/>
+      <c r="E264" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F264" s="82" t="s">
+      <c r="F264" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G264" s="40" t="s">
+      <c r="G264" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H264" s="33" t="s">
+      <c r="H264" s="71"/>
+      <c r="I264" s="37" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A265" s="85"/>
-      <c r="B265" s="82"/>
-      <c r="C265" s="116"/>
-      <c r="D265" s="116"/>
-      <c r="E265" s="71"/>
-      <c r="F265" s="82"/>
-      <c r="G265" s="40" t="s">
+    <row r="265" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A265" s="82"/>
+      <c r="B265" s="63"/>
+      <c r="C265" s="57"/>
+      <c r="D265" s="57"/>
+      <c r="E265" s="62"/>
+      <c r="F265" s="63"/>
+      <c r="G265" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="H265" s="33" t="s">
+      <c r="H265" s="71"/>
+      <c r="I265" s="37" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A266" s="85"/>
-      <c r="B266" s="82"/>
-      <c r="C266" s="116"/>
-      <c r="D266" s="116"/>
-      <c r="E266" s="71" t="s">
+    <row r="266" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A266" s="82"/>
+      <c r="B266" s="63"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="57"/>
+      <c r="E266" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="F266" s="82" t="s">
+      <c r="F266" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="G266" s="110" t="s">
+      <c r="G266" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="H266" s="33" t="s">
+      <c r="H266" s="71"/>
+      <c r="I266" s="37" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A267" s="85"/>
-      <c r="B267" s="82"/>
-      <c r="C267" s="116"/>
-      <c r="D267" s="116"/>
-      <c r="E267" s="71"/>
-      <c r="F267" s="82"/>
-      <c r="G267" s="110"/>
-      <c r="H267" s="33" t="s">
+    <row r="267" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A267" s="82"/>
+      <c r="B267" s="63"/>
+      <c r="C267" s="57"/>
+      <c r="D267" s="57"/>
+      <c r="E267" s="62"/>
+      <c r="F267" s="63"/>
+      <c r="G267" s="59"/>
+      <c r="H267" s="71"/>
+      <c r="I267" s="37" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A268" s="85"/>
-      <c r="B268" s="82"/>
-      <c r="C268" s="116"/>
-      <c r="D268" s="116"/>
-      <c r="E268" s="13" t="s">
+    <row r="268" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A268" s="82"/>
+      <c r="B268" s="63"/>
+      <c r="C268" s="57"/>
+      <c r="D268" s="57"/>
+      <c r="E268" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F268" s="10" t="s">
+      <c r="F268" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G268" s="40" t="s">
+      <c r="G268" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="H268" s="33" t="s">
+      <c r="H268" s="71"/>
+      <c r="I268" s="37" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A269" s="85"/>
-      <c r="B269" s="82"/>
-      <c r="C269" s="116"/>
-      <c r="D269" s="116"/>
-      <c r="E269" s="71" t="s">
+    <row r="269" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A269" s="82"/>
+      <c r="B269" s="63"/>
+      <c r="C269" s="57"/>
+      <c r="D269" s="57"/>
+      <c r="E269" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="F269" s="82" t="s">
+      <c r="F269" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="G269" s="40" t="s">
+      <c r="G269" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="H269" s="33" t="s">
+      <c r="H269" s="71"/>
+      <c r="I269" s="37" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A270" s="85"/>
-      <c r="B270" s="82"/>
-      <c r="C270" s="116"/>
-      <c r="D270" s="116"/>
-      <c r="E270" s="71"/>
-      <c r="F270" s="82"/>
-      <c r="G270" s="40" t="s">
+    <row r="270" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A270" s="82"/>
+      <c r="B270" s="63"/>
+      <c r="C270" s="57"/>
+      <c r="D270" s="57"/>
+      <c r="E270" s="62"/>
+      <c r="F270" s="63"/>
+      <c r="G270" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="H270" s="33" t="s">
+      <c r="H270" s="71"/>
+      <c r="I270" s="37" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A271" s="85"/>
-      <c r="B271" s="82"/>
-      <c r="C271" s="116"/>
-      <c r="D271" s="116"/>
-      <c r="E271" s="71"/>
-      <c r="F271" s="82"/>
-      <c r="G271" s="40" t="s">
+    <row r="271" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A271" s="82"/>
+      <c r="B271" s="63"/>
+      <c r="C271" s="57"/>
+      <c r="D271" s="57"/>
+      <c r="E271" s="62"/>
+      <c r="F271" s="63"/>
+      <c r="G271" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="H271" s="33" t="s">
+      <c r="H271" s="71"/>
+      <c r="I271" s="37" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A272" s="85"/>
-      <c r="B272" s="82"/>
-      <c r="C272" s="116"/>
-      <c r="D272" s="116"/>
-      <c r="E272" s="71"/>
-      <c r="F272" s="82"/>
-      <c r="G272" s="40" t="s">
+    <row r="272" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A272" s="82"/>
+      <c r="B272" s="63"/>
+      <c r="C272" s="57"/>
+      <c r="D272" s="57"/>
+      <c r="E272" s="62"/>
+      <c r="F272" s="63"/>
+      <c r="G272" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="H272" s="33" t="s">
+      <c r="H272" s="71"/>
+      <c r="I272" s="37" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A273" s="85"/>
-      <c r="B273" s="82"/>
-      <c r="C273" s="116"/>
-      <c r="D273" s="116"/>
-      <c r="E273" s="13" t="s">
+    <row r="273" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A273" s="82"/>
+      <c r="B273" s="63"/>
+      <c r="C273" s="57"/>
+      <c r="D273" s="57"/>
+      <c r="E273" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="F273" s="10" t="s">
+      <c r="F273" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="G273" s="40" t="s">
+      <c r="G273" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="H273" s="33" t="s">
+      <c r="H273" s="71"/>
+      <c r="I273" s="37" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A274" s="86"/>
-      <c r="B274" s="83"/>
-      <c r="C274" s="117"/>
-      <c r="D274" s="117"/>
-      <c r="E274" s="28" t="s">
+    <row r="274" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A274" s="83"/>
+      <c r="B274" s="88"/>
+      <c r="C274" s="58"/>
+      <c r="D274" s="58"/>
+      <c r="E274" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F274" s="12" t="s">
+      <c r="F274" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="G274" s="17" t="s">
+      <c r="G274" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="H274" s="41" t="s">
+      <c r="H274" s="108"/>
+      <c r="I274" s="40" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A275" s="84" t="s">
+    <row r="275" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A275" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B275" s="81" t="s">
+      <c r="B275" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C275" s="115" t="s">
+      <c r="C275" s="56" t="s">
         <v>532</v>
       </c>
-      <c r="D275" s="115" t="s">
-        <v>538</v>
-      </c>
-      <c r="E275" s="79" t="s">
+      <c r="D275" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="E275" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="F275" s="81" t="s">
+      <c r="F275" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="G275" s="16" t="s">
+      <c r="G275" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="H275" s="51" t="s">
+      <c r="H275" s="121" t="s">
+        <v>542</v>
+      </c>
+      <c r="I275" s="41" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A276" s="85"/>
-      <c r="B276" s="82"/>
-      <c r="C276" s="116"/>
-      <c r="D276" s="116"/>
-      <c r="E276" s="80"/>
-      <c r="F276" s="82"/>
-      <c r="G276" s="40" t="s">
+    <row r="276" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A276" s="82"/>
+      <c r="B276" s="63"/>
+      <c r="C276" s="57"/>
+      <c r="D276" s="57"/>
+      <c r="E276" s="85"/>
+      <c r="F276" s="63"/>
+      <c r="G276" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="H276" s="47" t="s">
+      <c r="H276" s="120"/>
+      <c r="I276" s="37" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A277" s="85"/>
-      <c r="B277" s="82"/>
-      <c r="C277" s="116"/>
-      <c r="D277" s="116"/>
-      <c r="E277" s="19" t="s">
+    <row r="277" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A277" s="82"/>
+      <c r="B277" s="63"/>
+      <c r="C277" s="57"/>
+      <c r="D277" s="57"/>
+      <c r="E277" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F277" s="10" t="s">
+      <c r="F277" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G277" s="40" t="s">
+      <c r="G277" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="H277" s="47" t="s">
+      <c r="H277" s="120"/>
+      <c r="I277" s="37" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A278" s="85"/>
-      <c r="B278" s="82"/>
-      <c r="C278" s="116"/>
-      <c r="D278" s="116"/>
-      <c r="E278" s="71" t="s">
+    <row r="278" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A278" s="82"/>
+      <c r="B278" s="63"/>
+      <c r="C278" s="57"/>
+      <c r="D278" s="57"/>
+      <c r="E278" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F278" s="82" t="s">
+      <c r="F278" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="G278" s="40" t="s">
+      <c r="G278" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="H278" s="47" t="s">
+      <c r="H278" s="120"/>
+      <c r="I278" s="37" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A279" s="85"/>
-      <c r="B279" s="82"/>
-      <c r="C279" s="116"/>
-      <c r="D279" s="116"/>
-      <c r="E279" s="71"/>
-      <c r="F279" s="82"/>
-      <c r="G279" s="108" t="s">
+    <row r="279" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A279" s="82"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="57"/>
+      <c r="D279" s="57"/>
+      <c r="E279" s="62"/>
+      <c r="F279" s="63"/>
+      <c r="G279" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="H279" s="47" t="s">
+      <c r="H279" s="120"/>
+      <c r="I279" s="37" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A280" s="85"/>
-      <c r="B280" s="82"/>
-      <c r="C280" s="116"/>
-      <c r="D280" s="116"/>
-      <c r="E280" s="71"/>
-      <c r="F280" s="82"/>
-      <c r="G280" s="109"/>
-      <c r="H280" s="47" t="s">
+    <row r="280" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A280" s="82"/>
+      <c r="B280" s="63"/>
+      <c r="C280" s="57"/>
+      <c r="D280" s="57"/>
+      <c r="E280" s="62"/>
+      <c r="F280" s="63"/>
+      <c r="G280" s="61"/>
+      <c r="H280" s="120"/>
+      <c r="I280" s="37" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A281" s="85"/>
-      <c r="B281" s="82"/>
-      <c r="C281" s="116"/>
-      <c r="D281" s="116"/>
-      <c r="E281" s="71"/>
-      <c r="F281" s="82"/>
-      <c r="G281" s="40" t="s">
+    <row r="281" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A281" s="82"/>
+      <c r="B281" s="63"/>
+      <c r="C281" s="57"/>
+      <c r="D281" s="57"/>
+      <c r="E281" s="62"/>
+      <c r="F281" s="63"/>
+      <c r="G281" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="H281" s="47" t="s">
+      <c r="H281" s="120"/>
+      <c r="I281" s="37" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A282" s="85"/>
-      <c r="B282" s="82"/>
-      <c r="C282" s="116"/>
-      <c r="D282" s="116"/>
-      <c r="E282" s="13" t="s">
+    <row r="282" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A282" s="82"/>
+      <c r="B282" s="63"/>
+      <c r="C282" s="57"/>
+      <c r="D282" s="57"/>
+      <c r="E282" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F282" s="10" t="s">
+      <c r="F282" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G282" s="40" t="s">
+      <c r="G282" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="H282" s="47" t="s">
+      <c r="H282" s="120"/>
+      <c r="I282" s="37" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A283" s="85"/>
-      <c r="B283" s="82"/>
-      <c r="C283" s="116"/>
-      <c r="D283" s="116"/>
-      <c r="E283" s="13" t="s">
+    <row r="283" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A283" s="82"/>
+      <c r="B283" s="63"/>
+      <c r="C283" s="57"/>
+      <c r="D283" s="57"/>
+      <c r="E283" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F283" s="10" t="s">
+      <c r="F283" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G283" s="40" t="s">
+      <c r="G283" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="H283" s="47" t="s">
+      <c r="H283" s="120"/>
+      <c r="I283" s="37" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A284" s="85"/>
-      <c r="B284" s="82"/>
-      <c r="C284" s="116"/>
-      <c r="D284" s="116"/>
-      <c r="E284" s="13" t="s">
+    <row r="284" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A284" s="82"/>
+      <c r="B284" s="63"/>
+      <c r="C284" s="57"/>
+      <c r="D284" s="57"/>
+      <c r="E284" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F284" s="10" t="s">
+      <c r="F284" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G284" s="40" t="s">
+      <c r="G284" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="H284" s="47" t="s">
+      <c r="H284" s="120"/>
+      <c r="I284" s="37" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A285" s="85"/>
-      <c r="B285" s="82"/>
-      <c r="C285" s="116"/>
-      <c r="D285" s="116"/>
-      <c r="E285" s="72" t="s">
+    <row r="285" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A285" s="82"/>
+      <c r="B285" s="63"/>
+      <c r="C285" s="57"/>
+      <c r="D285" s="57"/>
+      <c r="E285" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F285" s="82" t="s">
+      <c r="F285" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="G285" s="40" t="s">
+      <c r="G285" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="H285" s="47" t="s">
+      <c r="H285" s="120"/>
+      <c r="I285" s="37" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A286" s="86"/>
-      <c r="B286" s="83"/>
-      <c r="C286" s="117"/>
-      <c r="D286" s="117"/>
-      <c r="E286" s="73"/>
-      <c r="F286" s="83"/>
-      <c r="G286" s="17" t="s">
+    <row r="286" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A286" s="83"/>
+      <c r="B286" s="88"/>
+      <c r="C286" s="58"/>
+      <c r="D286" s="58"/>
+      <c r="E286" s="87"/>
+      <c r="F286" s="88"/>
+      <c r="G286" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="H286" s="50" t="s">
+      <c r="H286" s="122"/>
+      <c r="I286" s="40" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:9">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -6922,8 +7245,9 @@
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
       <c r="H287" s="7"/>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="I287" s="7"/>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -6931,8 +7255,9 @@
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
       <c r="H288" s="7"/>
-    </row>
-    <row r="289" spans="1:8">
+      <c r="I288" s="7"/>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -6940,8 +7265,9 @@
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="I289" s="7"/>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -6949,8 +7275,9 @@
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
       <c r="H290" s="7"/>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="I290" s="7"/>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" s="4"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -6958,8 +7285,9 @@
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
-    </row>
-    <row r="292" spans="1:8">
+      <c r="I291" s="7"/>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" s="1"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -6967,8 +7295,9 @@
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
       <c r="H292" s="7"/>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="I292" s="7"/>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" s="1"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -6976,8 +7305,9 @@
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
       <c r="H293" s="7"/>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="I293" s="7"/>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" s="1"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -6985,8 +7315,9 @@
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
       <c r="H294" s="7"/>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="I294" s="7"/>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" s="1"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -6994,8 +7325,9 @@
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
       <c r="H295" s="7"/>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="I295" s="7"/>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" s="1"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -7003,8 +7335,9 @@
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="I296" s="7"/>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" s="1"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -7012,8 +7345,9 @@
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
       <c r="H297" s="7"/>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="I297" s="7"/>
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" s="1"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -7021,8 +7355,9 @@
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="I298" s="7"/>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" s="1"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -7030,8 +7365,9 @@
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
       <c r="H299" s="7"/>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="I299" s="7"/>
+    </row>
+    <row r="300" spans="1:9">
       <c r="A300" s="1"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -7039,8 +7375,9 @@
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="I300" s="7"/>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" s="1"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -7048,8 +7385,9 @@
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
       <c r="H301" s="7"/>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="I301" s="7"/>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" s="1"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -7057,8 +7395,9 @@
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="I302" s="7"/>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" s="1"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -7066,8 +7405,9 @@
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="I303" s="7"/>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" s="1"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -7075,8 +7415,9 @@
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
-    </row>
-    <row r="305" spans="1:8">
+      <c r="I304" s="7"/>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" s="1"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -7084,34 +7425,108 @@
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
+      <c r="I305" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="C2:C33"/>
-    <mergeCell ref="C34:C115"/>
-    <mergeCell ref="C116:C211"/>
-    <mergeCell ref="C212:C246"/>
-    <mergeCell ref="C249:C274"/>
-    <mergeCell ref="C275:C286"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D2:D33"/>
-    <mergeCell ref="D34:D115"/>
-    <mergeCell ref="D116:D211"/>
-    <mergeCell ref="D212:D246"/>
-    <mergeCell ref="D249:D274"/>
-    <mergeCell ref="D275:D286"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="G279:G280"/>
-    <mergeCell ref="E260:E263"/>
-    <mergeCell ref="F260:F263"/>
-    <mergeCell ref="G260:G263"/>
-    <mergeCell ref="G253:G254"/>
-    <mergeCell ref="E256:E259"/>
-    <mergeCell ref="F256:F259"/>
-    <mergeCell ref="G256:G259"/>
-    <mergeCell ref="F253:F255"/>
-    <mergeCell ref="E253:E255"/>
+  <mergeCells count="147">
+    <mergeCell ref="H249:H274"/>
+    <mergeCell ref="H275:H286"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="H212:H246"/>
+    <mergeCell ref="H116:H211"/>
+    <mergeCell ref="H34:H115"/>
+    <mergeCell ref="H2:H33"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F48:F59"/>
+    <mergeCell ref="E48:E59"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F88:F103"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F120:F124"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="F140:F143"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="E116:E125"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="E249:E252"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E88:E103"/>
+    <mergeCell ref="E147:E150"/>
+    <mergeCell ref="E168:E175"/>
+    <mergeCell ref="B249:B274"/>
+    <mergeCell ref="A249:A274"/>
+    <mergeCell ref="E154:E158"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="A34:A115"/>
+    <mergeCell ref="B34:B115"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B116:B211"/>
+    <mergeCell ref="B212:B246"/>
+    <mergeCell ref="A212:A246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A116:A211"/>
+    <mergeCell ref="A275:A286"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="F278:F281"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="E269:E272"/>
+    <mergeCell ref="F269:F272"/>
+    <mergeCell ref="B275:B286"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="F266:F267"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E18:E30"/>
+    <mergeCell ref="F18:F30"/>
+    <mergeCell ref="G18:G30"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="F40:F47"/>
     <mergeCell ref="G219:G220"/>
     <mergeCell ref="E219:E243"/>
     <mergeCell ref="F219:F243"/>
@@ -7136,98 +7551,33 @@
     <mergeCell ref="F147:F150"/>
     <mergeCell ref="F154:F158"/>
     <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="E104:E107"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E18:E30"/>
-    <mergeCell ref="F18:F30"/>
-    <mergeCell ref="G18:G30"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="F40:F47"/>
-    <mergeCell ref="A275:A286"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="F278:F281"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="F264:F265"/>
-    <mergeCell ref="E269:E272"/>
-    <mergeCell ref="F269:F272"/>
-    <mergeCell ref="B275:B286"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="F266:F267"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="A34:A115"/>
-    <mergeCell ref="B34:B115"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B116:B211"/>
-    <mergeCell ref="B212:B246"/>
-    <mergeCell ref="A212:A246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A116:A211"/>
-    <mergeCell ref="E249:E252"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E88:E103"/>
-    <mergeCell ref="E147:E150"/>
-    <mergeCell ref="E168:E175"/>
-    <mergeCell ref="B249:B274"/>
-    <mergeCell ref="A249:A274"/>
-    <mergeCell ref="E154:E158"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E108:E115"/>
-    <mergeCell ref="F164:F167"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="F88:F103"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F120:F124"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="F140:F143"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="F128:F130"/>
-    <mergeCell ref="E116:E125"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F48:F59"/>
-    <mergeCell ref="E48:E59"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="E71:E78"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G266:G267"/>
+    <mergeCell ref="G279:G280"/>
+    <mergeCell ref="E260:E263"/>
+    <mergeCell ref="F260:F263"/>
+    <mergeCell ref="G260:G263"/>
+    <mergeCell ref="G253:G254"/>
+    <mergeCell ref="E256:E259"/>
+    <mergeCell ref="F256:F259"/>
+    <mergeCell ref="G256:G259"/>
+    <mergeCell ref="F253:F255"/>
+    <mergeCell ref="E253:E255"/>
+    <mergeCell ref="C2:C33"/>
+    <mergeCell ref="C34:C115"/>
+    <mergeCell ref="C116:C211"/>
+    <mergeCell ref="C212:C246"/>
+    <mergeCell ref="C249:C274"/>
+    <mergeCell ref="C275:C286"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D2:D33"/>
+    <mergeCell ref="D34:D115"/>
+    <mergeCell ref="D116:D211"/>
+    <mergeCell ref="D212:D246"/>
+    <mergeCell ref="D249:D274"/>
+    <mergeCell ref="D275:D286"/>
+    <mergeCell ref="D247:D248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirments/RTM.xlsx
+++ b/Requirments/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\Car-Purchasing-Development\Car-Purchasing-Development\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="577">
   <si>
     <t>Feature ID</t>
   </si>
@@ -1704,6 +1704,57 @@
   </si>
   <si>
     <t>SIQ_76</t>
+  </si>
+  <si>
+    <t>TC_Admin_001</t>
+  </si>
+  <si>
+    <t>TC_Admin_002</t>
+  </si>
+  <si>
+    <t>TC_Admin_003</t>
+  </si>
+  <si>
+    <t>TC_Admin_004</t>
+  </si>
+  <si>
+    <t>TC_Admin_006</t>
+  </si>
+  <si>
+    <t>TC_Admin_005</t>
+  </si>
+  <si>
+    <t>TC_Admin_007</t>
+  </si>
+  <si>
+    <t>TC_Admin_008</t>
+  </si>
+  <si>
+    <t>TC_Admin_009</t>
+  </si>
+  <si>
+    <t>TC_Regesteration_***</t>
+  </si>
+  <si>
+    <t>TC_Admin_010</t>
+  </si>
+  <si>
+    <t>TC_Admin_011</t>
+  </si>
+  <si>
+    <t>TC_Admin_012</t>
+  </si>
+  <si>
+    <t>TC_Admin_013</t>
+  </si>
+  <si>
+    <t>TC_Admin_014</t>
+  </si>
+  <si>
+    <t>TC_Admin_015</t>
+  </si>
+  <si>
+    <t>TC_Admin_016</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2038,7 +2089,81 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -2049,30 +2174,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2084,78 +2196,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -2220,7 +2260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2246,9 +2286,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2267,9 +2304,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2279,14 +2313,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2320,15 +2348,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2341,17 +2369,150 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2359,285 +2520,179 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2973,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K289"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3016,4353 +3071,4393 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="75" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="28" t="s">
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="120"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="24" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="28" t="s">
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="120"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="24" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="28" t="s">
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="120"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="28" t="s">
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="120"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="24" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="28" t="s">
+    <row r="7" spans="1:8" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="120"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="24" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="28" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="24" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="17" t="s">
+      <c r="A9" s="120"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="24" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="17" t="s">
+      <c r="A10" s="120"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="24" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="17" t="s">
+      <c r="A11" s="120"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="24" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="17" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="24" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="105" t="s">
+      <c r="A13" s="120"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="24" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="17" t="s">
+      <c r="A14" s="120"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="24" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="17" t="s">
+      <c r="A15" s="120"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="24" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="17" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="24" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="17" t="s">
+      <c r="A17" s="120"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="24" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="105" t="s">
+    <row r="18" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="120"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="24" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="28" t="s">
+    <row r="19" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="120"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="28" t="s">
+    <row r="20" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="120"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="24" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="28" t="s">
+    <row r="21" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="120"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="24" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="28" t="s">
+    <row r="22" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="120"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="24" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="28" t="s">
+    <row r="23" spans="1:8" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="120"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="24" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="30" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="28" t="s">
+    <row r="24" spans="1:8" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="120"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="24" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="28" t="s">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="120"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="24" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="28" t="s">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="120"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="24" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="33" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="28" t="s">
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="120"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="24" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="33" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="28" t="s">
+    <row r="28" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="120"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="24" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="33" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="28" t="s">
+    <row r="29" spans="1:8" s="29" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="120"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="24" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="28" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="24" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="121" t="s">
+    <row r="31" spans="1:8" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="120"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="121" t="s">
+      <c r="F31" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="24" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="31" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="28" t="s">
+    <row r="32" spans="1:8" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="120"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="24" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="36" t="s">
+    <row r="33" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="122"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="95"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="58" t="s">
+    <row r="34" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="121"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="51" t="s">
         <v>549</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="125"/>
+      <c r="H34" s="59"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="75" t="s">
         <v>489</v>
       </c>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="E35" s="107" t="s">
+      <c r="E35" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="106" t="s">
+      <c r="F35" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="22" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="49" t="s">
+      <c r="A36" s="120"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="J36" s="39"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="94"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="17" t="s">
+      <c r="A37" s="120"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="J37" s="39"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="17" t="s">
+      <c r="A38" s="120"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="J38" s="39"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="17" t="s">
+      <c r="A39" s="120"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="J39" s="39"/>
+      <c r="J39" s="35"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A40" s="94"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="17" t="s">
+      <c r="A40" s="120"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="J40" s="39"/>
+      <c r="J40" s="35"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="105" t="s">
+      <c r="A41" s="120"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="J41" s="39"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="17" t="s">
+      <c r="A42" s="120"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="64" t="s">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="120"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H43" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="J43" s="126"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A44" s="94"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="28" t="s">
+      <c r="A44" s="120"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="J44" s="126"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="17" t="s">
+      <c r="A45" s="120"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="J45" s="39"/>
-    </row>
-    <row r="46" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="64" t="s">
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A46" s="120"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="J46" s="126"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="28" t="s">
+      <c r="A47" s="120"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="J47" s="126"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="17" t="s">
+      <c r="A48" s="120"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H48" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="J48" s="39"/>
-    </row>
-    <row r="49" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A49" s="94"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="69" t="s">
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="120"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="64" t="s">
+      <c r="G49" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="J49" s="126"/>
-    </row>
-    <row r="50" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="28" t="s">
+      <c r="J49" s="65"/>
+    </row>
+    <row r="50" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="120"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="J50" s="126"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="28" t="s">
+      <c r="A51" s="120"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="J51" s="126"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="17" t="s">
+      <c r="A52" s="120"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="H52" s="28" t="s">
+      <c r="H52" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="J52" s="39"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="17" t="s">
+      <c r="A53" s="120"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="H53" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="J53" s="39"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="17" t="s">
+      <c r="A54" s="120"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H54" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="J54" s="39"/>
+      <c r="J54" s="35"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A55" s="94"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="17" t="s">
+      <c r="A55" s="120"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H55" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="J55" s="39"/>
+      <c r="J55" s="35"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A56" s="94"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="17" t="s">
+      <c r="A56" s="120"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H56" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="J56" s="39"/>
-    </row>
-    <row r="57" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A57" s="94"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="64" t="s">
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A57" s="120"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H57" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="J57" s="126"/>
+      <c r="J57" s="65"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A58" s="94"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="28" t="s">
+      <c r="A58" s="120"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="J58" s="126"/>
+      <c r="J58" s="65"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="94"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="17" t="s">
+      <c r="A59" s="120"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="J59" s="39"/>
+      <c r="J59" s="35"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="94"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="17" t="s">
+      <c r="A60" s="120"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="J60" s="39"/>
+      <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A61" s="94"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="73" t="s">
+      <c r="A61" s="120"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="74" t="s">
+      <c r="F61" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="J61" s="39"/>
+      <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A62" s="94"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="17" t="s">
+      <c r="A62" s="120"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H62" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="J62" s="39"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="94"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="17" t="s">
+      <c r="A63" s="120"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="H63" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="J63" s="39"/>
+      <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="94"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="73" t="s">
+      <c r="A64" s="120"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H64" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="J64" s="39"/>
+      <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="94"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="17" t="s">
+      <c r="A65" s="120"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="J65" s="39"/>
+      <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="94"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="73" t="s">
+      <c r="A66" s="120"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="74" t="s">
+      <c r="F66" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="64" t="s">
+      <c r="G66" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="H66" s="28" t="s">
+      <c r="H66" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="J66" s="126"/>
-    </row>
-    <row r="67" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="94"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="28" t="s">
+      <c r="J66" s="65"/>
+    </row>
+    <row r="67" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="120"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="J67" s="126"/>
-    </row>
-    <row r="68" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="94"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="28" t="s">
+      <c r="J67" s="65"/>
+    </row>
+    <row r="68" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="120"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="J68" s="126"/>
-    </row>
-    <row r="69" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="94"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="64" t="s">
+      <c r="J68" s="65"/>
+    </row>
+    <row r="69" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="120"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H69" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="J69" s="126"/>
-    </row>
-    <row r="70" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A70" s="94"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="28" t="s">
+      <c r="J69" s="65"/>
+    </row>
+    <row r="70" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A70" s="120"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="J70" s="126"/>
+      <c r="J70" s="65"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A71" s="94"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="28" t="s">
+      <c r="A71" s="120"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="J71" s="126"/>
+      <c r="J71" s="65"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A72" s="94"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="73" t="s">
+      <c r="A72" s="120"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="F72" s="74" t="s">
+      <c r="F72" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="H72" s="28" t="s">
+      <c r="H72" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="J72" s="39"/>
+      <c r="J72" s="35"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A73" s="94"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="17" t="s">
+      <c r="A73" s="120"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H73" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="J73" s="39"/>
-    </row>
-    <row r="74" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="94"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="64" t="s">
+      <c r="J73" s="35"/>
+    </row>
+    <row r="74" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="120"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="H74" s="28" t="s">
+      <c r="H74" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="J74" s="126"/>
-    </row>
-    <row r="75" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A75" s="94"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="28" t="s">
+      <c r="J74" s="65"/>
+    </row>
+    <row r="75" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="120"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="J75" s="126"/>
+      <c r="J75" s="65"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A76" s="94"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="28" t="s">
+      <c r="A76" s="120"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="J76" s="126"/>
-    </row>
-    <row r="77" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="94"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="64" t="s">
+      <c r="J76" s="65"/>
+    </row>
+    <row r="77" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="120"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="H77" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="J77" s="126"/>
-    </row>
-    <row r="78" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="94"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="28" t="s">
+      <c r="J77" s="65"/>
+    </row>
+    <row r="78" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="120"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="J78" s="126"/>
+      <c r="J78" s="65"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A79" s="94"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="28" t="s">
+      <c r="A79" s="120"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="J79" s="126"/>
+      <c r="J79" s="65"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A80" s="94"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="47" t="s">
+      <c r="A80" s="120"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H80" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="J80" s="39"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A81" s="94"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="73" t="s">
+      <c r="A81" s="120"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F81" s="74" t="s">
+      <c r="F81" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G81" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H81" s="28" t="s">
+      <c r="H81" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="J81" s="39"/>
+      <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A82" s="94"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="17" t="s">
+      <c r="A82" s="120"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="H82" s="28" t="s">
+      <c r="H82" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="J82" s="39"/>
+      <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A83" s="94"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="73" t="s">
+      <c r="A83" s="120"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="74" t="s">
+      <c r="F83" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H83" s="28" t="s">
+      <c r="H83" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J83" s="39"/>
+      <c r="J83" s="35"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A84" s="94"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="20" t="s">
+      <c r="A84" s="120"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H84" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="J84" s="39"/>
-    </row>
-    <row r="85" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="94"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="69" t="s">
+      <c r="J84" s="35"/>
+    </row>
+    <row r="85" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="120"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F85" s="66" t="s">
+      <c r="F85" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="G85" s="64" t="s">
+      <c r="G85" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="H85" s="28" t="s">
+      <c r="H85" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="J85" s="126"/>
+      <c r="J85" s="65"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A86" s="94"/>
-      <c r="B86" s="91"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="28" t="s">
+      <c r="A86" s="120"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="J86" s="126"/>
+      <c r="J86" s="65"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A87" s="94"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="17" t="s">
+      <c r="A87" s="120"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="H87" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="J87" s="39"/>
+      <c r="J87" s="35"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A88" s="94"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="47" t="s">
+      <c r="A88" s="120"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F88" s="48" t="s">
+      <c r="F88" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H88" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="J88" s="39"/>
+      <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A89" s="94"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="73" t="s">
+      <c r="A89" s="120"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="F89" s="74" t="s">
+      <c r="F89" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="H89" s="28" t="s">
+      <c r="H89" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="J89" s="39"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A90" s="94"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="17" t="s">
+      <c r="A90" s="120"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="97"/>
+      <c r="G90" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H90" s="28" t="s">
+      <c r="H90" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="J90" s="39"/>
+      <c r="J90" s="35"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A91" s="94"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="17" t="s">
+      <c r="A91" s="120"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="97"/>
+      <c r="G91" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H91" s="28" t="s">
+      <c r="H91" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="J91" s="39"/>
+      <c r="J91" s="35"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A92" s="94"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="17" t="s">
+      <c r="A92" s="120"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="97"/>
+      <c r="G92" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="H92" s="28" t="s">
+      <c r="H92" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="J92" s="39"/>
+      <c r="J92" s="35"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A93" s="94"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="17" t="s">
+      <c r="A93" s="120"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H93" s="28" t="s">
+      <c r="H93" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="J93" s="39"/>
+      <c r="J93" s="35"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="17" t="s">
+      <c r="A94" s="120"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="H94" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="J94" s="39"/>
+      <c r="J94" s="35"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A95" s="94"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="17" t="s">
+      <c r="A95" s="120"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="H95" s="28" t="s">
+      <c r="H95" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="J95" s="39"/>
+      <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A96" s="94"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="17" t="s">
+      <c r="A96" s="120"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="97"/>
+      <c r="G96" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="H96" s="28" t="s">
+      <c r="H96" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="J96" s="39"/>
+      <c r="J96" s="35"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A97" s="94"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="17" t="s">
+      <c r="A97" s="120"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="H97" s="28" t="s">
+      <c r="H97" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="J97" s="39"/>
+      <c r="J97" s="35"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A98" s="94"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="17" t="s">
+      <c r="A98" s="120"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="97"/>
+      <c r="G98" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="H98" s="28" t="s">
+      <c r="H98" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="J98" s="39"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A99" s="94"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="17" t="s">
+      <c r="A99" s="120"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H99" s="28" t="s">
+      <c r="H99" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="J99" s="39"/>
+      <c r="J99" s="35"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A100" s="94"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="17" t="s">
+      <c r="A100" s="120"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="H100" s="28" t="s">
+      <c r="H100" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="J100" s="39"/>
+      <c r="J100" s="35"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A101" s="94"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="17" t="s">
+      <c r="A101" s="120"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="97"/>
+      <c r="G101" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H101" s="28" t="s">
+      <c r="H101" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="J101" s="39"/>
+      <c r="J101" s="35"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A102" s="94"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="17" t="s">
+      <c r="A102" s="120"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="97"/>
+      <c r="G102" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="H102" s="28" t="s">
+      <c r="H102" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="J102" s="39"/>
+      <c r="J102" s="35"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A103" s="94"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="17" t="s">
+      <c r="A103" s="120"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="97"/>
+      <c r="G103" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="H103" s="28" t="s">
+      <c r="H103" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="J103" s="39"/>
+      <c r="J103" s="35"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A104" s="94"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="17" t="s">
+      <c r="A104" s="120"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="97"/>
+      <c r="G104" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="H104" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="J104" s="39"/>
-    </row>
-    <row r="105" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A105" s="94"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="74" t="s">
+      <c r="J104" s="35"/>
+    </row>
+    <row r="105" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A105" s="120"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="F105" s="74" t="s">
+      <c r="F105" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="G105" s="64" t="s">
+      <c r="G105" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="H105" s="28" t="s">
+      <c r="H105" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="J105" s="126"/>
-    </row>
-    <row r="106" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A106" s="94"/>
-      <c r="B106" s="91"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="28" t="s">
+      <c r="J105" s="65"/>
+    </row>
+    <row r="106" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A106" s="120"/>
+      <c r="B106" s="116"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="J106" s="126"/>
-    </row>
-    <row r="107" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A107" s="94"/>
-      <c r="B107" s="91"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="64" t="s">
+      <c r="J106" s="65"/>
+    </row>
+    <row r="107" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A107" s="120"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="97"/>
+      <c r="G107" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="H107" s="28" t="s">
+      <c r="H107" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="J107" s="126"/>
-    </row>
-    <row r="108" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A108" s="94"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="28" t="s">
+      <c r="J107" s="65"/>
+    </row>
+    <row r="108" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A108" s="120"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="97"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="J108" s="126"/>
-    </row>
-    <row r="109" spans="1:10" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="94"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="74" t="s">
+      <c r="J108" s="65"/>
+    </row>
+    <row r="109" spans="1:10" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A109" s="120"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="74" t="s">
+      <c r="F109" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="G109" s="64" t="s">
+      <c r="G109" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="H109" s="28" t="s">
+      <c r="H109" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="J109" s="126"/>
-    </row>
-    <row r="110" spans="1:10" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="A110" s="94"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="72"/>
-      <c r="H110" s="28" t="s">
+      <c r="J109" s="65"/>
+    </row>
+    <row r="110" spans="1:10" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A110" s="120"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="97"/>
+      <c r="F110" s="97"/>
+      <c r="G110" s="94"/>
+      <c r="H110" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="J110" s="126"/>
+      <c r="J110" s="65"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A111" s="94"/>
-      <c r="B111" s="91"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="28" t="s">
+      <c r="A111" s="120"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="97"/>
+      <c r="F111" s="97"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="J111" s="126"/>
-    </row>
-    <row r="112" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A112" s="94"/>
-      <c r="B112" s="91"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="64" t="s">
+      <c r="J111" s="65"/>
+    </row>
+    <row r="112" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A112" s="120"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="97"/>
+      <c r="F112" s="97"/>
+      <c r="G112" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="J112" s="126"/>
-    </row>
-    <row r="113" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A113" s="94"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="72"/>
-      <c r="H113" s="28" t="s">
+      <c r="J112" s="65"/>
+    </row>
+    <row r="113" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A113" s="120"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="97"/>
+      <c r="F113" s="97"/>
+      <c r="G113" s="94"/>
+      <c r="H113" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="J113" s="126"/>
+      <c r="J113" s="65"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A114" s="94"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="28" t="s">
+      <c r="A114" s="120"/>
+      <c r="B114" s="116"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="97"/>
+      <c r="F114" s="97"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="J114" s="126"/>
+      <c r="J114" s="65"/>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A115" s="94"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74" t="s">
+      <c r="A115" s="120"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="97"/>
+      <c r="F115" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G115" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="J115" s="39"/>
+      <c r="J115" s="35"/>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A116" s="95"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="19" t="s">
+      <c r="A116" s="121"/>
+      <c r="B116" s="118"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="113"/>
+      <c r="F116" s="113"/>
+      <c r="G116" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H116" s="36" t="s">
+      <c r="H116" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="J116" s="39"/>
+      <c r="J116" s="35"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A117" s="98" t="s">
+      <c r="A117" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B117" s="71" t="s">
+      <c r="B117" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="114" t="s">
+      <c r="C117" s="78" t="s">
         <v>487</v>
       </c>
-      <c r="D117" s="127" t="s">
+      <c r="D117" s="84" t="s">
         <v>495</v>
       </c>
-      <c r="E117" s="80" t="s">
+      <c r="E117" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="F117" s="16" t="s">
+      <c r="F117" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G117" s="49" t="s">
+      <c r="G117" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="H117" s="40" t="s">
+      <c r="H117" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="J117" s="39"/>
+      <c r="J117" s="35"/>
     </row>
     <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="99"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="81"/>
-      <c r="F118" s="14" t="s">
+      <c r="A118" s="124"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="79"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="133"/>
+      <c r="F118" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G118" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="H118" s="41" t="s">
+      <c r="H118" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="J118" s="39"/>
+      <c r="J118" s="35"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A119" s="99"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="128"/>
-      <c r="E119" s="81"/>
-      <c r="F119" s="14" t="s">
+      <c r="A119" s="124"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="133"/>
+      <c r="F119" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="H119" s="41" t="s">
+      <c r="H119" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="J119" s="39"/>
+      <c r="J119" s="35"/>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A120" s="99"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="128"/>
-      <c r="E120" s="81"/>
-      <c r="F120" s="14" t="s">
+      <c r="A120" s="124"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="133"/>
+      <c r="F120" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G120" s="17" t="s">
+      <c r="G120" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H120" s="41" t="s">
+      <c r="H120" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="J120" s="39"/>
+      <c r="J120" s="35"/>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A121" s="99"/>
-      <c r="B121" s="73"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="128"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="73" t="s">
+      <c r="A121" s="124"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="133"/>
+      <c r="F121" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H121" s="41" t="s">
+      <c r="H121" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="J121" s="39"/>
+      <c r="J121" s="35"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A122" s="99"/>
-      <c r="B122" s="73"/>
-      <c r="C122" s="70"/>
-      <c r="D122" s="128"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="17" t="s">
+      <c r="A122" s="124"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="79"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="133"/>
+      <c r="F122" s="96"/>
+      <c r="G122" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="H122" s="41" t="s">
+      <c r="H122" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="J122" s="39"/>
+      <c r="J122" s="35"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A123" s="99"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="128"/>
-      <c r="E123" s="81"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="17" t="s">
+      <c r="A123" s="124"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="133"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="H123" s="41" t="s">
+      <c r="H123" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="J123" s="39"/>
+      <c r="J123" s="35"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A124" s="99"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="128"/>
-      <c r="E124" s="81"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="17" t="s">
+      <c r="A124" s="124"/>
+      <c r="B124" s="96"/>
+      <c r="C124" s="79"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="133"/>
+      <c r="F124" s="96"/>
+      <c r="G124" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="H124" s="41" t="s">
+      <c r="H124" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="J124" s="39"/>
+      <c r="J124" s="35"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A125" s="99"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="17" t="s">
+      <c r="A125" s="124"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="133"/>
+      <c r="F125" s="96"/>
+      <c r="G125" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H125" s="41" t="s">
+      <c r="H125" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="J125" s="39"/>
+      <c r="J125" s="35"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A126" s="99"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="70"/>
-      <c r="D126" s="128"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="14" t="s">
+      <c r="A126" s="124"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="133"/>
+      <c r="F126" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G126" s="17" t="s">
+      <c r="G126" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="H126" s="41" t="s">
+      <c r="H126" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="J126" s="39"/>
+      <c r="J126" s="35"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A127" s="99"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="70"/>
-      <c r="D127" s="128"/>
+      <c r="A127" s="124"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="85"/>
       <c r="E127" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F127" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="H127" s="41" t="s">
+      <c r="H127" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="J127" s="39"/>
+      <c r="J127" s="35"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A128" s="99"/>
-      <c r="B128" s="73"/>
-      <c r="C128" s="70"/>
-      <c r="D128" s="128"/>
+      <c r="A128" s="124"/>
+      <c r="B128" s="96"/>
+      <c r="C128" s="79"/>
+      <c r="D128" s="85"/>
       <c r="E128" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F128" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G128" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="H128" s="41" t="s">
+      <c r="H128" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="J128" s="39"/>
-    </row>
-    <row r="129" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A129" s="99"/>
-      <c r="B129" s="73"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="77" t="s">
+      <c r="J128" s="35"/>
+    </row>
+    <row r="129" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A129" s="124"/>
+      <c r="B129" s="96"/>
+      <c r="C129" s="79"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="F129" s="69" t="s">
+      <c r="F129" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G129" s="64" t="s">
+      <c r="G129" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H129" s="41" t="s">
+      <c r="H129" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="J129" s="39"/>
-    </row>
-    <row r="130" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A130" s="99"/>
-      <c r="B130" s="73"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="128"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="70"/>
-      <c r="G130" s="72"/>
-      <c r="H130" s="41" t="s">
+      <c r="J129" s="35"/>
+    </row>
+    <row r="130" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A130" s="124"/>
+      <c r="B130" s="96"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="95"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="94"/>
+      <c r="H130" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="J130" s="39"/>
+      <c r="J130" s="35"/>
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A131" s="99"/>
-      <c r="B131" s="73"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="128"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="41" t="s">
+      <c r="A131" s="124"/>
+      <c r="B131" s="96"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="J131" s="39"/>
-    </row>
-    <row r="132" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A132" s="99"/>
-      <c r="B132" s="73"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="128"/>
-      <c r="E132" s="77" t="s">
+      <c r="J131" s="35"/>
+    </row>
+    <row r="132" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A132" s="124"/>
+      <c r="B132" s="96"/>
+      <c r="C132" s="79"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F132" s="69" t="s">
+      <c r="F132" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="G132" s="64" t="s">
+      <c r="G132" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="H132" s="41" t="s">
+      <c r="H132" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="J132" s="39"/>
-    </row>
-    <row r="133" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A133" s="99"/>
-      <c r="B133" s="73"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="41" t="s">
+      <c r="J132" s="35"/>
+    </row>
+    <row r="133" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A133" s="124"/>
+      <c r="B133" s="96"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="95"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="94"/>
+      <c r="H133" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="J133" s="39"/>
+      <c r="J133" s="35"/>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A134" s="99"/>
-      <c r="B134" s="73"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="41" t="s">
+      <c r="A134" s="124"/>
+      <c r="B134" s="96"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="69"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="J134" s="39"/>
+      <c r="J134" s="35"/>
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A135" s="99"/>
-      <c r="B135" s="73"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="75" t="s">
+      <c r="A135" s="124"/>
+      <c r="B135" s="96"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="85"/>
+      <c r="E135" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="F135" s="73" t="s">
+      <c r="F135" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G135" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="H135" s="41" t="s">
+      <c r="H135" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="J135" s="39"/>
+      <c r="J135" s="35"/>
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A136" s="99"/>
-      <c r="B136" s="73"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="17" t="s">
+      <c r="A136" s="124"/>
+      <c r="B136" s="96"/>
+      <c r="C136" s="79"/>
+      <c r="D136" s="85"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="96"/>
+      <c r="G136" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="H136" s="41" t="s">
+      <c r="H136" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="J136" s="39"/>
+      <c r="J136" s="35"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A137" s="99"/>
-      <c r="B137" s="73"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="75"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="17" t="s">
+      <c r="A137" s="124"/>
+      <c r="B137" s="96"/>
+      <c r="C137" s="79"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="96"/>
+      <c r="G137" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="H137" s="41" t="s">
+      <c r="H137" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="J137" s="39"/>
+      <c r="J137" s="35"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A138" s="99"/>
-      <c r="B138" s="73"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="128"/>
+      <c r="A138" s="124"/>
+      <c r="B138" s="96"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="85"/>
       <c r="E138" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F138" s="14" t="s">
+      <c r="F138" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G138" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="H138" s="41" t="s">
+      <c r="H138" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="J138" s="39"/>
+      <c r="J138" s="35"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A139" s="99"/>
-      <c r="B139" s="73"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="128"/>
+      <c r="A139" s="124"/>
+      <c r="B139" s="96"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="85"/>
       <c r="E139" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F139" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="H139" s="41" t="s">
+      <c r="H139" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="J139" s="39"/>
+      <c r="J139" s="35"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A140" s="99"/>
-      <c r="B140" s="73"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="128"/>
+      <c r="A140" s="124"/>
+      <c r="B140" s="96"/>
+      <c r="C140" s="79"/>
+      <c r="D140" s="85"/>
       <c r="E140" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F140" s="14" t="s">
+      <c r="F140" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="H140" s="41" t="s">
+      <c r="H140" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="J140" s="39"/>
+      <c r="J140" s="35"/>
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A141" s="99"/>
-      <c r="B141" s="73"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="128"/>
-      <c r="E141" s="75" t="s">
+      <c r="A141" s="124"/>
+      <c r="B141" s="96"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="85"/>
+      <c r="E141" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="F141" s="73" t="s">
+      <c r="F141" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="G141" s="17" t="s">
+      <c r="G141" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="H141" s="41" t="s">
+      <c r="H141" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="J141" s="39"/>
+      <c r="J141" s="35"/>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A142" s="99"/>
-      <c r="B142" s="73"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="128"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="17" t="s">
+      <c r="A142" s="124"/>
+      <c r="B142" s="96"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="96"/>
+      <c r="G142" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="H142" s="41" t="s">
+      <c r="H142" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="J142" s="39"/>
+      <c r="J142" s="35"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A143" s="99"/>
-      <c r="B143" s="73"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="128"/>
-      <c r="E143" s="75"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="17" t="s">
+      <c r="A143" s="124"/>
+      <c r="B143" s="96"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="90"/>
+      <c r="F143" s="96"/>
+      <c r="G143" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="H143" s="41" t="s">
+      <c r="H143" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="J143" s="39"/>
+      <c r="J143" s="35"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A144" s="99"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="75"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="17" t="s">
+      <c r="A144" s="124"/>
+      <c r="B144" s="96"/>
+      <c r="C144" s="79"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="96"/>
+      <c r="G144" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H144" s="41" t="s">
+      <c r="H144" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="J144" s="39"/>
+      <c r="J144" s="35"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A145" s="99"/>
-      <c r="B145" s="73"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="128"/>
+      <c r="A145" s="124"/>
+      <c r="B145" s="96"/>
+      <c r="C145" s="79"/>
+      <c r="D145" s="85"/>
       <c r="E145" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F145" s="14" t="s">
+      <c r="F145" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G145" s="17" t="s">
+      <c r="G145" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="H145" s="41" t="s">
+      <c r="H145" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="J145" s="39"/>
+      <c r="J145" s="35"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A146" s="99"/>
-      <c r="B146" s="73"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="128"/>
+      <c r="A146" s="124"/>
+      <c r="B146" s="96"/>
+      <c r="C146" s="79"/>
+      <c r="D146" s="85"/>
       <c r="E146" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F146" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G146" s="17" t="s">
+      <c r="G146" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H146" s="41" t="s">
+      <c r="H146" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="J146" s="39"/>
+      <c r="J146" s="35"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A147" s="99"/>
-      <c r="B147" s="73"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="128"/>
+      <c r="A147" s="124"/>
+      <c r="B147" s="96"/>
+      <c r="C147" s="79"/>
+      <c r="D147" s="85"/>
       <c r="E147" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F147" s="14" t="s">
+      <c r="F147" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G147" s="17" t="s">
+      <c r="G147" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H147" s="41" t="s">
+      <c r="H147" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="J147" s="39"/>
+      <c r="J147" s="35"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A148" s="99"/>
-      <c r="B148" s="73"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="128"/>
-      <c r="E148" s="75" t="s">
+      <c r="A148" s="124"/>
+      <c r="B148" s="96"/>
+      <c r="C148" s="79"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="F148" s="73" t="s">
+      <c r="F148" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="G148" s="17" t="s">
+      <c r="G148" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H148" s="41" t="s">
+      <c r="H148" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="J148" s="39"/>
+      <c r="J148" s="35"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A149" s="99"/>
-      <c r="B149" s="73"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="128"/>
-      <c r="E149" s="75"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="17" t="s">
+      <c r="A149" s="124"/>
+      <c r="B149" s="96"/>
+      <c r="C149" s="79"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="90"/>
+      <c r="F149" s="96"/>
+      <c r="G149" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="H149" s="41" t="s">
+      <c r="H149" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="J149" s="39"/>
+      <c r="J149" s="35"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A150" s="99"/>
-      <c r="B150" s="73"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="128"/>
-      <c r="E150" s="75"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="17" t="s">
+      <c r="A150" s="124"/>
+      <c r="B150" s="96"/>
+      <c r="C150" s="79"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="90"/>
+      <c r="F150" s="96"/>
+      <c r="G150" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="H150" s="41" t="s">
+      <c r="H150" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="J150" s="39"/>
+      <c r="J150" s="35"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A151" s="99"/>
-      <c r="B151" s="73"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="75"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="17" t="s">
+      <c r="A151" s="124"/>
+      <c r="B151" s="96"/>
+      <c r="C151" s="79"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="90"/>
+      <c r="F151" s="96"/>
+      <c r="G151" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="H151" s="41" t="s">
+      <c r="H151" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="J151" s="39"/>
+      <c r="J151" s="35"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A152" s="99"/>
-      <c r="B152" s="73"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="128"/>
+      <c r="A152" s="124"/>
+      <c r="B152" s="96"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="85"/>
       <c r="E152" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F152" s="14" t="s">
+      <c r="F152" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G152" s="17" t="s">
+      <c r="G152" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="H152" s="41" t="s">
+      <c r="H152" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="J152" s="39"/>
+      <c r="J152" s="35"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A153" s="99"/>
-      <c r="B153" s="73"/>
-      <c r="C153" s="70"/>
-      <c r="D153" s="128"/>
+      <c r="A153" s="124"/>
+      <c r="B153" s="96"/>
+      <c r="C153" s="79"/>
+      <c r="D153" s="85"/>
       <c r="E153" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="G153" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="H153" s="41" t="s">
+      <c r="H153" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="J153" s="39"/>
+      <c r="J153" s="35"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A154" s="99"/>
-      <c r="B154" s="73"/>
-      <c r="C154" s="70"/>
-      <c r="D154" s="128"/>
+      <c r="A154" s="124"/>
+      <c r="B154" s="96"/>
+      <c r="C154" s="79"/>
+      <c r="D154" s="85"/>
       <c r="E154" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F154" s="14" t="s">
+      <c r="F154" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="G154" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="H154" s="41" t="s">
+      <c r="H154" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="J154" s="39"/>
+      <c r="J154" s="35"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A155" s="99"/>
-      <c r="B155" s="73"/>
-      <c r="C155" s="70"/>
-      <c r="D155" s="128"/>
-      <c r="E155" s="75" t="s">
+      <c r="A155" s="124"/>
+      <c r="B155" s="96"/>
+      <c r="C155" s="79"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="F155" s="73" t="s">
+      <c r="F155" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="G155" s="17" t="s">
+      <c r="G155" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H155" s="41" t="s">
+      <c r="H155" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="J155" s="39"/>
+      <c r="J155" s="35"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A156" s="99"/>
-      <c r="B156" s="73"/>
-      <c r="C156" s="70"/>
-      <c r="D156" s="128"/>
-      <c r="E156" s="75"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="17" t="s">
+      <c r="A156" s="124"/>
+      <c r="B156" s="96"/>
+      <c r="C156" s="79"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="96"/>
+      <c r="G156" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="H156" s="41" t="s">
+      <c r="H156" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="J156" s="39"/>
+      <c r="J156" s="35"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A157" s="99"/>
-      <c r="B157" s="73"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="128"/>
-      <c r="E157" s="75"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="17" t="s">
+      <c r="A157" s="124"/>
+      <c r="B157" s="96"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="96"/>
+      <c r="G157" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H157" s="41" t="s">
+      <c r="H157" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="J157" s="39"/>
+      <c r="J157" s="35"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A158" s="99"/>
-      <c r="B158" s="73"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="128"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="17" t="s">
+      <c r="A158" s="124"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="H158" s="41" t="s">
+      <c r="H158" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="J158" s="39"/>
+      <c r="J158" s="35"/>
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A159" s="99"/>
-      <c r="B159" s="73"/>
-      <c r="C159" s="70"/>
-      <c r="D159" s="128"/>
-      <c r="E159" s="75"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="17" t="s">
+      <c r="A159" s="124"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="96"/>
+      <c r="G159" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H159" s="41" t="s">
+      <c r="H159" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="J159" s="39"/>
-    </row>
-    <row r="160" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A160" s="99"/>
-      <c r="B160" s="73"/>
-      <c r="C160" s="70"/>
-      <c r="D160" s="128"/>
-      <c r="E160" s="77" t="s">
+      <c r="J159" s="35"/>
+    </row>
+    <row r="160" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A160" s="124"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="79"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F160" s="69" t="s">
+      <c r="F160" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="G160" s="64" t="s">
+      <c r="G160" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="H160" s="41" t="s">
+      <c r="H160" s="37" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A161" s="99"/>
-      <c r="B161" s="73"/>
-      <c r="C161" s="70"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="79"/>
-      <c r="F161" s="71"/>
-      <c r="G161" s="65"/>
-      <c r="H161" s="41" t="s">
+      <c r="A161" s="124"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="79"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="69"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="J161" s="39"/>
+      <c r="J161" s="35"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A162" s="99"/>
-      <c r="B162" s="73"/>
-      <c r="C162" s="70"/>
-      <c r="D162" s="128"/>
+      <c r="A162" s="124"/>
+      <c r="B162" s="96"/>
+      <c r="C162" s="79"/>
+      <c r="D162" s="85"/>
       <c r="E162" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F162" s="14" t="s">
+      <c r="F162" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="G162" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H162" s="41" t="s">
+      <c r="H162" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="J162" s="39"/>
+      <c r="J162" s="35"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A163" s="99"/>
-      <c r="B163" s="73"/>
-      <c r="C163" s="70"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="77" t="s">
+      <c r="A163" s="124"/>
+      <c r="B163" s="96"/>
+      <c r="C163" s="79"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F163" s="69" t="s">
+      <c r="F163" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="G163" s="17" t="s">
+      <c r="G163" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="H163" s="41" t="s">
+      <c r="H163" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="J163" s="39"/>
+      <c r="J163" s="35"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A164" s="99"/>
-      <c r="B164" s="73"/>
-      <c r="C164" s="70"/>
-      <c r="D164" s="128"/>
-      <c r="E164" s="79"/>
-      <c r="F164" s="71"/>
-      <c r="G164" s="17" t="s">
+      <c r="A164" s="124"/>
+      <c r="B164" s="96"/>
+      <c r="C164" s="79"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="67"/>
+      <c r="F164" s="69"/>
+      <c r="G164" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="H164" s="41" t="s">
+      <c r="H164" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="J164" s="39"/>
+      <c r="J164" s="35"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A165" s="99"/>
-      <c r="B165" s="73"/>
-      <c r="C165" s="70"/>
-      <c r="D165" s="128"/>
+      <c r="A165" s="124"/>
+      <c r="B165" s="96"/>
+      <c r="C165" s="79"/>
+      <c r="D165" s="85"/>
       <c r="E165" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F165" s="14" t="s">
+      <c r="F165" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G165" s="17" t="s">
+      <c r="G165" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="H165" s="41" t="s">
+      <c r="H165" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="J165" s="39"/>
+      <c r="J165" s="35"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A166" s="99"/>
-      <c r="B166" s="73"/>
-      <c r="C166" s="70"/>
-      <c r="D166" s="128"/>
-      <c r="E166" s="75" t="s">
+      <c r="A166" s="124"/>
+      <c r="B166" s="96"/>
+      <c r="C166" s="79"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="F166" s="73" t="s">
+      <c r="F166" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="G166" s="17" t="s">
+      <c r="G166" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="H166" s="41" t="s">
+      <c r="H166" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="J166" s="39"/>
-    </row>
-    <row r="167" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A167" s="99"/>
-      <c r="B167" s="73"/>
-      <c r="C167" s="70"/>
-      <c r="D167" s="128"/>
-      <c r="E167" s="75"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="17" t="s">
+      <c r="J166" s="35"/>
+    </row>
+    <row r="167" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A167" s="124"/>
+      <c r="B167" s="96"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="90"/>
+      <c r="F167" s="96"/>
+      <c r="G167" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="H167" s="41" t="s">
+      <c r="H167" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="J167" s="39"/>
+      <c r="J167" s="35"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A168" s="99"/>
-      <c r="B168" s="73"/>
-      <c r="C168" s="70"/>
-      <c r="D168" s="128"/>
-      <c r="E168" s="75"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="17" t="s">
+      <c r="A168" s="124"/>
+      <c r="B168" s="96"/>
+      <c r="C168" s="79"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="90"/>
+      <c r="F168" s="96"/>
+      <c r="G168" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="H168" s="41" t="s">
+      <c r="H168" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="J168" s="39"/>
+      <c r="J168" s="35"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A169" s="99"/>
-      <c r="B169" s="73"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="128"/>
-      <c r="E169" s="75"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="17" t="s">
+      <c r="A169" s="124"/>
+      <c r="B169" s="96"/>
+      <c r="C169" s="79"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="90"/>
+      <c r="F169" s="96"/>
+      <c r="G169" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H169" s="41" t="s">
+      <c r="H169" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="J169" s="39"/>
+      <c r="J169" s="35"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A170" s="99"/>
-      <c r="B170" s="73"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="128"/>
-      <c r="E170" s="75" t="s">
+      <c r="A170" s="124"/>
+      <c r="B170" s="96"/>
+      <c r="C170" s="79"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="F170" s="73" t="s">
+      <c r="F170" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="G170" s="17" t="s">
+      <c r="G170" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H170" s="41" t="s">
+      <c r="H170" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="J170" s="39"/>
+      <c r="J170" s="35"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A171" s="99"/>
-      <c r="B171" s="73"/>
-      <c r="C171" s="70"/>
-      <c r="D171" s="128"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="17" t="s">
+      <c r="A171" s="124"/>
+      <c r="B171" s="96"/>
+      <c r="C171" s="79"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="96"/>
+      <c r="G171" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="H171" s="41" t="s">
+      <c r="H171" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="J171" s="39"/>
+      <c r="J171" s="35"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A172" s="99"/>
-      <c r="B172" s="73"/>
-      <c r="C172" s="70"/>
-      <c r="D172" s="128"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="17" t="s">
+      <c r="A172" s="124"/>
+      <c r="B172" s="96"/>
+      <c r="C172" s="79"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="90"/>
+      <c r="F172" s="96"/>
+      <c r="G172" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="H172" s="41" t="s">
+      <c r="H172" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="J172" s="39"/>
+      <c r="J172" s="35"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A173" s="99"/>
-      <c r="B173" s="73"/>
-      <c r="C173" s="70"/>
-      <c r="D173" s="128"/>
-      <c r="E173" s="75"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="17" t="s">
+      <c r="A173" s="124"/>
+      <c r="B173" s="96"/>
+      <c r="C173" s="79"/>
+      <c r="D173" s="85"/>
+      <c r="E173" s="90"/>
+      <c r="F173" s="96"/>
+      <c r="G173" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="H173" s="41" t="s">
+      <c r="H173" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="J173" s="39"/>
+      <c r="J173" s="35"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A174" s="99"/>
-      <c r="B174" s="73"/>
-      <c r="C174" s="70"/>
-      <c r="D174" s="128"/>
-      <c r="E174" s="75"/>
-      <c r="F174" s="73"/>
-      <c r="G174" s="17" t="s">
+      <c r="A174" s="124"/>
+      <c r="B174" s="96"/>
+      <c r="C174" s="79"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="90"/>
+      <c r="F174" s="96"/>
+      <c r="G174" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="H174" s="41" t="s">
+      <c r="H174" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="J174" s="39"/>
+      <c r="J174" s="35"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A175" s="99"/>
-      <c r="B175" s="73"/>
-      <c r="C175" s="70"/>
-      <c r="D175" s="128"/>
-      <c r="E175" s="75"/>
-      <c r="F175" s="73"/>
-      <c r="G175" s="17" t="s">
+      <c r="A175" s="124"/>
+      <c r="B175" s="96"/>
+      <c r="C175" s="79"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="96"/>
+      <c r="G175" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="H175" s="41" t="s">
+      <c r="H175" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="J175" s="39"/>
+      <c r="J175" s="35"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A176" s="99"/>
-      <c r="B176" s="73"/>
-      <c r="C176" s="70"/>
-      <c r="D176" s="128"/>
-      <c r="E176" s="75"/>
-      <c r="F176" s="73"/>
-      <c r="G176" s="17" t="s">
+      <c r="A176" s="124"/>
+      <c r="B176" s="96"/>
+      <c r="C176" s="79"/>
+      <c r="D176" s="85"/>
+      <c r="E176" s="90"/>
+      <c r="F176" s="96"/>
+      <c r="G176" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H176" s="41" t="s">
+      <c r="H176" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="J176" s="39"/>
+      <c r="J176" s="35"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A177" s="99"/>
-      <c r="B177" s="73"/>
-      <c r="C177" s="70"/>
-      <c r="D177" s="128"/>
-      <c r="E177" s="75"/>
-      <c r="F177" s="73"/>
-      <c r="G177" s="17" t="s">
+      <c r="A177" s="124"/>
+      <c r="B177" s="96"/>
+      <c r="C177" s="79"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="90"/>
+      <c r="F177" s="96"/>
+      <c r="G177" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="H177" s="41" t="s">
+      <c r="H177" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="J177" s="39"/>
+      <c r="J177" s="35"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A178" s="99"/>
-      <c r="B178" s="73"/>
-      <c r="C178" s="70"/>
-      <c r="D178" s="128"/>
-      <c r="E178" s="75" t="s">
+      <c r="A178" s="124"/>
+      <c r="B178" s="96"/>
+      <c r="C178" s="79"/>
+      <c r="D178" s="85"/>
+      <c r="E178" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="F178" s="73" t="s">
+      <c r="F178" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="G178" s="17" t="s">
+      <c r="G178" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="H178" s="41" t="s">
+      <c r="H178" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="J178" s="39"/>
+      <c r="J178" s="35"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A179" s="99"/>
-      <c r="B179" s="73"/>
-      <c r="C179" s="70"/>
-      <c r="D179" s="128"/>
-      <c r="E179" s="75"/>
-      <c r="F179" s="73"/>
-      <c r="G179" s="17" t="s">
+      <c r="A179" s="124"/>
+      <c r="B179" s="96"/>
+      <c r="C179" s="79"/>
+      <c r="D179" s="85"/>
+      <c r="E179" s="90"/>
+      <c r="F179" s="96"/>
+      <c r="G179" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="H179" s="41" t="s">
+      <c r="H179" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="J179" s="39"/>
+      <c r="J179" s="35"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A180" s="99"/>
-      <c r="B180" s="73"/>
-      <c r="C180" s="70"/>
-      <c r="D180" s="128"/>
-      <c r="E180" s="75"/>
-      <c r="F180" s="73"/>
-      <c r="G180" s="17" t="s">
+      <c r="A180" s="124"/>
+      <c r="B180" s="96"/>
+      <c r="C180" s="79"/>
+      <c r="D180" s="85"/>
+      <c r="E180" s="90"/>
+      <c r="F180" s="96"/>
+      <c r="G180" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="H180" s="41" t="s">
+      <c r="H180" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="J180" s="39"/>
+      <c r="J180" s="35"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A181" s="99"/>
-      <c r="B181" s="73"/>
-      <c r="C181" s="70"/>
-      <c r="D181" s="128"/>
-      <c r="E181" s="75"/>
-      <c r="F181" s="73"/>
-      <c r="G181" s="17" t="s">
+      <c r="A181" s="124"/>
+      <c r="B181" s="96"/>
+      <c r="C181" s="79"/>
+      <c r="D181" s="85"/>
+      <c r="E181" s="90"/>
+      <c r="F181" s="96"/>
+      <c r="G181" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H181" s="41" t="s">
+      <c r="H181" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="J181" s="39"/>
+      <c r="J181" s="35"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A182" s="99"/>
-      <c r="B182" s="73"/>
-      <c r="C182" s="70"/>
-      <c r="D182" s="128"/>
-      <c r="E182" s="75" t="s">
+      <c r="A182" s="124"/>
+      <c r="B182" s="96"/>
+      <c r="C182" s="79"/>
+      <c r="D182" s="85"/>
+      <c r="E182" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="F182" s="73" t="s">
+      <c r="F182" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="G182" s="17" t="s">
+      <c r="G182" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="H182" s="41" t="s">
+      <c r="H182" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="J182" s="39"/>
+      <c r="J182" s="35"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A183" s="99"/>
-      <c r="B183" s="73"/>
-      <c r="C183" s="70"/>
-      <c r="D183" s="128"/>
-      <c r="E183" s="75"/>
-      <c r="F183" s="73"/>
-      <c r="G183" s="17" t="s">
+      <c r="A183" s="124"/>
+      <c r="B183" s="96"/>
+      <c r="C183" s="79"/>
+      <c r="D183" s="85"/>
+      <c r="E183" s="90"/>
+      <c r="F183" s="96"/>
+      <c r="G183" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="H183" s="41" t="s">
+      <c r="H183" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="J183" s="39"/>
+      <c r="J183" s="35"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A184" s="99"/>
-      <c r="B184" s="73"/>
-      <c r="C184" s="70"/>
-      <c r="D184" s="128"/>
-      <c r="E184" s="75"/>
-      <c r="F184" s="73"/>
-      <c r="G184" s="17" t="s">
+      <c r="A184" s="124"/>
+      <c r="B184" s="96"/>
+      <c r="C184" s="79"/>
+      <c r="D184" s="85"/>
+      <c r="E184" s="90"/>
+      <c r="F184" s="96"/>
+      <c r="G184" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="H184" s="41" t="s">
+      <c r="H184" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="J184" s="39"/>
+      <c r="J184" s="35"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A185" s="99"/>
-      <c r="B185" s="73"/>
-      <c r="C185" s="70"/>
-      <c r="D185" s="128"/>
-      <c r="E185" s="75"/>
-      <c r="F185" s="73"/>
-      <c r="G185" s="17" t="s">
+      <c r="A185" s="124"/>
+      <c r="B185" s="96"/>
+      <c r="C185" s="79"/>
+      <c r="D185" s="85"/>
+      <c r="E185" s="90"/>
+      <c r="F185" s="96"/>
+      <c r="G185" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="H185" s="41" t="s">
+      <c r="H185" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="J185" s="39"/>
+      <c r="J185" s="35"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A186" s="99"/>
-      <c r="B186" s="73"/>
-      <c r="C186" s="70"/>
-      <c r="D186" s="128"/>
-      <c r="E186" s="75"/>
-      <c r="F186" s="73"/>
-      <c r="G186" s="17" t="s">
+      <c r="A186" s="124"/>
+      <c r="B186" s="96"/>
+      <c r="C186" s="79"/>
+      <c r="D186" s="85"/>
+      <c r="E186" s="90"/>
+      <c r="F186" s="96"/>
+      <c r="G186" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="H186" s="41" t="s">
+      <c r="H186" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="J186" s="39"/>
+      <c r="J186" s="35"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A187" s="99"/>
-      <c r="B187" s="73"/>
-      <c r="C187" s="70"/>
-      <c r="D187" s="128"/>
-      <c r="E187" s="75"/>
-      <c r="F187" s="73"/>
-      <c r="G187" s="17" t="s">
+      <c r="A187" s="124"/>
+      <c r="B187" s="96"/>
+      <c r="C187" s="79"/>
+      <c r="D187" s="85"/>
+      <c r="E187" s="90"/>
+      <c r="F187" s="96"/>
+      <c r="G187" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="H187" s="41" t="s">
+      <c r="H187" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="J187" s="39"/>
+      <c r="J187" s="35"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A188" s="99"/>
-      <c r="B188" s="73"/>
-      <c r="C188" s="70"/>
-      <c r="D188" s="128"/>
-      <c r="E188" s="75"/>
-      <c r="F188" s="73"/>
-      <c r="G188" s="17" t="s">
+      <c r="A188" s="124"/>
+      <c r="B188" s="96"/>
+      <c r="C188" s="79"/>
+      <c r="D188" s="85"/>
+      <c r="E188" s="90"/>
+      <c r="F188" s="96"/>
+      <c r="G188" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="H188" s="41" t="s">
+      <c r="H188" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="J188" s="39"/>
+      <c r="J188" s="35"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A189" s="99"/>
-      <c r="B189" s="73"/>
-      <c r="C189" s="70"/>
-      <c r="D189" s="128"/>
-      <c r="E189" s="75"/>
-      <c r="F189" s="73"/>
-      <c r="G189" s="17" t="s">
+      <c r="A189" s="124"/>
+      <c r="B189" s="96"/>
+      <c r="C189" s="79"/>
+      <c r="D189" s="85"/>
+      <c r="E189" s="90"/>
+      <c r="F189" s="96"/>
+      <c r="G189" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="H189" s="41" t="s">
+      <c r="H189" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="J189" s="39"/>
+      <c r="J189" s="35"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A190" s="99"/>
-      <c r="B190" s="73"/>
-      <c r="C190" s="70"/>
-      <c r="D190" s="128"/>
-      <c r="E190" s="75"/>
-      <c r="F190" s="73"/>
-      <c r="G190" s="17" t="s">
+      <c r="A190" s="124"/>
+      <c r="B190" s="96"/>
+      <c r="C190" s="79"/>
+      <c r="D190" s="85"/>
+      <c r="E190" s="90"/>
+      <c r="F190" s="96"/>
+      <c r="G190" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="H190" s="41" t="s">
+      <c r="H190" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="J190" s="39"/>
+      <c r="J190" s="35"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A191" s="99"/>
-      <c r="B191" s="73"/>
-      <c r="C191" s="70"/>
-      <c r="D191" s="128"/>
-      <c r="E191" s="75"/>
-      <c r="F191" s="73"/>
-      <c r="G191" s="17" t="s">
+      <c r="A191" s="124"/>
+      <c r="B191" s="96"/>
+      <c r="C191" s="79"/>
+      <c r="D191" s="85"/>
+      <c r="E191" s="90"/>
+      <c r="F191" s="96"/>
+      <c r="G191" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="H191" s="41" t="s">
+      <c r="H191" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="J191" s="39"/>
+      <c r="J191" s="35"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A192" s="99"/>
-      <c r="B192" s="73"/>
-      <c r="C192" s="70"/>
-      <c r="D192" s="128"/>
-      <c r="E192" s="75"/>
-      <c r="F192" s="73"/>
-      <c r="G192" s="17" t="s">
+      <c r="A192" s="124"/>
+      <c r="B192" s="96"/>
+      <c r="C192" s="79"/>
+      <c r="D192" s="85"/>
+      <c r="E192" s="90"/>
+      <c r="F192" s="96"/>
+      <c r="G192" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="H192" s="41" t="s">
+      <c r="H192" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="J192" s="39"/>
+      <c r="J192" s="35"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A193" s="99"/>
-      <c r="B193" s="73"/>
-      <c r="C193" s="70"/>
-      <c r="D193" s="128"/>
-      <c r="E193" s="75"/>
-      <c r="F193" s="73"/>
-      <c r="G193" s="17" t="s">
+      <c r="A193" s="124"/>
+      <c r="B193" s="96"/>
+      <c r="C193" s="79"/>
+      <c r="D193" s="85"/>
+      <c r="E193" s="90"/>
+      <c r="F193" s="96"/>
+      <c r="G193" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="H193" s="41" t="s">
+      <c r="H193" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="J193" s="39"/>
+      <c r="J193" s="35"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A194" s="99"/>
-      <c r="B194" s="73"/>
-      <c r="C194" s="70"/>
-      <c r="D194" s="128"/>
-      <c r="E194" s="75"/>
-      <c r="F194" s="73"/>
-      <c r="G194" s="17" t="s">
+      <c r="A194" s="124"/>
+      <c r="B194" s="96"/>
+      <c r="C194" s="79"/>
+      <c r="D194" s="85"/>
+      <c r="E194" s="90"/>
+      <c r="F194" s="96"/>
+      <c r="G194" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="H194" s="41" t="s">
+      <c r="H194" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="J194" s="39"/>
+      <c r="J194" s="35"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A195" s="99"/>
-      <c r="B195" s="73"/>
-      <c r="C195" s="70"/>
-      <c r="D195" s="128"/>
-      <c r="E195" s="75"/>
-      <c r="F195" s="73"/>
-      <c r="G195" s="17" t="s">
+      <c r="A195" s="124"/>
+      <c r="B195" s="96"/>
+      <c r="C195" s="79"/>
+      <c r="D195" s="85"/>
+      <c r="E195" s="90"/>
+      <c r="F195" s="96"/>
+      <c r="G195" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="H195" s="41" t="s">
+      <c r="H195" s="37" t="s">
         <v>533</v>
       </c>
-      <c r="J195" s="39"/>
+      <c r="J195" s="35"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A196" s="99"/>
-      <c r="B196" s="73"/>
-      <c r="C196" s="70"/>
-      <c r="D196" s="128"/>
-      <c r="E196" s="75"/>
-      <c r="F196" s="73"/>
-      <c r="G196" s="17" t="s">
+      <c r="A196" s="124"/>
+      <c r="B196" s="96"/>
+      <c r="C196" s="79"/>
+      <c r="D196" s="85"/>
+      <c r="E196" s="90"/>
+      <c r="F196" s="96"/>
+      <c r="G196" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H196" s="41" t="s">
+      <c r="H196" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="J196" s="39"/>
+      <c r="J196" s="35"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A197" s="99"/>
-      <c r="B197" s="73"/>
-      <c r="C197" s="70"/>
-      <c r="D197" s="128"/>
-      <c r="E197" s="75"/>
-      <c r="F197" s="73"/>
-      <c r="G197" s="17" t="s">
+      <c r="A197" s="124"/>
+      <c r="B197" s="96"/>
+      <c r="C197" s="79"/>
+      <c r="D197" s="85"/>
+      <c r="E197" s="90"/>
+      <c r="F197" s="96"/>
+      <c r="G197" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="H197" s="41" t="s">
+      <c r="H197" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="J197" s="39"/>
+      <c r="J197" s="35"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A198" s="99"/>
-      <c r="B198" s="73"/>
-      <c r="C198" s="70"/>
-      <c r="D198" s="128"/>
-      <c r="E198" s="75"/>
-      <c r="F198" s="73"/>
-      <c r="G198" s="17" t="s">
+      <c r="A198" s="124"/>
+      <c r="B198" s="96"/>
+      <c r="C198" s="79"/>
+      <c r="D198" s="85"/>
+      <c r="E198" s="90"/>
+      <c r="F198" s="96"/>
+      <c r="G198" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="H198" s="41" t="s">
+      <c r="H198" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="J198" s="39"/>
+      <c r="J198" s="35"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A199" s="99"/>
-      <c r="B199" s="73"/>
-      <c r="C199" s="70"/>
-      <c r="D199" s="128"/>
-      <c r="E199" s="75"/>
-      <c r="F199" s="73"/>
-      <c r="G199" s="17" t="s">
+      <c r="A199" s="124"/>
+      <c r="B199" s="96"/>
+      <c r="C199" s="79"/>
+      <c r="D199" s="85"/>
+      <c r="E199" s="90"/>
+      <c r="F199" s="96"/>
+      <c r="G199" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="H199" s="41" t="s">
+      <c r="H199" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="J199" s="39"/>
+      <c r="J199" s="35"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A200" s="99"/>
-      <c r="B200" s="73"/>
-      <c r="C200" s="70"/>
-      <c r="D200" s="128"/>
-      <c r="E200" s="75"/>
-      <c r="F200" s="73"/>
-      <c r="G200" s="17" t="s">
+      <c r="A200" s="124"/>
+      <c r="B200" s="96"/>
+      <c r="C200" s="79"/>
+      <c r="D200" s="85"/>
+      <c r="E200" s="90"/>
+      <c r="F200" s="96"/>
+      <c r="G200" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="H200" s="41" t="s">
+      <c r="H200" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="J200" s="39"/>
+      <c r="J200" s="35"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A201" s="99"/>
-      <c r="B201" s="73"/>
-      <c r="C201" s="70"/>
-      <c r="D201" s="128"/>
-      <c r="E201" s="75"/>
-      <c r="F201" s="73"/>
-      <c r="G201" s="17" t="s">
+      <c r="A201" s="124"/>
+      <c r="B201" s="96"/>
+      <c r="C201" s="79"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="90"/>
+      <c r="F201" s="96"/>
+      <c r="G201" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="H201" s="41" t="s">
+      <c r="H201" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="J201" s="39"/>
+      <c r="J201" s="35"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A202" s="99"/>
-      <c r="B202" s="73"/>
-      <c r="C202" s="70"/>
-      <c r="D202" s="128"/>
-      <c r="E202" s="75"/>
-      <c r="F202" s="73"/>
-      <c r="G202" s="17" t="s">
+      <c r="A202" s="124"/>
+      <c r="B202" s="96"/>
+      <c r="C202" s="79"/>
+      <c r="D202" s="85"/>
+      <c r="E202" s="90"/>
+      <c r="F202" s="96"/>
+      <c r="G202" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="H202" s="41" t="s">
+      <c r="H202" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="J202" s="39"/>
+      <c r="J202" s="35"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A203" s="99"/>
-      <c r="B203" s="73"/>
-      <c r="C203" s="70"/>
-      <c r="D203" s="128"/>
-      <c r="E203" s="75"/>
-      <c r="F203" s="73"/>
-      <c r="G203" s="17" t="s">
+      <c r="A203" s="124"/>
+      <c r="B203" s="96"/>
+      <c r="C203" s="79"/>
+      <c r="D203" s="85"/>
+      <c r="E203" s="90"/>
+      <c r="F203" s="96"/>
+      <c r="G203" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="H203" s="41" t="s">
+      <c r="H203" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="J203" s="39"/>
+      <c r="J203" s="35"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A204" s="99"/>
-      <c r="B204" s="73"/>
-      <c r="C204" s="70"/>
-      <c r="D204" s="128"/>
-      <c r="E204" s="75"/>
-      <c r="F204" s="73"/>
-      <c r="G204" s="17" t="s">
+      <c r="A204" s="124"/>
+      <c r="B204" s="96"/>
+      <c r="C204" s="79"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="90"/>
+      <c r="F204" s="96"/>
+      <c r="G204" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="H204" s="41" t="s">
+      <c r="H204" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="J204" s="39"/>
+      <c r="J204" s="35"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A205" s="99"/>
-      <c r="B205" s="73"/>
-      <c r="C205" s="70"/>
-      <c r="D205" s="128"/>
-      <c r="E205" s="75"/>
-      <c r="F205" s="73"/>
-      <c r="G205" s="17" t="s">
+      <c r="A205" s="124"/>
+      <c r="B205" s="96"/>
+      <c r="C205" s="79"/>
+      <c r="D205" s="85"/>
+      <c r="E205" s="90"/>
+      <c r="F205" s="96"/>
+      <c r="G205" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="H205" s="41" t="s">
+      <c r="H205" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="J205" s="39"/>
+      <c r="J205" s="35"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A206" s="99"/>
-      <c r="B206" s="73"/>
-      <c r="C206" s="70"/>
-      <c r="D206" s="128"/>
-      <c r="E206" s="75"/>
-      <c r="F206" s="73"/>
-      <c r="G206" s="17" t="s">
+      <c r="A206" s="124"/>
+      <c r="B206" s="96"/>
+      <c r="C206" s="79"/>
+      <c r="D206" s="85"/>
+      <c r="E206" s="90"/>
+      <c r="F206" s="96"/>
+      <c r="G206" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="H206" s="41" t="s">
+      <c r="H206" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="J206" s="39"/>
+      <c r="J206" s="35"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A207" s="99"/>
-      <c r="B207" s="73"/>
-      <c r="C207" s="70"/>
-      <c r="D207" s="128"/>
+      <c r="A207" s="124"/>
+      <c r="B207" s="96"/>
+      <c r="C207" s="79"/>
+      <c r="D207" s="85"/>
       <c r="E207" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F207" s="14" t="s">
+      <c r="F207" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G207" s="17" t="s">
+      <c r="G207" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="H207" s="41" t="s">
+      <c r="H207" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="J207" s="39"/>
+      <c r="J207" s="35"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A208" s="99"/>
-      <c r="B208" s="73"/>
-      <c r="C208" s="70"/>
-      <c r="D208" s="128"/>
+      <c r="A208" s="124"/>
+      <c r="B208" s="96"/>
+      <c r="C208" s="79"/>
+      <c r="D208" s="85"/>
       <c r="E208" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F208" s="14" t="s">
+      <c r="F208" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G208" s="17" t="s">
+      <c r="G208" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="H208" s="41" t="s">
+      <c r="H208" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="J208" s="39"/>
+      <c r="J208" s="35"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A209" s="99"/>
-      <c r="B209" s="73"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="128"/>
+      <c r="A209" s="124"/>
+      <c r="B209" s="96"/>
+      <c r="C209" s="79"/>
+      <c r="D209" s="85"/>
       <c r="E209" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F209" s="14" t="s">
+      <c r="F209" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G209" s="17" t="s">
+      <c r="G209" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H209" s="41" t="s">
+      <c r="H209" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="J209" s="39"/>
+      <c r="J209" s="35"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A210" s="99"/>
-      <c r="B210" s="73"/>
-      <c r="C210" s="70"/>
-      <c r="D210" s="128"/>
+      <c r="A210" s="124"/>
+      <c r="B210" s="96"/>
+      <c r="C210" s="79"/>
+      <c r="D210" s="85"/>
       <c r="E210" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F210" s="14" t="s">
+      <c r="F210" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G210" s="17" t="s">
+      <c r="G210" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="H210" s="41" t="s">
+      <c r="H210" s="37" t="s">
         <v>454</v>
       </c>
-      <c r="J210" s="39"/>
+      <c r="J210" s="35"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A211" s="99"/>
-      <c r="B211" s="73"/>
-      <c r="C211" s="70"/>
-      <c r="D211" s="128"/>
-      <c r="E211" s="75" t="s">
+      <c r="A211" s="124"/>
+      <c r="B211" s="96"/>
+      <c r="C211" s="79"/>
+      <c r="D211" s="85"/>
+      <c r="E211" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="F211" s="73" t="s">
+      <c r="F211" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="G211" s="17" t="s">
+      <c r="G211" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="H211" s="41" t="s">
+      <c r="H211" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="J211" s="39"/>
+      <c r="J211" s="35"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A212" s="99"/>
-      <c r="B212" s="73"/>
-      <c r="C212" s="70"/>
-      <c r="D212" s="128"/>
-      <c r="E212" s="75"/>
-      <c r="F212" s="73"/>
-      <c r="G212" s="17" t="s">
+      <c r="A212" s="124"/>
+      <c r="B212" s="96"/>
+      <c r="C212" s="79"/>
+      <c r="D212" s="85"/>
+      <c r="E212" s="90"/>
+      <c r="F212" s="96"/>
+      <c r="G212" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="H212" s="41" t="s">
+      <c r="H212" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="J212" s="39"/>
-    </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A213" s="103"/>
-      <c r="B213" s="69"/>
-      <c r="C213" s="115"/>
-      <c r="D213" s="129"/>
-      <c r="E213" s="77"/>
-      <c r="F213" s="69"/>
-      <c r="G213" s="46" t="s">
+      <c r="J212" s="35"/>
+    </row>
+    <row r="213" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A213" s="127"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="80"/>
+      <c r="D213" s="86"/>
+      <c r="E213" s="66"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="H213" s="42" t="s">
+      <c r="H213" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="J213" s="39"/>
+      <c r="J213" s="35"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A214" s="97" t="s">
+      <c r="A214" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="B214" s="116" t="s">
+      <c r="B214" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C214" s="116" t="s">
+      <c r="C214" s="72" t="s">
         <v>490</v>
       </c>
-      <c r="D214" s="116" t="s">
+      <c r="D214" s="72" t="s">
         <v>496</v>
       </c>
-      <c r="E214" s="22" t="s">
+      <c r="E214" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="F214" s="11" t="s">
+      <c r="F214" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="G214" s="18" t="s">
+      <c r="G214" s="135" t="s">
         <v>341</v>
       </c>
-      <c r="H214" s="130"/>
-      <c r="J214" s="39"/>
-    </row>
-    <row r="215" spans="1:10" s="34" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A215" s="98"/>
-      <c r="B215" s="117"/>
-      <c r="C215" s="117"/>
-      <c r="D215" s="117"/>
-      <c r="E215" s="77" t="s">
+      <c r="H214" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="J214" s="35"/>
+    </row>
+    <row r="215" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A215" s="150"/>
+      <c r="B215" s="73"/>
+      <c r="C215" s="73"/>
+      <c r="D215" s="73"/>
+      <c r="E215" s="137"/>
+      <c r="F215" s="138"/>
+      <c r="G215" s="71"/>
+      <c r="H215" s="38" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A216" s="150"/>
+      <c r="B216" s="73"/>
+      <c r="C216" s="73"/>
+      <c r="D216" s="73"/>
+      <c r="E216" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="F215" s="69" t="s">
+      <c r="F216" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="G215" s="64" t="s">
+      <c r="G216" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="H215" s="131"/>
-      <c r="J215" s="39"/>
-    </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A216" s="99"/>
-      <c r="B216" s="117"/>
-      <c r="C216" s="117"/>
-      <c r="D216" s="117"/>
-      <c r="E216" s="78"/>
-      <c r="F216" s="70"/>
-      <c r="G216" s="65"/>
-      <c r="H216" s="131"/>
-      <c r="J216" s="39"/>
-    </row>
-    <row r="217" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A217" s="99"/>
-      <c r="B217" s="117"/>
-      <c r="C217" s="117"/>
-      <c r="D217" s="117"/>
-      <c r="E217" s="78"/>
-      <c r="F217" s="70"/>
-      <c r="G217" s="138" t="s">
+      <c r="H216" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="J216" s="35"/>
+    </row>
+    <row r="217" spans="1:10" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A217" s="150"/>
+      <c r="B217" s="73"/>
+      <c r="C217" s="73"/>
+      <c r="D217" s="73"/>
+      <c r="E217" s="141"/>
+      <c r="F217" s="85"/>
+      <c r="G217" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="H217" s="131"/>
-    </row>
-    <row r="218" spans="1:10" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A218" s="99"/>
-      <c r="B218" s="117"/>
-      <c r="C218" s="117"/>
-      <c r="D218" s="117"/>
-      <c r="E218" s="78"/>
-      <c r="F218" s="70"/>
-      <c r="G218" s="137" t="s">
+      <c r="H217" s="38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A218" s="150"/>
+      <c r="B218" s="73"/>
+      <c r="C218" s="73"/>
+      <c r="D218" s="73"/>
+      <c r="E218" s="141"/>
+      <c r="F218" s="85"/>
+      <c r="G218" s="71"/>
+      <c r="H218" s="38" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A219" s="150"/>
+      <c r="B219" s="73"/>
+      <c r="C219" s="73"/>
+      <c r="D219" s="73"/>
+      <c r="E219" s="141"/>
+      <c r="F219" s="85"/>
+      <c r="G219" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="H218" s="131"/>
-    </row>
-    <row r="219" spans="1:10" s="37" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A219" s="99"/>
-      <c r="B219" s="117"/>
-      <c r="C219" s="117"/>
-      <c r="D219" s="117"/>
-      <c r="E219" s="78"/>
-      <c r="F219" s="70"/>
-      <c r="G219" s="64" t="s">
+      <c r="H219" s="38" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="33" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A220" s="150"/>
+      <c r="B220" s="73"/>
+      <c r="C220" s="73"/>
+      <c r="D220" s="73"/>
+      <c r="E220" s="141"/>
+      <c r="F220" s="85"/>
+      <c r="G220" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="H219" s="131"/>
-      <c r="J219" s="39"/>
-    </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A220" s="99"/>
-      <c r="B220" s="117"/>
-      <c r="C220" s="117"/>
-      <c r="D220" s="117"/>
-      <c r="E220" s="79"/>
-      <c r="F220" s="71"/>
-      <c r="G220" s="65"/>
-      <c r="H220" s="131"/>
-      <c r="J220" s="39"/>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A221" s="99"/>
-      <c r="B221" s="117"/>
-      <c r="C221" s="117"/>
-      <c r="D221" s="117"/>
-      <c r="E221" s="10" t="s">
+      <c r="H220" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="J220" s="35"/>
+    </row>
+    <row r="221" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A221" s="150"/>
+      <c r="B221" s="73"/>
+      <c r="C221" s="73"/>
+      <c r="D221" s="73"/>
+      <c r="E221" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="F221" s="14" t="s">
+      <c r="F221" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="G221" s="17" t="s">
+      <c r="G221" s="70" t="s">
         <v>344</v>
       </c>
-      <c r="H221" s="131"/>
-      <c r="J221" s="39"/>
+      <c r="H221" s="38" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A222" s="99"/>
-      <c r="B222" s="117"/>
-      <c r="C222" s="117"/>
-      <c r="D222" s="117"/>
-      <c r="E222" s="10" t="s">
+      <c r="A222" s="150"/>
+      <c r="B222" s="73"/>
+      <c r="C222" s="73"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="138"/>
+      <c r="G222" s="71"/>
+      <c r="H222" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="J222" s="35"/>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A223" s="150"/>
+      <c r="B223" s="73"/>
+      <c r="C223" s="73"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="F222" s="14" t="s">
+      <c r="F223" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="G222" s="17" t="s">
+      <c r="G223" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="H222" s="131"/>
-      <c r="J222" s="39"/>
-    </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A223" s="99"/>
-      <c r="B223" s="117"/>
-      <c r="C223" s="117"/>
-      <c r="D223" s="117"/>
-      <c r="E223" s="54" t="s">
+      <c r="H223" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="J223" s="35"/>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A224" s="150"/>
+      <c r="B224" s="73"/>
+      <c r="C224" s="73"/>
+      <c r="D224" s="73"/>
+      <c r="E224" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="F223" s="50" t="s">
+      <c r="F224" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="G223" s="17" t="s">
+      <c r="G224" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="H223" s="131"/>
-      <c r="J223" s="39"/>
-    </row>
-    <row r="224" spans="1:10" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A224" s="99"/>
-      <c r="B224" s="117"/>
-      <c r="C224" s="117"/>
-      <c r="D224" s="117"/>
-      <c r="E224" s="77" t="s">
+      <c r="H224" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="J224" s="35"/>
+    </row>
+    <row r="225" spans="1:11" s="34" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A225" s="150"/>
+      <c r="B225" s="73"/>
+      <c r="C225" s="73"/>
+      <c r="D225" s="73"/>
+      <c r="E225" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="F224" s="69" t="s">
+      <c r="F225" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="G224" s="109" t="s">
+      <c r="G225" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="H224" s="131"/>
-      <c r="J224" s="39"/>
-    </row>
-    <row r="225" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A225" s="99"/>
-      <c r="B225" s="117"/>
-      <c r="C225" s="117"/>
-      <c r="D225" s="117"/>
-      <c r="E225" s="79"/>
-      <c r="F225" s="71"/>
-      <c r="G225" s="110"/>
-      <c r="H225" s="131"/>
-      <c r="J225" s="39"/>
-    </row>
-    <row r="226" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A226" s="100"/>
-      <c r="B226" s="117"/>
-      <c r="C226" s="117"/>
-      <c r="D226" s="117"/>
-      <c r="E226" s="51" t="s">
+      <c r="H225" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="J225" s="35"/>
+    </row>
+    <row r="226" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A226" s="150"/>
+      <c r="B226" s="73"/>
+      <c r="C226" s="73"/>
+      <c r="D226" s="73"/>
+      <c r="E226" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="F226" s="55" t="s">
+      <c r="F226" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G226" s="17" t="s">
+      <c r="G226" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="H226" s="62"/>
-      <c r="J226" s="39"/>
-    </row>
-    <row r="227" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A227" s="134"/>
-      <c r="B227" s="118"/>
-      <c r="C227" s="118"/>
-      <c r="D227" s="118"/>
-      <c r="E227" s="135" t="s">
+      <c r="H226" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="J226" s="35"/>
+    </row>
+    <row r="227" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A227" s="150"/>
+      <c r="B227" s="73"/>
+      <c r="C227" s="73"/>
+      <c r="D227" s="73"/>
+      <c r="E227" s="139" t="s">
         <v>553</v>
       </c>
-      <c r="F227" s="61" t="s">
+      <c r="F227" s="140" t="s">
         <v>554</v>
       </c>
-      <c r="G227" s="132" t="s">
+      <c r="G227" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="H227" s="136"/>
-    </row>
-    <row r="228" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A228" s="87" t="s">
+      <c r="H227" s="24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A228" s="150"/>
+      <c r="B228" s="73"/>
+      <c r="C228" s="73"/>
+      <c r="D228" s="73"/>
+      <c r="E228" s="141"/>
+      <c r="F228" s="85"/>
+      <c r="G228" s="94"/>
+      <c r="H228" s="24" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A229" s="150"/>
+      <c r="B229" s="73"/>
+      <c r="C229" s="73"/>
+      <c r="D229" s="73"/>
+      <c r="E229" s="141"/>
+      <c r="F229" s="85"/>
+      <c r="G229" s="94"/>
+      <c r="H229" s="24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A230" s="150"/>
+      <c r="B230" s="73"/>
+      <c r="C230" s="73"/>
+      <c r="D230" s="73"/>
+      <c r="E230" s="141"/>
+      <c r="F230" s="85"/>
+      <c r="G230" s="94"/>
+      <c r="H230" s="24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A231" s="150"/>
+      <c r="B231" s="73"/>
+      <c r="C231" s="73"/>
+      <c r="D231" s="73"/>
+      <c r="E231" s="141"/>
+      <c r="F231" s="85"/>
+      <c r="G231" s="94"/>
+      <c r="H231" s="24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A232" s="151"/>
+      <c r="B232" s="74"/>
+      <c r="C232" s="74"/>
+      <c r="D232" s="74"/>
+      <c r="E232" s="147"/>
+      <c r="F232" s="86"/>
+      <c r="G232" s="148"/>
+      <c r="H232" s="32" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A233" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="B228" s="101" t="s">
+      <c r="B233" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C228" s="112" t="s">
+      <c r="C233" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D228" s="112" t="s">
+      <c r="D233" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="E228" s="24" t="s">
+      <c r="E233" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="F228" s="11" t="s">
+      <c r="F233" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="G228" s="12" t="s">
+      <c r="G233" s="154" t="s">
         <v>350</v>
       </c>
-      <c r="H228" s="44" t="s">
+      <c r="H233" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="J228" s="39"/>
-      <c r="K228" s="39"/>
-    </row>
-    <row r="229" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A229" s="102"/>
-      <c r="B229" s="66"/>
-      <c r="C229" s="113"/>
-      <c r="D229" s="113"/>
-      <c r="E229" s="21" t="s">
+      <c r="J233" s="35"/>
+      <c r="K233" s="35"/>
+    </row>
+    <row r="234" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A234" s="126"/>
+      <c r="B234" s="125"/>
+      <c r="C234" s="77"/>
+      <c r="D234" s="77"/>
+      <c r="E234" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F229" s="15" t="s">
+      <c r="F234" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G229" s="13" t="s">
+      <c r="G234" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="H229" s="45" t="s">
+      <c r="H234" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="J229" s="39"/>
-      <c r="K229" s="39"/>
-    </row>
-    <row r="230" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A230" s="87" t="s">
+      <c r="J234" s="35"/>
+      <c r="K234" s="35"/>
+    </row>
+    <row r="235" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A235" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="B230" s="141" t="s">
+      <c r="B235" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="C230" s="145" t="s">
+      <c r="C235" s="81" t="s">
         <v>487</v>
       </c>
-      <c r="D230" s="116" t="s">
+      <c r="D235" s="72" t="s">
         <v>497</v>
       </c>
-      <c r="E230" s="82" t="s">
+      <c r="E235" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F230" s="59" t="s">
+      <c r="F235" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G230" s="12" t="s">
+      <c r="G235" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="H230" s="26" t="s">
+      <c r="H235" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="J230" s="39"/>
-      <c r="K230" s="39"/>
-    </row>
-    <row r="231" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A231" s="88"/>
-      <c r="B231" s="142"/>
-      <c r="C231" s="146"/>
-      <c r="D231" s="117"/>
-      <c r="E231" s="83"/>
-      <c r="F231" s="52" t="s">
+      <c r="J235" s="35"/>
+      <c r="K235" s="35"/>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A236" s="108"/>
+      <c r="B236" s="129"/>
+      <c r="C236" s="82"/>
+      <c r="D236" s="73"/>
+      <c r="E236" s="111"/>
+      <c r="F236" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G231" s="17" t="s">
+      <c r="G236" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="H231" s="28" t="s">
+      <c r="H236" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="J231" s="39"/>
-      <c r="K231" s="39"/>
-    </row>
-    <row r="232" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A232" s="88"/>
-      <c r="B232" s="142"/>
-      <c r="C232" s="146"/>
-      <c r="D232" s="117"/>
-      <c r="E232" s="83"/>
-      <c r="F232" s="52" t="s">
+      <c r="J236" s="35"/>
+      <c r="K236" s="35"/>
+    </row>
+    <row r="237" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A237" s="108"/>
+      <c r="B237" s="129"/>
+      <c r="C237" s="82"/>
+      <c r="D237" s="73"/>
+      <c r="E237" s="111"/>
+      <c r="F237" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G232" s="17" t="s">
+      <c r="G237" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="H232" s="28" t="s">
+      <c r="H237" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="J232" s="39"/>
-      <c r="K232" s="39"/>
-    </row>
-    <row r="233" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A233" s="88"/>
-      <c r="B233" s="142"/>
-      <c r="C233" s="146"/>
-      <c r="D233" s="117"/>
-      <c r="E233" s="83"/>
-      <c r="F233" s="52" t="s">
+      <c r="J237" s="35"/>
+      <c r="K237" s="35"/>
+    </row>
+    <row r="238" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A238" s="108"/>
+      <c r="B238" s="129"/>
+      <c r="C238" s="82"/>
+      <c r="D238" s="73"/>
+      <c r="E238" s="111"/>
+      <c r="F238" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G233" s="17" t="s">
+      <c r="G238" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="H233" s="28" t="s">
+      <c r="H238" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="J233" s="39"/>
-      <c r="K233" s="39"/>
-    </row>
-    <row r="234" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A234" s="88"/>
-      <c r="B234" s="142"/>
-      <c r="C234" s="146"/>
-      <c r="D234" s="117"/>
-      <c r="E234" s="75" t="s">
+      <c r="J238" s="35"/>
+      <c r="K238" s="35"/>
+    </row>
+    <row r="239" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A239" s="108"/>
+      <c r="B239" s="129"/>
+      <c r="C239" s="82"/>
+      <c r="D239" s="73"/>
+      <c r="E239" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="F234" s="85" t="s">
+      <c r="F239" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="G234" s="111" t="s">
+      <c r="G239" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="H234" s="28" t="s">
+      <c r="H239" s="24" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="235" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A235" s="88"/>
-      <c r="B235" s="142"/>
-      <c r="C235" s="146"/>
-      <c r="D235" s="117"/>
-      <c r="E235" s="75"/>
-      <c r="F235" s="85"/>
-      <c r="G235" s="111"/>
-      <c r="H235" s="28" t="s">
+    <row r="240" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A240" s="108"/>
+      <c r="B240" s="129"/>
+      <c r="C240" s="82"/>
+      <c r="D240" s="73"/>
+      <c r="E240" s="90"/>
+      <c r="F240" s="91"/>
+      <c r="G240" s="87"/>
+      <c r="H240" s="24" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A236" s="88"/>
-      <c r="B236" s="142"/>
-      <c r="C236" s="146"/>
-      <c r="D236" s="117"/>
-      <c r="E236" s="75"/>
-      <c r="F236" s="85"/>
-      <c r="G236" s="35" t="s">
+    <row r="241" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A241" s="108"/>
+      <c r="B241" s="129"/>
+      <c r="C241" s="82"/>
+      <c r="D241" s="73"/>
+      <c r="E241" s="90"/>
+      <c r="F241" s="91"/>
+      <c r="G241" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="H236" s="28" t="s">
+      <c r="H241" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="J236" s="39"/>
-      <c r="K236" s="39"/>
-    </row>
-    <row r="237" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A237" s="88"/>
-      <c r="B237" s="142"/>
-      <c r="C237" s="146"/>
-      <c r="D237" s="117"/>
-      <c r="E237" s="75" t="s">
+      <c r="J241" s="35"/>
+      <c r="K241" s="35"/>
+    </row>
+    <row r="242" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A242" s="108"/>
+      <c r="B242" s="129"/>
+      <c r="C242" s="82"/>
+      <c r="D242" s="73"/>
+      <c r="E242" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F237" s="85" t="s">
+      <c r="F242" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="G237" s="111" t="s">
+      <c r="G242" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="H237" s="28" t="s">
+      <c r="H242" s="24" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A238" s="88"/>
-      <c r="B238" s="142"/>
-      <c r="C238" s="146"/>
-      <c r="D238" s="117"/>
-      <c r="E238" s="75"/>
-      <c r="F238" s="85"/>
-      <c r="G238" s="111"/>
-      <c r="H238" s="28" t="s">
+    <row r="243" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A243" s="108"/>
+      <c r="B243" s="129"/>
+      <c r="C243" s="82"/>
+      <c r="D243" s="73"/>
+      <c r="E243" s="90"/>
+      <c r="F243" s="91"/>
+      <c r="G243" s="87"/>
+      <c r="H243" s="24" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A239" s="88"/>
-      <c r="B239" s="142"/>
-      <c r="C239" s="146"/>
-      <c r="D239" s="117"/>
-      <c r="E239" s="75"/>
-      <c r="F239" s="85"/>
-      <c r="G239" s="111"/>
-      <c r="H239" s="28" t="s">
+    <row r="244" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A244" s="108"/>
+      <c r="B244" s="129"/>
+      <c r="C244" s="82"/>
+      <c r="D244" s="73"/>
+      <c r="E244" s="90"/>
+      <c r="F244" s="91"/>
+      <c r="G244" s="87"/>
+      <c r="H244" s="24" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A240" s="88"/>
-      <c r="B240" s="142"/>
-      <c r="C240" s="146"/>
-      <c r="D240" s="117"/>
-      <c r="E240" s="75"/>
-      <c r="F240" s="85"/>
-      <c r="G240" s="111"/>
-      <c r="H240" s="28" t="s">
+    <row r="245" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A245" s="108"/>
+      <c r="B245" s="129"/>
+      <c r="C245" s="82"/>
+      <c r="D245" s="73"/>
+      <c r="E245" s="90"/>
+      <c r="F245" s="91"/>
+      <c r="G245" s="87"/>
+      <c r="H245" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="J240" s="39"/>
-      <c r="K240" s="39"/>
-    </row>
-    <row r="241" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A241" s="88"/>
-      <c r="B241" s="142"/>
-      <c r="C241" s="146"/>
-      <c r="D241" s="117"/>
-      <c r="E241" s="75" t="s">
+      <c r="J245" s="35"/>
+      <c r="K245" s="35"/>
+    </row>
+    <row r="246" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A246" s="108"/>
+      <c r="B246" s="129"/>
+      <c r="C246" s="82"/>
+      <c r="D246" s="73"/>
+      <c r="E246" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F241" s="85" t="s">
+      <c r="F246" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="G241" s="111" t="s">
+      <c r="G246" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="H241" s="28" t="s">
+      <c r="H246" s="24" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A242" s="88"/>
-      <c r="B242" s="142"/>
-      <c r="C242" s="146"/>
-      <c r="D242" s="117"/>
-      <c r="E242" s="75"/>
-      <c r="F242" s="85"/>
-      <c r="G242" s="111"/>
-      <c r="H242" s="28" t="s">
+    <row r="247" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A247" s="108"/>
+      <c r="B247" s="129"/>
+      <c r="C247" s="82"/>
+      <c r="D247" s="73"/>
+      <c r="E247" s="90"/>
+      <c r="F247" s="91"/>
+      <c r="G247" s="87"/>
+      <c r="H247" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="J242" s="39"/>
-      <c r="K242" s="39"/>
-    </row>
-    <row r="243" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A243" s="88"/>
-      <c r="B243" s="142"/>
-      <c r="C243" s="146"/>
-      <c r="D243" s="117"/>
-      <c r="E243" s="75"/>
-      <c r="F243" s="85"/>
-      <c r="G243" s="111"/>
-      <c r="H243" s="28" t="s">
+      <c r="J247" s="35"/>
+      <c r="K247" s="35"/>
+    </row>
+    <row r="248" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A248" s="108"/>
+      <c r="B248" s="129"/>
+      <c r="C248" s="82"/>
+      <c r="D248" s="73"/>
+      <c r="E248" s="90"/>
+      <c r="F248" s="91"/>
+      <c r="G248" s="87"/>
+      <c r="H248" s="24" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="244" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A244" s="88"/>
-      <c r="B244" s="142"/>
-      <c r="C244" s="146"/>
-      <c r="D244" s="117"/>
-      <c r="E244" s="75"/>
-      <c r="F244" s="85"/>
-      <c r="G244" s="111"/>
-      <c r="H244" s="28" t="s">
+    <row r="249" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A249" s="108"/>
+      <c r="B249" s="129"/>
+      <c r="C249" s="82"/>
+      <c r="D249" s="73"/>
+      <c r="E249" s="90"/>
+      <c r="F249" s="91"/>
+      <c r="G249" s="87"/>
+      <c r="H249" s="24" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A245" s="88"/>
-      <c r="B245" s="142"/>
-      <c r="C245" s="146"/>
-      <c r="D245" s="117"/>
-      <c r="E245" s="75" t="s">
+    <row r="250" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A250" s="108"/>
+      <c r="B250" s="129"/>
+      <c r="C250" s="82"/>
+      <c r="D250" s="73"/>
+      <c r="E250" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="F245" s="85" t="s">
+      <c r="F250" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="G245" s="35" t="s">
+      <c r="G250" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="H245" s="28" t="s">
+      <c r="H250" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="J245" s="39"/>
-      <c r="K245" s="39"/>
-    </row>
-    <row r="246" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A246" s="88"/>
-      <c r="B246" s="142"/>
-      <c r="C246" s="146"/>
-      <c r="D246" s="117"/>
-      <c r="E246" s="75"/>
-      <c r="F246" s="85"/>
-      <c r="G246" s="35" t="s">
+      <c r="J250" s="35"/>
+      <c r="K250" s="35"/>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A251" s="108"/>
+      <c r="B251" s="129"/>
+      <c r="C251" s="82"/>
+      <c r="D251" s="73"/>
+      <c r="E251" s="90"/>
+      <c r="F251" s="91"/>
+      <c r="G251" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="H246" s="28" t="s">
+      <c r="H251" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="J246" s="39"/>
-      <c r="K246" s="39"/>
-    </row>
-    <row r="247" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A247" s="88"/>
-      <c r="B247" s="142"/>
-      <c r="C247" s="146"/>
-      <c r="D247" s="117"/>
-      <c r="E247" s="75" t="s">
+      <c r="J251" s="35"/>
+      <c r="K251" s="35"/>
+    </row>
+    <row r="252" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A252" s="108"/>
+      <c r="B252" s="129"/>
+      <c r="C252" s="82"/>
+      <c r="D252" s="73"/>
+      <c r="E252" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="F247" s="85" t="s">
+      <c r="F252" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="G247" s="111" t="s">
+      <c r="G252" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="H247" s="28" t="s">
+      <c r="H252" s="24" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A248" s="88"/>
-      <c r="B248" s="142"/>
-      <c r="C248" s="146"/>
-      <c r="D248" s="117"/>
-      <c r="E248" s="75"/>
-      <c r="F248" s="85"/>
-      <c r="G248" s="111"/>
-      <c r="H248" s="28" t="s">
+    <row r="253" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A253" s="108"/>
+      <c r="B253" s="129"/>
+      <c r="C253" s="82"/>
+      <c r="D253" s="73"/>
+      <c r="E253" s="90"/>
+      <c r="F253" s="91"/>
+      <c r="G253" s="87"/>
+      <c r="H253" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="J248" s="39"/>
-      <c r="K248" s="39"/>
-    </row>
-    <row r="249" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A249" s="88"/>
-      <c r="B249" s="142"/>
-      <c r="C249" s="146"/>
-      <c r="D249" s="117"/>
-      <c r="E249" s="51" t="s">
+      <c r="J253" s="35"/>
+      <c r="K253" s="35"/>
+    </row>
+    <row r="254" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A254" s="108"/>
+      <c r="B254" s="129"/>
+      <c r="C254" s="82"/>
+      <c r="D254" s="73"/>
+      <c r="E254" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="F249" s="52" t="s">
+      <c r="F254" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G249" s="35" t="s">
+      <c r="G254" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="H249" s="28" t="s">
+      <c r="H254" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="J249" s="39"/>
-      <c r="K249" s="39"/>
-    </row>
-    <row r="250" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A250" s="88"/>
-      <c r="B250" s="142"/>
-      <c r="C250" s="146"/>
-      <c r="D250" s="117"/>
-      <c r="E250" s="75" t="s">
+      <c r="J254" s="35"/>
+      <c r="K254" s="35"/>
+    </row>
+    <row r="255" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A255" s="108"/>
+      <c r="B255" s="129"/>
+      <c r="C255" s="82"/>
+      <c r="D255" s="73"/>
+      <c r="E255" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="F250" s="85" t="s">
+      <c r="F255" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="G250" s="35" t="s">
+      <c r="G255" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="H250" s="28" t="s">
+      <c r="H255" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="J250" s="39"/>
-      <c r="K250" s="39"/>
-    </row>
-    <row r="251" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A251" s="88"/>
-      <c r="B251" s="142"/>
-      <c r="C251" s="146"/>
-      <c r="D251" s="117"/>
-      <c r="E251" s="75"/>
-      <c r="F251" s="85"/>
-      <c r="G251" s="35" t="s">
+      <c r="J255" s="35"/>
+      <c r="K255" s="35"/>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A256" s="108"/>
+      <c r="B256" s="129"/>
+      <c r="C256" s="82"/>
+      <c r="D256" s="73"/>
+      <c r="E256" s="90"/>
+      <c r="F256" s="91"/>
+      <c r="G256" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="H251" s="28" t="s">
+      <c r="H256" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="J251" s="39"/>
-      <c r="K251" s="39"/>
-    </row>
-    <row r="252" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A252" s="88"/>
-      <c r="B252" s="142"/>
-      <c r="C252" s="146"/>
-      <c r="D252" s="117"/>
-      <c r="E252" s="75"/>
-      <c r="F252" s="85"/>
-      <c r="G252" s="35" t="s">
+      <c r="J256" s="35"/>
+      <c r="K256" s="35"/>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A257" s="108"/>
+      <c r="B257" s="129"/>
+      <c r="C257" s="82"/>
+      <c r="D257" s="73"/>
+      <c r="E257" s="90"/>
+      <c r="F257" s="91"/>
+      <c r="G257" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="H252" s="28" t="s">
+      <c r="H257" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="J252" s="39"/>
-      <c r="K252" s="39"/>
-    </row>
-    <row r="253" spans="1:11" ht="15" customHeight="1">
-      <c r="A253" s="88"/>
-      <c r="B253" s="142"/>
-      <c r="C253" s="146"/>
-      <c r="D253" s="117"/>
-      <c r="E253" s="51" t="s">
+      <c r="J257" s="35"/>
+      <c r="K257" s="35"/>
+    </row>
+    <row r="258" spans="1:11" ht="15" customHeight="1">
+      <c r="A258" s="108"/>
+      <c r="B258" s="129"/>
+      <c r="C258" s="82"/>
+      <c r="D258" s="73"/>
+      <c r="E258" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F253" s="52" t="s">
+      <c r="F258" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="G253" s="35" t="s">
+      <c r="G258" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="H253" s="28" t="s">
+      <c r="H258" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="J253" s="39"/>
-      <c r="K253" s="39"/>
-    </row>
-    <row r="254" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A254" s="102"/>
-      <c r="B254" s="143"/>
-      <c r="C254" s="146"/>
-      <c r="D254" s="117"/>
-      <c r="E254" s="53" t="s">
+      <c r="J258" s="35"/>
+      <c r="K258" s="35"/>
+    </row>
+    <row r="259" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="126"/>
+      <c r="B259" s="130"/>
+      <c r="C259" s="82"/>
+      <c r="D259" s="73"/>
+      <c r="E259" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F254" s="139" t="s">
+      <c r="F259" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="G254" s="140" t="s">
+      <c r="G259" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="H254" s="122" t="s">
+      <c r="H259" s="58" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="255" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A255" s="102"/>
-      <c r="B255" s="143"/>
-      <c r="C255" s="146"/>
-      <c r="D255" s="117"/>
-      <c r="E255" s="77" t="s">
+    <row r="260" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A260" s="126"/>
+      <c r="B260" s="130"/>
+      <c r="C260" s="82"/>
+      <c r="D260" s="73"/>
+      <c r="E260" s="66" t="s">
         <v>555</v>
       </c>
-      <c r="F255" s="133" t="s">
+      <c r="F260" s="92" t="s">
         <v>556</v>
       </c>
-      <c r="G255" s="140" t="s">
+      <c r="G260" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="H255" s="122"/>
-    </row>
-    <row r="256" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A256" s="102"/>
-      <c r="B256" s="143"/>
-      <c r="C256" s="146"/>
-      <c r="D256" s="117"/>
-      <c r="E256" s="79"/>
-      <c r="F256" s="96"/>
-      <c r="G256" s="35" t="s">
+      <c r="H260" s="58"/>
+    </row>
+    <row r="261" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A261" s="126"/>
+      <c r="B261" s="130"/>
+      <c r="C261" s="82"/>
+      <c r="D261" s="73"/>
+      <c r="E261" s="67"/>
+      <c r="F261" s="93"/>
+      <c r="G261" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="H256" s="28"/>
-    </row>
-    <row r="257" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A257" s="102"/>
-      <c r="B257" s="143"/>
-      <c r="C257" s="146"/>
-      <c r="D257" s="117"/>
-      <c r="E257" s="51" t="s">
+      <c r="H261" s="24"/>
+    </row>
+    <row r="262" spans="1:11" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A262" s="126"/>
+      <c r="B262" s="130"/>
+      <c r="C262" s="82"/>
+      <c r="D262" s="73"/>
+      <c r="E262" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="F257" s="52" t="s">
+      <c r="F262" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="G257" s="35" t="s">
+      <c r="G262" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="H257" s="28"/>
-    </row>
-    <row r="258" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A258" s="89"/>
-      <c r="B258" s="144"/>
-      <c r="C258" s="147"/>
-      <c r="D258" s="118"/>
-      <c r="E258" s="149" t="s">
+      <c r="H262" s="24"/>
+    </row>
+    <row r="263" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A263" s="109"/>
+      <c r="B263" s="131"/>
+      <c r="C263" s="83"/>
+      <c r="D263" s="74"/>
+      <c r="E263" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="F258" s="23" t="s">
+      <c r="F263" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="G258" s="13" t="s">
+      <c r="G263" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="H258" s="148"/>
-      <c r="J258" s="39"/>
-      <c r="K258" s="39"/>
-    </row>
-    <row r="259" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A259" s="87" t="s">
+      <c r="H263" s="63"/>
+      <c r="J263" s="35"/>
+      <c r="K263" s="35"/>
+    </row>
+    <row r="264" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A264" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B259" s="84" t="s">
+      <c r="B264" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C259" s="116" t="s">
+      <c r="C264" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="D259" s="116" t="s">
+      <c r="D264" s="72" t="s">
         <v>497</v>
       </c>
-      <c r="E259" s="82" t="s">
+      <c r="E264" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="F259" s="84" t="s">
+      <c r="F264" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="G259" s="12" t="s">
+      <c r="G264" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="H259" s="44" t="s">
+      <c r="H264" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="J259" s="39"/>
-      <c r="K259" s="39"/>
-    </row>
-    <row r="260" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A260" s="88"/>
-      <c r="B260" s="85"/>
-      <c r="C260" s="117"/>
-      <c r="D260" s="117"/>
-      <c r="E260" s="83"/>
-      <c r="F260" s="85"/>
-      <c r="G260" s="35" t="s">
+      <c r="J264" s="35"/>
+      <c r="K264" s="35"/>
+    </row>
+    <row r="265" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A265" s="108"/>
+      <c r="B265" s="91"/>
+      <c r="C265" s="73"/>
+      <c r="D265" s="73"/>
+      <c r="E265" s="111"/>
+      <c r="F265" s="91"/>
+      <c r="G265" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H260" s="41" t="s">
+      <c r="H265" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="J260" s="39"/>
-      <c r="K260" s="39"/>
-    </row>
-    <row r="261" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A261" s="88"/>
-      <c r="B261" s="85"/>
-      <c r="C261" s="117"/>
-      <c r="D261" s="117"/>
-      <c r="E261" s="60" t="s">
+      <c r="J265" s="35"/>
+      <c r="K265" s="35"/>
+    </row>
+    <row r="266" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A266" s="108"/>
+      <c r="B266" s="91"/>
+      <c r="C266" s="73"/>
+      <c r="D266" s="73"/>
+      <c r="E266" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F261" s="52" t="s">
+      <c r="F266" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G261" s="35" t="s">
+      <c r="G266" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="H261" s="41" t="s">
+      <c r="H266" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="J261" s="39"/>
-      <c r="K261" s="39"/>
-    </row>
-    <row r="262" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A262" s="88"/>
-      <c r="B262" s="85"/>
-      <c r="C262" s="117"/>
-      <c r="D262" s="117"/>
-      <c r="E262" s="75" t="s">
+      <c r="J266" s="35"/>
+      <c r="K266" s="35"/>
+    </row>
+    <row r="267" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A267" s="108"/>
+      <c r="B267" s="91"/>
+      <c r="C267" s="73"/>
+      <c r="D267" s="73"/>
+      <c r="E267" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="F262" s="85" t="s">
+      <c r="F267" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="G262" s="35" t="s">
+      <c r="G267" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="H262" s="41" t="s">
+      <c r="H267" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="J262" s="39"/>
-      <c r="K262" s="39"/>
-    </row>
-    <row r="263" spans="1:11" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A263" s="88"/>
-      <c r="B263" s="85"/>
-      <c r="C263" s="117"/>
-      <c r="D263" s="117"/>
-      <c r="E263" s="75"/>
-      <c r="F263" s="85"/>
-      <c r="G263" s="109" t="s">
+      <c r="J267" s="35"/>
+      <c r="K267" s="35"/>
+    </row>
+    <row r="268" spans="1:11" s="35" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A268" s="108"/>
+      <c r="B268" s="91"/>
+      <c r="C268" s="73"/>
+      <c r="D268" s="73"/>
+      <c r="E268" s="90"/>
+      <c r="F268" s="91"/>
+      <c r="G268" s="88" t="s">
         <v>382</v>
       </c>
-      <c r="H263" s="41" t="s">
+      <c r="H268" s="37" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A264" s="88"/>
-      <c r="B264" s="85"/>
-      <c r="C264" s="117"/>
-      <c r="D264" s="117"/>
-      <c r="E264" s="75"/>
-      <c r="F264" s="85"/>
-      <c r="G264" s="110"/>
-      <c r="H264" s="41" t="s">
+    <row r="269" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A269" s="108"/>
+      <c r="B269" s="91"/>
+      <c r="C269" s="73"/>
+      <c r="D269" s="73"/>
+      <c r="E269" s="90"/>
+      <c r="F269" s="91"/>
+      <c r="G269" s="89"/>
+      <c r="H269" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="J264" s="39"/>
-      <c r="K264" s="39"/>
-    </row>
-    <row r="265" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A265" s="88"/>
-      <c r="B265" s="85"/>
-      <c r="C265" s="117"/>
-      <c r="D265" s="117"/>
-      <c r="E265" s="75"/>
-      <c r="F265" s="85"/>
-      <c r="G265" s="35" t="s">
+      <c r="J269" s="35"/>
+      <c r="K269" s="35"/>
+    </row>
+    <row r="270" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A270" s="108"/>
+      <c r="B270" s="91"/>
+      <c r="C270" s="73"/>
+      <c r="D270" s="73"/>
+      <c r="E270" s="90"/>
+      <c r="F270" s="91"/>
+      <c r="G270" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="H265" s="41" t="s">
+      <c r="H270" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="J265" s="39"/>
-      <c r="K265" s="39"/>
-    </row>
-    <row r="266" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A266" s="88"/>
-      <c r="B266" s="85"/>
-      <c r="C266" s="117"/>
-      <c r="D266" s="117"/>
-      <c r="E266" s="51" t="s">
+      <c r="J270" s="35"/>
+      <c r="K270" s="35"/>
+    </row>
+    <row r="271" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A271" s="108"/>
+      <c r="B271" s="91"/>
+      <c r="C271" s="73"/>
+      <c r="D271" s="73"/>
+      <c r="E271" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F266" s="52" t="s">
+      <c r="F271" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G266" s="35" t="s">
+      <c r="G271" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="H266" s="41" t="s">
+      <c r="H271" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="J266" s="39"/>
-      <c r="K266" s="39"/>
-    </row>
-    <row r="267" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A267" s="88"/>
-      <c r="B267" s="85"/>
-      <c r="C267" s="117"/>
-      <c r="D267" s="117"/>
-      <c r="E267" s="51" t="s">
+      <c r="J271" s="35"/>
+      <c r="K271" s="35"/>
+    </row>
+    <row r="272" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A272" s="108"/>
+      <c r="B272" s="91"/>
+      <c r="C272" s="73"/>
+      <c r="D272" s="73"/>
+      <c r="E272" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F267" s="52" t="s">
+      <c r="F272" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G267" s="35" t="s">
+      <c r="G272" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="H267" s="41" t="s">
+      <c r="H272" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="J267" s="39"/>
-      <c r="K267" s="39"/>
-    </row>
-    <row r="268" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A268" s="88"/>
-      <c r="B268" s="85"/>
-      <c r="C268" s="117"/>
-      <c r="D268" s="117"/>
-      <c r="E268" s="51" t="s">
+      <c r="J272" s="35"/>
+      <c r="K272" s="35"/>
+    </row>
+    <row r="273" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A273" s="108"/>
+      <c r="B273" s="91"/>
+      <c r="C273" s="73"/>
+      <c r="D273" s="73"/>
+      <c r="E273" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F268" s="52" t="s">
+      <c r="F273" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G268" s="35" t="s">
+      <c r="G273" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="H268" s="41" t="s">
+      <c r="H273" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="J268" s="39"/>
-      <c r="K268" s="39"/>
-    </row>
-    <row r="269" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A269" s="88"/>
-      <c r="B269" s="85"/>
-      <c r="C269" s="117"/>
-      <c r="D269" s="117"/>
-      <c r="E269" s="74" t="s">
+      <c r="J273" s="35"/>
+      <c r="K273" s="35"/>
+    </row>
+    <row r="274" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A274" s="108"/>
+      <c r="B274" s="91"/>
+      <c r="C274" s="73"/>
+      <c r="D274" s="73"/>
+      <c r="E274" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F269" s="85" t="s">
+      <c r="F274" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="G269" s="35" t="s">
+      <c r="G274" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="H269" s="41" t="s">
+      <c r="H274" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="J269" s="39"/>
-      <c r="K269" s="39"/>
-    </row>
-    <row r="270" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A270" s="89"/>
-      <c r="B270" s="86"/>
-      <c r="C270" s="118"/>
-      <c r="D270" s="118"/>
-      <c r="E270" s="76"/>
-      <c r="F270" s="86"/>
-      <c r="G270" s="13" t="s">
+      <c r="J274" s="35"/>
+      <c r="K274" s="35"/>
+    </row>
+    <row r="275" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A275" s="109"/>
+      <c r="B275" s="114"/>
+      <c r="C275" s="74"/>
+      <c r="D275" s="74"/>
+      <c r="E275" s="113"/>
+      <c r="F275" s="114"/>
+      <c r="G275" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H270" s="43" t="s">
+      <c r="H275" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="J270" s="39"/>
-      <c r="K270" s="39"/>
-    </row>
-    <row r="271" spans="1:11">
-      <c r="A271" s="2"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="H271" s="7"/>
-    </row>
-    <row r="272" spans="1:11">
-      <c r="A272" s="2"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7"/>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="F274" s="7"/>
-      <c r="G274" s="7"/>
-      <c r="H274" s="7"/>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="4"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7"/>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="1"/>
-      <c r="B276" s="5"/>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
+      <c r="J275" s="35"/>
+      <c r="K275" s="35"/>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" s="2"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="1"/>
-      <c r="B277" s="5"/>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
+    <row r="277" spans="1:11">
+      <c r="A277" s="2"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="1"/>
-      <c r="B278" s="5"/>
-      <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
+    <row r="278" spans="1:11">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="1"/>
-      <c r="B279" s="5"/>
-      <c r="C279" s="5"/>
-      <c r="D279" s="5"/>
+    <row r="279" spans="1:11">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="1"/>
-      <c r="B280" s="5"/>
-      <c r="C280" s="5"/>
-      <c r="D280" s="5"/>
+    <row r="280" spans="1:11">
+      <c r="A280" s="4"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:11">
       <c r="A281" s="1"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -7371,7 +7466,7 @@
       <c r="G281" s="7"/>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:11">
       <c r="A282" s="1"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -7380,7 +7475,7 @@
       <c r="G282" s="7"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:11">
       <c r="A283" s="1"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -7389,7 +7484,7 @@
       <c r="G283" s="7"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:11">
       <c r="A284" s="1"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -7398,7 +7493,7 @@
       <c r="G284" s="7"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:11">
       <c r="A285" s="1"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -7407,7 +7502,7 @@
       <c r="G285" s="7"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:11">
       <c r="A286" s="1"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -7416,7 +7511,7 @@
       <c r="G286" s="7"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:11">
       <c r="A287" s="1"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -7425,7 +7520,7 @@
       <c r="G287" s="7"/>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:11">
       <c r="A288" s="1"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -7443,77 +7538,124 @@
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
     </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="F291" s="7"/>
+      <c r="G291" s="7"/>
+      <c r="H291" s="7"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="F292" s="7"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="F293" s="7"/>
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="155">
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="G160:G161"/>
-    <mergeCell ref="B214:B227"/>
-    <mergeCell ref="C214:C227"/>
-    <mergeCell ref="D214:D227"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="C2:C34"/>
-    <mergeCell ref="C35:C116"/>
-    <mergeCell ref="C117:C213"/>
-    <mergeCell ref="C230:C258"/>
-    <mergeCell ref="C259:C270"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D2:D34"/>
-    <mergeCell ref="D35:D116"/>
-    <mergeCell ref="D117:D213"/>
-    <mergeCell ref="D230:D258"/>
-    <mergeCell ref="D259:D270"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="G247:G248"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="E241:E244"/>
-    <mergeCell ref="F241:F244"/>
-    <mergeCell ref="G241:G244"/>
-    <mergeCell ref="G234:G235"/>
-    <mergeCell ref="E237:E240"/>
-    <mergeCell ref="F237:F240"/>
-    <mergeCell ref="G237:G240"/>
-    <mergeCell ref="F234:F236"/>
-    <mergeCell ref="E234:E236"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="F255:F256"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="G224:G225"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="G132:G134"/>
-    <mergeCell ref="E215:E220"/>
-    <mergeCell ref="F215:F220"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="E182:E206"/>
-    <mergeCell ref="F182:F206"/>
-    <mergeCell ref="E211:E213"/>
-    <mergeCell ref="F211:F213"/>
-    <mergeCell ref="F170:F177"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G106"/>
+  <mergeCells count="160">
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="G214:G215"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="F227:F232"/>
+    <mergeCell ref="E227:E232"/>
+    <mergeCell ref="G227:G232"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="E72:E79"/>
+    <mergeCell ref="F72:F79"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F89:F104"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F121:F125"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="E117:E126"/>
+    <mergeCell ref="F109:F114"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E89:E104"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="E170:E177"/>
+    <mergeCell ref="B235:B263"/>
+    <mergeCell ref="A235:A263"/>
+    <mergeCell ref="E155:E159"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E109:E116"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="A214:A232"/>
+    <mergeCell ref="B2:B34"/>
+    <mergeCell ref="A35:A116"/>
+    <mergeCell ref="B35:B116"/>
+    <mergeCell ref="A2:A34"/>
+    <mergeCell ref="B117:B213"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A117:A213"/>
+    <mergeCell ref="A264:A275"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="E267:E270"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="F274:F275"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="E255:E257"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="B264:B275"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="F252:F253"/>
     <mergeCell ref="G74:G76"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="E18:E30"/>
@@ -7529,77 +7671,80 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="G31:G33"/>
-    <mergeCell ref="A259:A270"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="F262:F265"/>
-    <mergeCell ref="E269:E270"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="E250:E252"/>
-    <mergeCell ref="F250:F252"/>
-    <mergeCell ref="B259:B270"/>
-    <mergeCell ref="E247:E248"/>
-    <mergeCell ref="F247:F248"/>
-    <mergeCell ref="B2:B34"/>
-    <mergeCell ref="A35:A116"/>
-    <mergeCell ref="B35:B116"/>
-    <mergeCell ref="A2:A34"/>
-    <mergeCell ref="B117:B213"/>
-    <mergeCell ref="A214:A226"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A117:A213"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E89:E104"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="E170:E177"/>
-    <mergeCell ref="B230:B258"/>
-    <mergeCell ref="A230:A258"/>
-    <mergeCell ref="E155:E159"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="E109:E116"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F89:F104"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F121:F125"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="E117:E126"/>
-    <mergeCell ref="F109:F114"/>
-    <mergeCell ref="G112:G114"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="F49:F60"/>
     <mergeCell ref="E49:E60"/>
     <mergeCell ref="G49:G51"/>
     <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F182:F206"/>
+    <mergeCell ref="E211:E213"/>
+    <mergeCell ref="F211:F213"/>
+    <mergeCell ref="F170:F177"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="G112:G114"/>
     <mergeCell ref="G107:G108"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="E72:E79"/>
-    <mergeCell ref="F72:F79"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G252:G253"/>
+    <mergeCell ref="G268:G269"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="F246:F249"/>
+    <mergeCell ref="G246:G249"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="F242:F245"/>
+    <mergeCell ref="G242:G245"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="F260:F261"/>
+    <mergeCell ref="C2:C34"/>
+    <mergeCell ref="C35:C116"/>
+    <mergeCell ref="C117:C213"/>
+    <mergeCell ref="C235:C263"/>
+    <mergeCell ref="C264:C275"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D2:D34"/>
+    <mergeCell ref="D35:D116"/>
+    <mergeCell ref="D117:D213"/>
+    <mergeCell ref="D235:D263"/>
+    <mergeCell ref="D264:D275"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="J112:J114"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="B214:B232"/>
+    <mergeCell ref="C214:C232"/>
+    <mergeCell ref="D214:D232"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="G132:G134"/>
+    <mergeCell ref="E216:E220"/>
+    <mergeCell ref="F216:F220"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="E182:E206"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
